--- a/hans/OcrmCashierRecEntity.xlsx
+++ b/hans/OcrmCashierRecEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6411" uniqueCount="3031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6497" uniqueCount="3079">
   <si>
     <t>_id</t>
   </si>
@@ -7950,10 +7950,16 @@
     <t>513</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/478_1685697854331_8505.pdf</t>
+  </si>
+  <si>
     <t>1684401557079</t>
   </si>
   <si>
-    <t>1684488313694</t>
+    <t>1685697849657</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/660_1685697866255_9651.pdf</t>
   </si>
   <si>
     <t>1684401583399</t>
@@ -7962,7 +7968,7 @@
     <t>660</t>
   </si>
   <si>
-    <t>1684488340262</t>
+    <t>1685697869977</t>
   </si>
   <si>
     <t>515</t>
@@ -8067,10 +8073,13 @@
     <t>1684488843000</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/83_1685697978569_4032.pdf</t>
+  </si>
+  <si>
     <t>1684402149575</t>
   </si>
   <si>
-    <t>1684488907104</t>
+    <t>1684488907000</t>
   </si>
   <si>
     <t>524</t>
@@ -8580,13 +8589,16 @@
     <t>972</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/mv great woods-b23002-陈礼斌佣金-rmb 32354_1685697544695_6357.2.pdf</t>
+  </si>
+  <si>
     <t>1684914462118</t>
   </si>
   <si>
     <t>32354.2</t>
   </si>
   <si>
-    <t>1684914836916</t>
+    <t>1685697546618</t>
   </si>
   <si>
     <t>971</t>
@@ -8610,13 +8622,16 @@
     <t>559</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/mv great woods-b23002-竺敏杰佣金-rmb 89596_1685697559185_4955.25.pdf</t>
+  </si>
+  <si>
     <t>1684914515173</t>
   </si>
   <si>
     <t>89596.25</t>
   </si>
   <si>
-    <t>1684914889223</t>
+    <t>1685694155000</t>
   </si>
   <si>
     <t>945</t>
@@ -9045,25 +9060,31 @@
     <t>587</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/15955_1685677954721_9962.09.png</t>
+  </si>
+  <si>
     <t>1685525431382</t>
   </si>
   <si>
     <t>15955.09</t>
   </si>
   <si>
-    <t>1685525813300</t>
+    <t>1685525813000</t>
   </si>
   <si>
     <t>1064</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/11729_1685678014393_8242.85.jpg</t>
+  </si>
+  <si>
     <t>1685525451581</t>
   </si>
   <si>
     <t>11729.85</t>
   </si>
   <si>
-    <t>1685525846379</t>
+    <t>1685525846000</t>
   </si>
   <si>
     <t>1066</t>
@@ -9072,25 +9093,31 @@
     <t>589</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/花旗收0_1685694301026_465.24.pdf</t>
+  </si>
+  <si>
     <t>1685605636570</t>
   </si>
   <si>
     <t>0.24</t>
   </si>
   <si>
-    <t>1685519393808</t>
+    <t>1685519393000</t>
   </si>
   <si>
     <t>1069</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/20299_1685678030919_8378.78.pdf</t>
+  </si>
+  <si>
     <t>1685608700981</t>
   </si>
   <si>
     <t>20299.78</t>
   </si>
   <si>
-    <t>1685522688651</t>
+    <t>1685522688000</t>
   </si>
   <si>
     <t>1056</t>
@@ -9099,13 +9126,130 @@
     <t>591</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/mv sophia ocean-v23015-加油港使费-usd 999_1685697572666_3538.pdf</t>
+  </si>
+  <si>
     <t>1685671353119</t>
   </si>
   <si>
-    <t>1685671757812</t>
+    <t>1685671757000</t>
   </si>
   <si>
     <t>1060</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/mv sophia ocean-吊唁惠骏船长亲属费用-rmb 1047_1685697517475_3335.98.pdf</t>
+  </si>
+  <si>
+    <t>1685677666433</t>
+  </si>
+  <si>
+    <t>1047.98</t>
+  </si>
+  <si>
+    <t>1685678068000</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/mv dina ocean-孟船长大连船厂修船费用-rmb 4527_1685697503298_1617.pdf</t>
+  </si>
+  <si>
+    <t>1685677853985</t>
+  </si>
+  <si>
+    <t>4527</t>
+  </si>
+  <si>
+    <t>1685678255000</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/mv dina ocean-张老轨大连船厂修船费用-rmb 8884_1685697528604_675.97.pdf</t>
+  </si>
+  <si>
+    <t>1685677998567</t>
+  </si>
+  <si>
+    <t>8884.97</t>
+  </si>
+  <si>
+    <t>1685678398000</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/716_1685697839129_8966.pdf</t>
+  </si>
+  <si>
+    <t>1685685796122</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>1685686196000</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/1158_1685697823076_6974.19.pdf</t>
+  </si>
+  <si>
+    <t>1685685860843</t>
+  </si>
+  <si>
+    <t>1158.19</t>
+  </si>
+  <si>
+    <t>1685686260000</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/2462_1685697810362_6500.pdf</t>
+  </si>
+  <si>
+    <t>1685685932935</t>
+  </si>
+  <si>
+    <t>2462</t>
+  </si>
+  <si>
+    <t>1685686328000</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>1685687504099</t>
+  </si>
+  <si>
+    <t>119700</t>
+  </si>
+  <si>
+    <t>1685687907490</t>
+  </si>
+  <si>
+    <t>1079</t>
   </si>
 </sst>
 </file>
@@ -9149,7 +9293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L584"/>
+  <dimension ref="A1:L591"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -10485,7 +10629,7 @@
         <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="L38" t="s">
         <v>220</v>
@@ -26834,11 +26978,14 @@
       <c r="A506" t="s">
         <v>2644</v>
       </c>
+      <c r="B506" t="s">
+        <v>2645</v>
+      </c>
       <c r="C506" t="s">
         <v>70</v>
       </c>
       <c r="D506" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="E506" t="s">
         <v>26</v>
@@ -26847,7 +26994,7 @@
         <v>2460</v>
       </c>
       <c r="G506" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="H506" t="s">
         <v>230</v>
@@ -26859,27 +27006,30 @@
         <v>30</v>
       </c>
       <c r="L506" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
         <v>1397</v>
       </c>
+      <c r="B507" t="s">
+        <v>2648</v>
+      </c>
       <c r="C507" t="s">
         <v>70</v>
       </c>
       <c r="D507" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="E507" t="s">
         <v>26</v>
       </c>
       <c r="F507" t="s">
-        <v>2648</v>
+        <v>2650</v>
       </c>
       <c r="G507" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="H507" t="s">
         <v>421</v>
@@ -26891,21 +27041,21 @@
         <v>30</v>
       </c>
       <c r="L507" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="B508" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="C508" t="s">
         <v>70</v>
       </c>
       <c r="D508" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="E508" t="s">
         <v>26</v>
@@ -26914,7 +27064,7 @@
         <v>400</v>
       </c>
       <c r="G508" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="H508" t="s">
         <v>351</v>
@@ -26926,7 +27076,7 @@
         <v>30</v>
       </c>
       <c r="L508" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="509">
@@ -26934,22 +27084,22 @@
         <v>1391</v>
       </c>
       <c r="B509" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="C509" t="s">
         <v>70</v>
       </c>
       <c r="D509" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="E509" t="s">
         <v>26</v>
       </c>
       <c r="F509" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="G509" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="H509" t="s">
         <v>326</v>
@@ -26961,30 +27111,30 @@
         <v>30</v>
       </c>
       <c r="L509" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>2658</v>
+        <v>2660</v>
       </c>
       <c r="B510" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="C510" t="s">
         <v>70</v>
       </c>
       <c r="D510" t="s">
-        <v>2660</v>
+        <v>2662</v>
       </c>
       <c r="E510" t="s">
         <v>26</v>
       </c>
       <c r="F510" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="G510" t="s">
-        <v>2662</v>
+        <v>2664</v>
       </c>
       <c r="H510" t="s">
         <v>466</v>
@@ -26996,7 +27146,7 @@
         <v>30</v>
       </c>
       <c r="L510" t="s">
-        <v>2660</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="511">
@@ -27004,22 +27154,22 @@
         <v>1332</v>
       </c>
       <c r="B511" t="s">
-        <v>2663</v>
+        <v>2665</v>
       </c>
       <c r="C511" t="s">
         <v>70</v>
       </c>
       <c r="D511" t="s">
-        <v>2664</v>
+        <v>2666</v>
       </c>
       <c r="E511" t="s">
         <v>26</v>
       </c>
       <c r="F511" t="s">
-        <v>2665</v>
+        <v>2667</v>
       </c>
       <c r="G511" t="s">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c r="H511" t="s">
         <v>529</v>
@@ -27031,7 +27181,7 @@
         <v>30</v>
       </c>
       <c r="L511" t="s">
-        <v>2664</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="512">
@@ -27039,22 +27189,22 @@
         <v>1214</v>
       </c>
       <c r="B512" t="s">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="C512" t="s">
         <v>70</v>
       </c>
       <c r="D512" t="s">
-        <v>2668</v>
+        <v>2670</v>
       </c>
       <c r="E512" t="s">
         <v>26</v>
       </c>
       <c r="F512" t="s">
-        <v>2669</v>
+        <v>2671</v>
       </c>
       <c r="G512" t="s">
-        <v>2670</v>
+        <v>2672</v>
       </c>
       <c r="H512" t="s">
         <v>476</v>
@@ -27066,30 +27216,30 @@
         <v>30</v>
       </c>
       <c r="L512" t="s">
-        <v>2668</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="B513" t="s">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c r="C513" t="s">
         <v>70</v>
       </c>
       <c r="D513" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="E513" t="s">
         <v>26</v>
       </c>
       <c r="F513" t="s">
-        <v>2674</v>
+        <v>2676</v>
       </c>
       <c r="G513" t="s">
-        <v>2675</v>
+        <v>2677</v>
       </c>
       <c r="H513" t="s">
         <v>315</v>
@@ -27101,7 +27251,7 @@
         <v>30</v>
       </c>
       <c r="L513" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="514">
@@ -27109,22 +27259,22 @@
         <v>1224</v>
       </c>
       <c r="B514" t="s">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="C514" t="s">
         <v>70</v>
       </c>
       <c r="D514" t="s">
-        <v>2677</v>
+        <v>2679</v>
       </c>
       <c r="E514" t="s">
         <v>26</v>
       </c>
       <c r="F514" t="s">
-        <v>2678</v>
+        <v>2680</v>
       </c>
       <c r="G514" t="s">
-        <v>2679</v>
+        <v>2681</v>
       </c>
       <c r="H514" t="s">
         <v>499</v>
@@ -27136,21 +27286,21 @@
         <v>30</v>
       </c>
       <c r="L514" t="s">
-        <v>2677</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="B515" t="s">
-        <v>2681</v>
+        <v>2683</v>
       </c>
       <c r="C515" t="s">
         <v>70</v>
       </c>
       <c r="D515" t="s">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="E515" t="s">
         <v>26</v>
@@ -27159,7 +27309,7 @@
         <v>2477</v>
       </c>
       <c r="G515" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="H515" t="s">
         <v>647</v>
@@ -27171,18 +27321,21 @@
         <v>30</v>
       </c>
       <c r="L515" t="s">
-        <v>2682</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="s">
         <v>1219</v>
       </c>
+      <c r="B516" t="s">
+        <v>2686</v>
+      </c>
       <c r="C516" t="s">
         <v>70</v>
       </c>
       <c r="D516" t="s">
-        <v>2684</v>
+        <v>2687</v>
       </c>
       <c r="E516" t="s">
         <v>26</v>
@@ -27191,7 +27344,7 @@
         <v>416</v>
       </c>
       <c r="G516" t="s">
-        <v>2685</v>
+        <v>2688</v>
       </c>
       <c r="H516" t="s">
         <v>659</v>
@@ -27203,33 +27356,33 @@
         <v>30</v>
       </c>
       <c r="L516" t="s">
-        <v>2684</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>2686</v>
+        <v>2689</v>
       </c>
       <c r="B517" t="s">
-        <v>2687</v>
+        <v>2690</v>
       </c>
       <c r="C517" t="s">
         <v>38</v>
       </c>
       <c r="D517" t="s">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="E517" t="s">
         <v>16</v>
       </c>
       <c r="F517" t="s">
-        <v>2689</v>
+        <v>2692</v>
       </c>
       <c r="G517" t="s">
-        <v>2690</v>
+        <v>2693</v>
       </c>
       <c r="H517" t="s">
-        <v>2691</v>
+        <v>2694</v>
       </c>
       <c r="I517" t="s">
         <v>20</v>
@@ -27238,21 +27391,21 @@
         <v>63</v>
       </c>
       <c r="L517" t="s">
-        <v>2688</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>2692</v>
+        <v>2695</v>
       </c>
       <c r="B518" t="s">
-        <v>2693</v>
+        <v>2696</v>
       </c>
       <c r="C518" t="s">
         <v>38</v>
       </c>
       <c r="D518" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
       <c r="E518" t="s">
         <v>16</v>
@@ -27261,19 +27414,19 @@
         <v>1375</v>
       </c>
       <c r="G518" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="H518" t="s">
-        <v>2696</v>
+        <v>2699</v>
       </c>
       <c r="I518" t="s">
         <v>20</v>
       </c>
       <c r="K518" t="s">
+        <v>2700</v>
+      </c>
+      <c r="L518" t="s">
         <v>2697</v>
-      </c>
-      <c r="L518" t="s">
-        <v>2694</v>
       </c>
     </row>
     <row r="519">
@@ -27281,69 +27434,69 @@
         <v>1243</v>
       </c>
       <c r="B519" t="s">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="C519" t="s">
         <v>38</v>
       </c>
       <c r="D519" t="s">
-        <v>2699</v>
+        <v>2702</v>
       </c>
       <c r="E519" t="s">
         <v>16</v>
       </c>
       <c r="F519" t="s">
-        <v>2700</v>
+        <v>2703</v>
       </c>
       <c r="G519" t="s">
-        <v>2701</v>
+        <v>2704</v>
       </c>
       <c r="H519" t="s">
+        <v>2705</v>
+      </c>
+      <c r="I519" t="s">
+        <v>20</v>
+      </c>
+      <c r="K519" t="s">
+        <v>30</v>
+      </c>
+      <c r="L519" t="s">
         <v>2702</v>
-      </c>
-      <c r="I519" t="s">
-        <v>20</v>
-      </c>
-      <c r="K519" t="s">
-        <v>30</v>
-      </c>
-      <c r="L519" t="s">
-        <v>2699</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>2703</v>
+        <v>2706</v>
       </c>
       <c r="B520" t="s">
-        <v>2704</v>
+        <v>2707</v>
       </c>
       <c r="C520" t="s">
         <v>70</v>
       </c>
       <c r="D520" t="s">
-        <v>2705</v>
+        <v>2708</v>
       </c>
       <c r="E520" t="s">
         <v>26</v>
       </c>
       <c r="F520" t="s">
-        <v>2706</v>
+        <v>2709</v>
       </c>
       <c r="G520" t="s">
-        <v>2707</v>
+        <v>2710</v>
       </c>
       <c r="H520" t="s">
+        <v>2711</v>
+      </c>
+      <c r="I520" t="s">
+        <v>20</v>
+      </c>
+      <c r="K520" t="s">
+        <v>30</v>
+      </c>
+      <c r="L520" t="s">
         <v>2708</v>
-      </c>
-      <c r="I520" t="s">
-        <v>20</v>
-      </c>
-      <c r="K520" t="s">
-        <v>30</v>
-      </c>
-      <c r="L520" t="s">
-        <v>2705</v>
       </c>
     </row>
     <row r="521">
@@ -27351,48 +27504,48 @@
         <v>1413</v>
       </c>
       <c r="B521" t="s">
-        <v>2709</v>
+        <v>2712</v>
       </c>
       <c r="C521" t="s">
         <v>70</v>
       </c>
       <c r="D521" t="s">
-        <v>2710</v>
+        <v>2713</v>
       </c>
       <c r="E521" t="s">
         <v>26</v>
       </c>
       <c r="F521" t="s">
-        <v>2711</v>
+        <v>2714</v>
       </c>
       <c r="G521" t="s">
-        <v>2712</v>
+        <v>2715</v>
       </c>
       <c r="H521" t="s">
+        <v>2716</v>
+      </c>
+      <c r="I521" t="s">
+        <v>20</v>
+      </c>
+      <c r="K521" t="s">
+        <v>30</v>
+      </c>
+      <c r="L521" t="s">
         <v>2713</v>
-      </c>
-      <c r="I521" t="s">
-        <v>20</v>
-      </c>
-      <c r="K521" t="s">
-        <v>30</v>
-      </c>
-      <c r="L521" t="s">
-        <v>2710</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>2714</v>
+        <v>2717</v>
       </c>
       <c r="B522" t="s">
-        <v>2715</v>
+        <v>2718</v>
       </c>
       <c r="C522" t="s">
         <v>70</v>
       </c>
       <c r="D522" t="s">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="E522" t="s">
         <v>26</v>
@@ -27401,7 +27554,7 @@
         <v>264</v>
       </c>
       <c r="G522" t="s">
-        <v>2717</v>
+        <v>2720</v>
       </c>
       <c r="H522" t="s">
         <v>372</v>
@@ -27413,7 +27566,7 @@
         <v>30</v>
       </c>
       <c r="L522" t="s">
-        <v>2716</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="523">
@@ -27421,13 +27574,13 @@
         <v>1342</v>
       </c>
       <c r="B523" t="s">
-        <v>2718</v>
+        <v>2721</v>
       </c>
       <c r="C523" t="s">
         <v>70</v>
       </c>
       <c r="D523" t="s">
-        <v>2719</v>
+        <v>2722</v>
       </c>
       <c r="E523" t="s">
         <v>26</v>
@@ -27436,7 +27589,7 @@
         <v>735</v>
       </c>
       <c r="G523" t="s">
-        <v>2720</v>
+        <v>2723</v>
       </c>
       <c r="H523" t="s">
         <v>511</v>
@@ -27448,21 +27601,21 @@
         <v>30</v>
       </c>
       <c r="L523" t="s">
-        <v>2719</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>2721</v>
+        <v>2724</v>
       </c>
       <c r="B524" t="s">
-        <v>2722</v>
+        <v>2725</v>
       </c>
       <c r="C524" t="s">
         <v>38</v>
       </c>
       <c r="D524" t="s">
-        <v>2723</v>
+        <v>2726</v>
       </c>
       <c r="E524" t="s">
         <v>16</v>
@@ -27471,19 +27624,19 @@
         <v>1340</v>
       </c>
       <c r="G524" t="s">
-        <v>2724</v>
+        <v>2727</v>
       </c>
       <c r="H524" t="s">
-        <v>2725</v>
+        <v>2728</v>
       </c>
       <c r="I524" t="s">
         <v>20</v>
       </c>
       <c r="K524" t="s">
+        <v>2729</v>
+      </c>
+      <c r="L524" t="s">
         <v>2726</v>
-      </c>
-      <c r="L524" t="s">
-        <v>2723</v>
       </c>
     </row>
     <row r="525">
@@ -27491,48 +27644,48 @@
         <v>1271</v>
       </c>
       <c r="B525" t="s">
-        <v>2727</v>
+        <v>2730</v>
       </c>
       <c r="C525" t="s">
         <v>38</v>
       </c>
       <c r="D525" t="s">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="E525" t="s">
         <v>16</v>
       </c>
       <c r="F525" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="G525" t="s">
+        <v>2732</v>
+      </c>
+      <c r="H525" t="s">
+        <v>2733</v>
+      </c>
+      <c r="I525" t="s">
+        <v>20</v>
+      </c>
+      <c r="K525" t="s">
         <v>2729</v>
       </c>
-      <c r="H525" t="s">
-        <v>2730</v>
-      </c>
-      <c r="I525" t="s">
-        <v>20</v>
-      </c>
-      <c r="K525" t="s">
-        <v>2726</v>
-      </c>
       <c r="L525" t="s">
-        <v>2728</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>2731</v>
+        <v>2734</v>
       </c>
       <c r="B526" t="s">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="C526" t="s">
         <v>137</v>
       </c>
       <c r="D526" t="s">
-        <v>2733</v>
+        <v>2736</v>
       </c>
       <c r="E526" t="s">
         <v>16</v>
@@ -27541,10 +27694,10 @@
         <v>244</v>
       </c>
       <c r="G526" t="s">
-        <v>2734</v>
+        <v>2737</v>
       </c>
       <c r="H526" t="s">
-        <v>2735</v>
+        <v>2738</v>
       </c>
       <c r="I526" t="s">
         <v>20</v>
@@ -27553,7 +27706,7 @@
         <v>30</v>
       </c>
       <c r="L526" t="s">
-        <v>2733</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="527">
@@ -27561,25 +27714,25 @@
         <v>1265</v>
       </c>
       <c r="B527" t="s">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="C527" t="s">
         <v>137</v>
       </c>
       <c r="D527" t="s">
-        <v>2737</v>
+        <v>2740</v>
       </c>
       <c r="E527" t="s">
         <v>16</v>
       </c>
       <c r="F527" t="s">
-        <v>2738</v>
+        <v>2741</v>
       </c>
       <c r="G527" t="s">
-        <v>2739</v>
+        <v>2742</v>
       </c>
       <c r="H527" t="s">
-        <v>2740</v>
+        <v>2743</v>
       </c>
       <c r="I527" t="s">
         <v>20</v>
@@ -27588,33 +27741,33 @@
         <v>143</v>
       </c>
       <c r="L527" t="s">
-        <v>2737</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>2741</v>
+        <v>2744</v>
       </c>
       <c r="B528" t="s">
-        <v>2742</v>
+        <v>2745</v>
       </c>
       <c r="C528" t="s">
         <v>137</v>
       </c>
       <c r="D528" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="E528" t="s">
         <v>16</v>
       </c>
       <c r="F528" t="s">
-        <v>2738</v>
+        <v>2741</v>
       </c>
       <c r="G528" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="H528" t="s">
-        <v>2745</v>
+        <v>2748</v>
       </c>
       <c r="I528" t="s">
         <v>20</v>
@@ -27623,7 +27776,7 @@
         <v>30</v>
       </c>
       <c r="L528" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="529">
@@ -27631,13 +27784,13 @@
         <v>1253</v>
       </c>
       <c r="B529" t="s">
-        <v>2746</v>
+        <v>2749</v>
       </c>
       <c r="C529" t="s">
         <v>137</v>
       </c>
       <c r="D529" t="s">
-        <v>2747</v>
+        <v>2750</v>
       </c>
       <c r="E529" t="s">
         <v>16</v>
@@ -27646,10 +27799,10 @@
         <v>2298</v>
       </c>
       <c r="G529" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="H529" t="s">
-        <v>2749</v>
+        <v>2752</v>
       </c>
       <c r="I529" t="s">
         <v>20</v>
@@ -27658,42 +27811,42 @@
         <v>30</v>
       </c>
       <c r="L529" t="s">
-        <v>2747</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>2750</v>
+        <v>2753</v>
       </c>
       <c r="B530" t="s">
-        <v>2751</v>
+        <v>2754</v>
       </c>
       <c r="C530" t="s">
         <v>70</v>
       </c>
       <c r="D530" t="s">
-        <v>2752</v>
+        <v>2755</v>
       </c>
       <c r="E530" t="s">
         <v>26</v>
       </c>
       <c r="F530" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="G530" t="s">
-        <v>2754</v>
+        <v>2757</v>
       </c>
       <c r="H530" t="s">
+        <v>2758</v>
+      </c>
+      <c r="I530" t="s">
+        <v>20</v>
+      </c>
+      <c r="K530" t="s">
+        <v>30</v>
+      </c>
+      <c r="L530" t="s">
         <v>2755</v>
-      </c>
-      <c r="I530" t="s">
-        <v>20</v>
-      </c>
-      <c r="K530" t="s">
-        <v>30</v>
-      </c>
-      <c r="L530" t="s">
-        <v>2752</v>
       </c>
     </row>
     <row r="531">
@@ -27701,25 +27854,25 @@
         <v>1299</v>
       </c>
       <c r="B531" t="s">
-        <v>2756</v>
+        <v>2759</v>
       </c>
       <c r="C531" t="s">
         <v>70</v>
       </c>
       <c r="D531" t="s">
-        <v>2757</v>
+        <v>2760</v>
       </c>
       <c r="E531" t="s">
         <v>26</v>
       </c>
       <c r="F531" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="G531" t="s">
-        <v>2758</v>
+        <v>2761</v>
       </c>
       <c r="H531" t="s">
-        <v>2759</v>
+        <v>2762</v>
       </c>
       <c r="I531" t="s">
         <v>20</v>
@@ -27728,33 +27881,33 @@
         <v>30</v>
       </c>
       <c r="L531" t="s">
-        <v>2757</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>2760</v>
+        <v>2763</v>
       </c>
       <c r="B532" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="C532" t="s">
         <v>70</v>
       </c>
       <c r="D532" t="s">
-        <v>2762</v>
+        <v>2765</v>
       </c>
       <c r="E532" t="s">
         <v>26</v>
       </c>
       <c r="F532" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="G532" t="s">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="H532" t="s">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="I532" t="s">
         <v>20</v>
@@ -27763,7 +27916,7 @@
         <v>30</v>
       </c>
       <c r="L532" t="s">
-        <v>2762</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="533">
@@ -27771,25 +27924,25 @@
         <v>1288</v>
       </c>
       <c r="B533" t="s">
-        <v>2765</v>
+        <v>2768</v>
       </c>
       <c r="C533" t="s">
         <v>70</v>
       </c>
       <c r="D533" t="s">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="E533" t="s">
         <v>26</v>
       </c>
       <c r="F533" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="G533" t="s">
-        <v>2767</v>
+        <v>2770</v>
       </c>
       <c r="H533" t="s">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="I533" t="s">
         <v>20</v>
@@ -27798,21 +27951,21 @@
         <v>30</v>
       </c>
       <c r="L533" t="s">
-        <v>2766</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>2769</v>
+        <v>2772</v>
       </c>
       <c r="B534" t="s">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="C534" t="s">
         <v>38</v>
       </c>
       <c r="D534" t="s">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="E534" t="s">
         <v>16</v>
@@ -27821,19 +27974,19 @@
         <v>1857</v>
       </c>
       <c r="G534" t="s">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="H534" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
       <c r="I534" t="s">
         <v>20</v>
       </c>
       <c r="K534" t="s">
+        <v>2777</v>
+      </c>
+      <c r="L534" t="s">
         <v>2774</v>
-      </c>
-      <c r="L534" t="s">
-        <v>2771</v>
       </c>
     </row>
     <row r="535">
@@ -27841,48 +27994,48 @@
         <v>1305</v>
       </c>
       <c r="B535" t="s">
-        <v>2775</v>
+        <v>2778</v>
       </c>
       <c r="C535" t="s">
         <v>38</v>
       </c>
       <c r="D535" t="s">
-        <v>2776</v>
+        <v>2779</v>
       </c>
       <c r="E535" t="s">
         <v>16</v>
       </c>
       <c r="F535" t="s">
-        <v>2777</v>
+        <v>2780</v>
       </c>
       <c r="G535" t="s">
-        <v>2778</v>
+        <v>2781</v>
       </c>
       <c r="H535" t="s">
+        <v>2782</v>
+      </c>
+      <c r="I535" t="s">
+        <v>20</v>
+      </c>
+      <c r="K535" t="s">
+        <v>30</v>
+      </c>
+      <c r="L535" t="s">
         <v>2779</v>
-      </c>
-      <c r="I535" t="s">
-        <v>20</v>
-      </c>
-      <c r="K535" t="s">
-        <v>30</v>
-      </c>
-      <c r="L535" t="s">
-        <v>2776</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="B536" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="C536" t="s">
         <v>38</v>
       </c>
       <c r="D536" t="s">
-        <v>2782</v>
+        <v>2785</v>
       </c>
       <c r="E536" t="s">
         <v>16</v>
@@ -27891,10 +28044,10 @@
         <v>1670</v>
       </c>
       <c r="G536" t="s">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="H536" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="I536" t="s">
         <v>20</v>
@@ -27903,42 +28056,42 @@
         <v>30</v>
       </c>
       <c r="L536" t="s">
-        <v>2782</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="B537" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
       <c r="C537" t="s">
         <v>38</v>
       </c>
       <c r="D537" t="s">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="E537" t="s">
         <v>16</v>
       </c>
       <c r="F537" t="s">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="G537" t="s">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="H537" t="s">
+        <v>2793</v>
+      </c>
+      <c r="I537" t="s">
+        <v>20</v>
+      </c>
+      <c r="K537" t="s">
+        <v>30</v>
+      </c>
+      <c r="L537" t="s">
         <v>2790</v>
-      </c>
-      <c r="I537" t="s">
-        <v>20</v>
-      </c>
-      <c r="K537" t="s">
-        <v>30</v>
-      </c>
-      <c r="L537" t="s">
-        <v>2787</v>
       </c>
     </row>
     <row r="538">
@@ -27946,25 +28099,25 @@
         <v>1316</v>
       </c>
       <c r="B538" t="s">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="C538" t="s">
         <v>137</v>
       </c>
       <c r="D538" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="E538" t="s">
         <v>16</v>
       </c>
       <c r="F538" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="G538" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="H538" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="I538" t="s">
         <v>43</v>
@@ -27973,21 +28126,21 @@
         <v>30</v>
       </c>
       <c r="L538" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="B539" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="C539" t="s">
         <v>137</v>
       </c>
       <c r="D539" t="s">
-        <v>2798</v>
+        <v>2801</v>
       </c>
       <c r="E539" t="s">
         <v>16</v>
@@ -27996,10 +28149,10 @@
         <v>633</v>
       </c>
       <c r="G539" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="H539" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
       <c r="I539" t="s">
         <v>20</v>
@@ -28008,33 +28161,33 @@
         <v>30</v>
       </c>
       <c r="L539" t="s">
-        <v>2798</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
       <c r="B540" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="C540" t="s">
         <v>38</v>
       </c>
       <c r="D540" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="E540" t="s">
         <v>16</v>
       </c>
       <c r="F540" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="G540" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="H540" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="I540" t="s">
         <v>43</v>
@@ -28043,39 +28196,39 @@
         <v>30</v>
       </c>
       <c r="L540" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="C541" t="s">
         <v>137</v>
       </c>
       <c r="D541" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="E541" t="s">
         <v>16</v>
       </c>
       <c r="F541" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="G541" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
       <c r="H541" t="s">
+        <v>2814</v>
+      </c>
+      <c r="I541" t="s">
+        <v>20</v>
+      </c>
+      <c r="K541" t="s">
+        <v>30</v>
+      </c>
+      <c r="L541" t="s">
         <v>2811</v>
-      </c>
-      <c r="I541" t="s">
-        <v>20</v>
-      </c>
-      <c r="K541" t="s">
-        <v>30</v>
-      </c>
-      <c r="L541" t="s">
-        <v>2808</v>
       </c>
     </row>
     <row r="542">
@@ -28083,34 +28236,34 @@
         <v>2503</v>
       </c>
       <c r="B542" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
       <c r="C542" t="s">
         <v>137</v>
       </c>
       <c r="D542" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="E542" t="s">
         <v>16</v>
       </c>
       <c r="F542" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
       <c r="G542" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
       <c r="H542" t="s">
+        <v>2819</v>
+      </c>
+      <c r="I542" t="s">
+        <v>20</v>
+      </c>
+      <c r="K542" t="s">
+        <v>30</v>
+      </c>
+      <c r="L542" t="s">
         <v>2816</v>
-      </c>
-      <c r="I542" t="s">
-        <v>20</v>
-      </c>
-      <c r="K542" t="s">
-        <v>30</v>
-      </c>
-      <c r="L542" t="s">
-        <v>2813</v>
       </c>
     </row>
     <row r="543">
@@ -28118,48 +28271,48 @@
         <v>735</v>
       </c>
       <c r="B543" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
       <c r="C543" t="s">
         <v>137</v>
       </c>
       <c r="D543" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="E543" t="s">
         <v>16</v>
       </c>
       <c r="F543" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="G543" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="H543" t="s">
+        <v>2824</v>
+      </c>
+      <c r="I543" t="s">
+        <v>20</v>
+      </c>
+      <c r="K543" t="s">
+        <v>30</v>
+      </c>
+      <c r="L543" t="s">
         <v>2821</v>
-      </c>
-      <c r="I543" t="s">
-        <v>20</v>
-      </c>
-      <c r="K543" t="s">
-        <v>30</v>
-      </c>
-      <c r="L543" t="s">
-        <v>2818</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="B544" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="C544" t="s">
         <v>137</v>
       </c>
       <c r="D544" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="E544" t="s">
         <v>16</v>
@@ -28168,10 +28321,10 @@
         <v>822</v>
       </c>
       <c r="G544" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="H544" t="s">
-        <v>2826</v>
+        <v>2829</v>
       </c>
       <c r="I544" t="s">
         <v>20</v>
@@ -28180,21 +28333,21 @@
         <v>30</v>
       </c>
       <c r="L544" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
       <c r="B545" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="C545" t="s">
         <v>137</v>
       </c>
       <c r="D545" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
       <c r="E545" t="s">
         <v>16</v>
@@ -28203,10 +28356,10 @@
         <v>822</v>
       </c>
       <c r="G545" t="s">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="H545" t="s">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="I545" t="s">
         <v>20</v>
@@ -28215,167 +28368,170 @@
         <v>30</v>
       </c>
       <c r="L545" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>2832</v>
+        <v>2835</v>
       </c>
       <c r="B546" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="C546" t="s">
         <v>137</v>
       </c>
       <c r="D546" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="E546" t="s">
         <v>16</v>
       </c>
       <c r="F546" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="G546" t="s">
-        <v>2836</v>
+        <v>2839</v>
       </c>
       <c r="H546" t="s">
+        <v>2840</v>
+      </c>
+      <c r="I546" t="s">
+        <v>20</v>
+      </c>
+      <c r="K546" t="s">
+        <v>30</v>
+      </c>
+      <c r="L546" t="s">
         <v>2837</v>
-      </c>
-      <c r="I546" t="s">
-        <v>20</v>
-      </c>
-      <c r="K546" t="s">
-        <v>30</v>
-      </c>
-      <c r="L546" t="s">
-        <v>2834</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
       <c r="B547" t="s">
-        <v>2839</v>
+        <v>2842</v>
       </c>
       <c r="C547" t="s">
         <v>24</v>
       </c>
       <c r="D547" t="s">
-        <v>2840</v>
+        <v>2843</v>
       </c>
       <c r="E547" t="s">
         <v>26</v>
       </c>
       <c r="F547" t="s">
-        <v>2841</v>
+        <v>2844</v>
       </c>
       <c r="G547" t="s">
-        <v>2842</v>
+        <v>2845</v>
       </c>
       <c r="H547" t="s">
+        <v>2846</v>
+      </c>
+      <c r="I547" t="s">
+        <v>20</v>
+      </c>
+      <c r="K547" t="s">
+        <v>30</v>
+      </c>
+      <c r="L547" t="s">
         <v>2843</v>
-      </c>
-      <c r="I547" t="s">
-        <v>20</v>
-      </c>
-      <c r="K547" t="s">
-        <v>30</v>
-      </c>
-      <c r="L547" t="s">
-        <v>2840</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="B548" t="s">
-        <v>2845</v>
+        <v>2848</v>
       </c>
       <c r="C548" t="s">
         <v>137</v>
       </c>
       <c r="D548" t="s">
-        <v>2846</v>
+        <v>2849</v>
       </c>
       <c r="E548" t="s">
         <v>16</v>
       </c>
       <c r="F548" t="s">
-        <v>2847</v>
+        <v>2850</v>
       </c>
       <c r="G548" t="s">
-        <v>2848</v>
+        <v>2851</v>
       </c>
       <c r="H548" t="s">
+        <v>2852</v>
+      </c>
+      <c r="I548" t="s">
+        <v>20</v>
+      </c>
+      <c r="K548" t="s">
+        <v>30</v>
+      </c>
+      <c r="L548" t="s">
         <v>2849</v>
-      </c>
-      <c r="I548" t="s">
-        <v>20</v>
-      </c>
-      <c r="K548" t="s">
-        <v>30</v>
-      </c>
-      <c r="L548" t="s">
-        <v>2846</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>2850</v>
+        <v>2853</v>
       </c>
       <c r="C549" t="s">
         <v>70</v>
       </c>
       <c r="D549" t="s">
-        <v>2851</v>
+        <v>2854</v>
       </c>
       <c r="E549" t="s">
         <v>26</v>
       </c>
       <c r="F549" t="s">
-        <v>2852</v>
+        <v>2855</v>
       </c>
       <c r="G549" t="s">
-        <v>2853</v>
+        <v>2856</v>
       </c>
       <c r="H549" t="s">
+        <v>2857</v>
+      </c>
+      <c r="I549" t="s">
+        <v>20</v>
+      </c>
+      <c r="K549" t="s">
+        <v>30</v>
+      </c>
+      <c r="L549" t="s">
         <v>2854</v>
-      </c>
-      <c r="I549" t="s">
-        <v>20</v>
-      </c>
-      <c r="K549" t="s">
-        <v>30</v>
-      </c>
-      <c r="L549" t="s">
-        <v>2851</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
         <v>2354</v>
       </c>
+      <c r="B550" t="s">
+        <v>2858</v>
+      </c>
       <c r="C550" t="s">
         <v>70</v>
       </c>
       <c r="D550" t="s">
-        <v>2855</v>
+        <v>2859</v>
       </c>
       <c r="E550" t="s">
         <v>26</v>
       </c>
       <c r="F550" t="s">
-        <v>2856</v>
+        <v>2860</v>
       </c>
       <c r="G550" t="s">
-        <v>2857</v>
+        <v>2861</v>
       </c>
       <c r="H550" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="I550" t="s">
         <v>20</v>
@@ -28384,30 +28540,30 @@
         <v>30</v>
       </c>
       <c r="L550" t="s">
-        <v>2855</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>2859</v>
+        <v>2863</v>
       </c>
       <c r="C551" t="s">
         <v>70</v>
       </c>
       <c r="D551" t="s">
-        <v>2860</v>
+        <v>2864</v>
       </c>
       <c r="E551" t="s">
         <v>26</v>
       </c>
       <c r="F551" t="s">
-        <v>2861</v>
+        <v>2865</v>
       </c>
       <c r="G551" t="s">
-        <v>2862</v>
+        <v>2866</v>
       </c>
       <c r="H551" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="I551" t="s">
         <v>20</v>
@@ -28416,30 +28572,33 @@
         <v>30</v>
       </c>
       <c r="L551" t="s">
-        <v>2860</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>2864</v>
+        <v>2868</v>
+      </c>
+      <c r="B552" t="s">
+        <v>2869</v>
       </c>
       <c r="C552" t="s">
         <v>70</v>
       </c>
       <c r="D552" t="s">
-        <v>2865</v>
+        <v>2870</v>
       </c>
       <c r="E552" t="s">
         <v>26</v>
       </c>
       <c r="F552" t="s">
-        <v>2866</v>
+        <v>2871</v>
       </c>
       <c r="G552" t="s">
-        <v>2867</v>
+        <v>2872</v>
       </c>
       <c r="H552" t="s">
-        <v>2868</v>
+        <v>2873</v>
       </c>
       <c r="I552" t="s">
         <v>20</v>
@@ -28448,33 +28607,33 @@
         <v>30</v>
       </c>
       <c r="L552" t="s">
-        <v>2865</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>2869</v>
+        <v>2874</v>
       </c>
       <c r="B553" t="s">
-        <v>2870</v>
+        <v>2875</v>
       </c>
       <c r="C553" t="s">
         <v>38</v>
       </c>
       <c r="D553" t="s">
-        <v>2871</v>
+        <v>2876</v>
       </c>
       <c r="E553" t="s">
         <v>16</v>
       </c>
       <c r="F553" t="s">
-        <v>2872</v>
+        <v>2877</v>
       </c>
       <c r="G553" t="s">
-        <v>2873</v>
+        <v>2878</v>
       </c>
       <c r="H553" t="s">
-        <v>2874</v>
+        <v>2879</v>
       </c>
       <c r="I553" t="s">
         <v>20</v>
@@ -28483,21 +28642,21 @@
         <v>30</v>
       </c>
       <c r="L553" t="s">
-        <v>2871</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>2875</v>
+        <v>2880</v>
       </c>
       <c r="B554" t="s">
-        <v>2876</v>
+        <v>2881</v>
       </c>
       <c r="C554" t="s">
         <v>38</v>
       </c>
       <c r="D554" t="s">
-        <v>2877</v>
+        <v>2882</v>
       </c>
       <c r="E554" t="s">
         <v>16</v>
@@ -28506,45 +28665,45 @@
         <v>720</v>
       </c>
       <c r="G554" t="s">
-        <v>2878</v>
+        <v>2883</v>
       </c>
       <c r="H554" t="s">
-        <v>2879</v>
+        <v>2884</v>
       </c>
       <c r="I554" t="s">
         <v>20</v>
       </c>
       <c r="K554" t="s">
-        <v>2880</v>
+        <v>2885</v>
       </c>
       <c r="L554" t="s">
-        <v>2877</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>2881</v>
+        <v>2886</v>
       </c>
       <c r="B555" t="s">
-        <v>2882</v>
+        <v>2887</v>
       </c>
       <c r="C555" t="s">
         <v>137</v>
       </c>
       <c r="D555" t="s">
-        <v>2883</v>
+        <v>2888</v>
       </c>
       <c r="E555" t="s">
         <v>16</v>
       </c>
       <c r="F555" t="s">
-        <v>2884</v>
+        <v>2889</v>
       </c>
       <c r="G555" t="s">
-        <v>2885</v>
+        <v>2890</v>
       </c>
       <c r="H555" t="s">
-        <v>2886</v>
+        <v>2891</v>
       </c>
       <c r="I555" t="s">
         <v>20</v>
@@ -28553,7 +28712,7 @@
         <v>30</v>
       </c>
       <c r="L555" t="s">
-        <v>2883</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="556">
@@ -28561,25 +28720,25 @@
         <v>1353</v>
       </c>
       <c r="B556" t="s">
-        <v>2887</v>
+        <v>2892</v>
       </c>
       <c r="C556" t="s">
         <v>38</v>
       </c>
       <c r="D556" t="s">
-        <v>2888</v>
+        <v>2893</v>
       </c>
       <c r="E556" t="s">
         <v>16</v>
       </c>
       <c r="F556" t="s">
-        <v>2889</v>
+        <v>2894</v>
       </c>
       <c r="G556" t="s">
-        <v>2890</v>
+        <v>2895</v>
       </c>
       <c r="H556" t="s">
-        <v>2891</v>
+        <v>2896</v>
       </c>
       <c r="I556" t="s">
         <v>20</v>
@@ -28588,21 +28747,21 @@
         <v>2355</v>
       </c>
       <c r="L556" t="s">
-        <v>2888</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>2892</v>
+        <v>2897</v>
       </c>
       <c r="B557" t="s">
-        <v>2893</v>
+        <v>2898</v>
       </c>
       <c r="C557" t="s">
         <v>213</v>
       </c>
       <c r="D557" t="s">
-        <v>2894</v>
+        <v>2899</v>
       </c>
       <c r="E557" t="s">
         <v>16</v>
@@ -28611,10 +28770,10 @@
         <v>771</v>
       </c>
       <c r="G557" t="s">
-        <v>2895</v>
+        <v>2900</v>
       </c>
       <c r="H557" t="s">
-        <v>2896</v>
+        <v>2901</v>
       </c>
       <c r="I557" t="s">
         <v>20</v>
@@ -28623,7 +28782,7 @@
         <v>30</v>
       </c>
       <c r="L557" t="s">
-        <v>2894</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="558">
@@ -28631,22 +28790,22 @@
         <v>1348</v>
       </c>
       <c r="B558" t="s">
-        <v>2897</v>
+        <v>2902</v>
       </c>
       <c r="C558" t="s">
         <v>52</v>
       </c>
       <c r="D558" t="s">
-        <v>2898</v>
+        <v>2903</v>
       </c>
       <c r="E558" t="s">
         <v>26</v>
       </c>
       <c r="F558" t="s">
-        <v>2899</v>
+        <v>2904</v>
       </c>
       <c r="G558" t="s">
-        <v>2900</v>
+        <v>2905</v>
       </c>
       <c r="H558" t="s">
         <v>692</v>
@@ -28658,27 +28817,27 @@
         <v>57</v>
       </c>
       <c r="L558" t="s">
-        <v>2898</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>2901</v>
+        <v>2906</v>
       </c>
       <c r="C559" t="s">
         <v>175</v>
       </c>
       <c r="D559" t="s">
-        <v>2902</v>
+        <v>2907</v>
       </c>
       <c r="E559" t="s">
         <v>26</v>
       </c>
       <c r="F559" t="s">
-        <v>2899</v>
+        <v>2904</v>
       </c>
       <c r="G559" t="s">
-        <v>2903</v>
+        <v>2908</v>
       </c>
       <c r="H559" t="s">
         <v>713</v>
@@ -28690,33 +28849,33 @@
         <v>30</v>
       </c>
       <c r="L559" t="s">
-        <v>2902</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>2904</v>
+        <v>2909</v>
       </c>
       <c r="B560" t="s">
-        <v>2905</v>
+        <v>2910</v>
       </c>
       <c r="C560" t="s">
         <v>52</v>
       </c>
       <c r="D560" t="s">
-        <v>2906</v>
+        <v>2911</v>
       </c>
       <c r="E560" t="s">
         <v>26</v>
       </c>
       <c r="F560" t="s">
-        <v>2907</v>
+        <v>2912</v>
       </c>
       <c r="G560" t="s">
-        <v>2908</v>
+        <v>2913</v>
       </c>
       <c r="H560" t="s">
-        <v>2909</v>
+        <v>2914</v>
       </c>
       <c r="I560" t="s">
         <v>43</v>
@@ -28725,21 +28884,21 @@
         <v>30</v>
       </c>
       <c r="L560" t="s">
-        <v>2906</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>2910</v>
+        <v>2915</v>
       </c>
       <c r="B561" t="s">
-        <v>2911</v>
+        <v>2916</v>
       </c>
       <c r="C561" t="s">
         <v>52</v>
       </c>
       <c r="D561" t="s">
-        <v>2912</v>
+        <v>2917</v>
       </c>
       <c r="E561" t="s">
         <v>26</v>
@@ -28748,10 +28907,10 @@
         <v>2298</v>
       </c>
       <c r="G561" t="s">
-        <v>2913</v>
+        <v>2918</v>
       </c>
       <c r="H561" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="I561" t="s">
         <v>43</v>
@@ -28760,30 +28919,30 @@
         <v>30</v>
       </c>
       <c r="L561" t="s">
-        <v>2912</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>2915</v>
+        <v>2920</v>
       </c>
       <c r="B562" t="s">
-        <v>2916</v>
+        <v>2921</v>
       </c>
       <c r="C562" t="s">
         <v>52</v>
       </c>
       <c r="D562" t="s">
-        <v>2917</v>
+        <v>2922</v>
       </c>
       <c r="E562" t="s">
         <v>26</v>
       </c>
       <c r="F562" t="s">
-        <v>2918</v>
+        <v>2923</v>
       </c>
       <c r="G562" t="s">
-        <v>2919</v>
+        <v>2924</v>
       </c>
       <c r="H562" t="s">
         <v>682</v>
@@ -28792,45 +28951,45 @@
         <v>108</v>
       </c>
       <c r="K562" t="s">
-        <v>2920</v>
+        <v>2925</v>
       </c>
       <c r="L562" t="s">
-        <v>2917</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>2921</v>
+        <v>2926</v>
       </c>
       <c r="B563" t="s">
-        <v>2922</v>
+        <v>2927</v>
       </c>
       <c r="C563" t="s">
         <v>14</v>
       </c>
       <c r="D563" t="s">
-        <v>2923</v>
+        <v>2928</v>
       </c>
       <c r="E563" t="s">
         <v>16</v>
       </c>
       <c r="F563" t="s">
-        <v>2924</v>
+        <v>2929</v>
       </c>
       <c r="G563" t="s">
-        <v>2925</v>
+        <v>2930</v>
       </c>
       <c r="H563" t="s">
-        <v>2926</v>
+        <v>2931</v>
       </c>
       <c r="I563" t="s">
         <v>20</v>
       </c>
       <c r="K563" t="s">
-        <v>2927</v>
+        <v>2932</v>
       </c>
       <c r="L563" t="s">
-        <v>2923</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="564">
@@ -28838,25 +28997,25 @@
         <v>1359</v>
       </c>
       <c r="B564" t="s">
-        <v>2928</v>
+        <v>2933</v>
       </c>
       <c r="C564" t="s">
         <v>137</v>
       </c>
       <c r="D564" t="s">
-        <v>2929</v>
+        <v>2934</v>
       </c>
       <c r="E564" t="s">
         <v>16</v>
       </c>
       <c r="F564" t="s">
-        <v>2930</v>
+        <v>2935</v>
       </c>
       <c r="G564" t="s">
-        <v>2931</v>
+        <v>2936</v>
       </c>
       <c r="H564" t="s">
-        <v>2932</v>
+        <v>2937</v>
       </c>
       <c r="I564" t="s">
         <v>43</v>
@@ -28865,33 +29024,33 @@
         <v>30</v>
       </c>
       <c r="L564" t="s">
-        <v>2929</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>2933</v>
+        <v>2938</v>
       </c>
       <c r="B565" t="s">
-        <v>2934</v>
+        <v>2939</v>
       </c>
       <c r="C565" t="s">
         <v>213</v>
       </c>
       <c r="D565" t="s">
-        <v>2935</v>
+        <v>2940</v>
       </c>
       <c r="E565" t="s">
         <v>16</v>
       </c>
       <c r="F565" t="s">
-        <v>2936</v>
+        <v>2941</v>
       </c>
       <c r="G565" t="s">
-        <v>2937</v>
+        <v>2942</v>
       </c>
       <c r="H565" t="s">
-        <v>2938</v>
+        <v>2943</v>
       </c>
       <c r="I565" t="s">
         <v>20</v>
@@ -28900,30 +29059,30 @@
         <v>2355</v>
       </c>
       <c r="L565" t="s">
-        <v>2935</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>2939</v>
+        <v>2944</v>
       </c>
       <c r="B566" t="s">
-        <v>2940</v>
+        <v>2945</v>
       </c>
       <c r="C566" t="s">
         <v>226</v>
       </c>
       <c r="D566" t="s">
-        <v>2941</v>
+        <v>2946</v>
       </c>
       <c r="E566" t="s">
         <v>16</v>
       </c>
       <c r="F566" t="s">
-        <v>2711</v>
+        <v>2714</v>
       </c>
       <c r="G566" t="s">
-        <v>2942</v>
+        <v>2947</v>
       </c>
       <c r="H566" t="s">
         <v>1151</v>
@@ -28935,7 +29094,7 @@
         <v>30</v>
       </c>
       <c r="L566" t="s">
-        <v>2941</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="567">
@@ -28943,13 +29102,13 @@
         <v>1427</v>
       </c>
       <c r="B567" t="s">
-        <v>2943</v>
+        <v>2948</v>
       </c>
       <c r="C567" t="s">
         <v>213</v>
       </c>
       <c r="D567" t="s">
-        <v>2944</v>
+        <v>2949</v>
       </c>
       <c r="E567" t="s">
         <v>16</v>
@@ -28958,10 +29117,10 @@
         <v>720</v>
       </c>
       <c r="G567" t="s">
-        <v>2945</v>
+        <v>2950</v>
       </c>
       <c r="H567" t="s">
-        <v>2946</v>
+        <v>2951</v>
       </c>
       <c r="I567" t="s">
         <v>43</v>
@@ -28970,33 +29129,33 @@
         <v>30</v>
       </c>
       <c r="L567" t="s">
-        <v>2944</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>2947</v>
+        <v>2952</v>
       </c>
       <c r="B568" t="s">
-        <v>2948</v>
+        <v>2953</v>
       </c>
       <c r="C568" t="s">
         <v>213</v>
       </c>
       <c r="D568" t="s">
-        <v>2949</v>
+        <v>2954</v>
       </c>
       <c r="E568" t="s">
         <v>16</v>
       </c>
       <c r="F568" t="s">
-        <v>2711</v>
+        <v>2714</v>
       </c>
       <c r="G568" t="s">
-        <v>2950</v>
+        <v>2955</v>
       </c>
       <c r="H568" t="s">
-        <v>2951</v>
+        <v>2956</v>
       </c>
       <c r="I568" t="s">
         <v>43</v>
@@ -29005,7 +29164,7 @@
         <v>30</v>
       </c>
       <c r="L568" t="s">
-        <v>2949</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="569">
@@ -29013,25 +29172,25 @@
         <v>2066</v>
       </c>
       <c r="B569" t="s">
-        <v>2952</v>
+        <v>2957</v>
       </c>
       <c r="C569" t="s">
         <v>70</v>
       </c>
       <c r="D569" t="s">
-        <v>2953</v>
+        <v>2958</v>
       </c>
       <c r="E569" t="s">
         <v>26</v>
       </c>
       <c r="F569" t="s">
-        <v>2954</v>
+        <v>2959</v>
       </c>
       <c r="G569" t="s">
-        <v>2955</v>
+        <v>2960</v>
       </c>
       <c r="H569" t="s">
-        <v>2956</v>
+        <v>2961</v>
       </c>
       <c r="I569" t="s">
         <v>20</v>
@@ -29040,7 +29199,7 @@
         <v>30</v>
       </c>
       <c r="L569" t="s">
-        <v>2953</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="570">
@@ -29048,25 +29207,25 @@
         <v>1422</v>
       </c>
       <c r="B570" t="s">
-        <v>2957</v>
+        <v>2962</v>
       </c>
       <c r="C570" t="s">
         <v>70</v>
       </c>
       <c r="D570" t="s">
-        <v>2958</v>
+        <v>2963</v>
       </c>
       <c r="E570" t="s">
         <v>26</v>
       </c>
       <c r="F570" t="s">
-        <v>2959</v>
+        <v>2964</v>
       </c>
       <c r="G570" t="s">
-        <v>2960</v>
+        <v>2965</v>
       </c>
       <c r="H570" t="s">
-        <v>2961</v>
+        <v>2966</v>
       </c>
       <c r="I570" t="s">
         <v>20</v>
@@ -29075,33 +29234,33 @@
         <v>30</v>
       </c>
       <c r="L570" t="s">
-        <v>2958</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>2962</v>
+        <v>2967</v>
       </c>
       <c r="B571" t="s">
-        <v>2963</v>
+        <v>2968</v>
       </c>
       <c r="C571" t="s">
         <v>70</v>
       </c>
       <c r="D571" t="s">
-        <v>2964</v>
+        <v>2969</v>
       </c>
       <c r="E571" t="s">
         <v>26</v>
       </c>
       <c r="F571" t="s">
-        <v>2965</v>
+        <v>2970</v>
       </c>
       <c r="G571" t="s">
-        <v>2966</v>
+        <v>2971</v>
       </c>
       <c r="H571" t="s">
-        <v>2967</v>
+        <v>2972</v>
       </c>
       <c r="I571" t="s">
         <v>20</v>
@@ -29110,7 +29269,7 @@
         <v>30</v>
       </c>
       <c r="L571" t="s">
-        <v>2964</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="572">
@@ -29118,13 +29277,13 @@
         <v>1418</v>
       </c>
       <c r="B572" t="s">
-        <v>2968</v>
+        <v>2973</v>
       </c>
       <c r="C572" t="s">
         <v>70</v>
       </c>
       <c r="D572" t="s">
-        <v>2969</v>
+        <v>2974</v>
       </c>
       <c r="E572" t="s">
         <v>26</v>
@@ -29133,10 +29292,10 @@
         <v>181</v>
       </c>
       <c r="G572" t="s">
-        <v>2970</v>
+        <v>2975</v>
       </c>
       <c r="H572" t="s">
-        <v>2971</v>
+        <v>2976</v>
       </c>
       <c r="I572" t="s">
         <v>20</v>
@@ -29145,21 +29304,21 @@
         <v>30</v>
       </c>
       <c r="L572" t="s">
-        <v>2969</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>2972</v>
+        <v>2977</v>
       </c>
       <c r="B573" t="s">
-        <v>2973</v>
+        <v>2978</v>
       </c>
       <c r="C573" t="s">
         <v>38</v>
       </c>
       <c r="D573" t="s">
-        <v>2974</v>
+        <v>2979</v>
       </c>
       <c r="E573" t="s">
         <v>16</v>
@@ -29168,10 +29327,10 @@
         <v>66</v>
       </c>
       <c r="G573" t="s">
-        <v>2975</v>
+        <v>2980</v>
       </c>
       <c r="H573" t="s">
-        <v>2976</v>
+        <v>2981</v>
       </c>
       <c r="I573" t="s">
         <v>43</v>
@@ -29180,7 +29339,7 @@
         <v>30</v>
       </c>
       <c r="L573" t="s">
-        <v>2974</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="574">
@@ -29188,25 +29347,25 @@
         <v>1505</v>
       </c>
       <c r="B574" t="s">
-        <v>2977</v>
+        <v>2982</v>
       </c>
       <c r="C574" t="s">
         <v>137</v>
       </c>
       <c r="D574" t="s">
-        <v>2978</v>
+        <v>2983</v>
       </c>
       <c r="E574" t="s">
         <v>16</v>
       </c>
       <c r="F574" t="s">
-        <v>2979</v>
+        <v>2984</v>
       </c>
       <c r="G574" t="s">
-        <v>2980</v>
+        <v>2985</v>
       </c>
       <c r="H574" t="s">
-        <v>2981</v>
+        <v>2986</v>
       </c>
       <c r="I574" t="s">
         <v>43</v>
@@ -29215,33 +29374,33 @@
         <v>30</v>
       </c>
       <c r="L574" t="s">
-        <v>2978</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>2982</v>
+        <v>2987</v>
       </c>
       <c r="B575" t="s">
-        <v>2983</v>
+        <v>2988</v>
       </c>
       <c r="C575" t="s">
         <v>38</v>
       </c>
       <c r="D575" t="s">
-        <v>2984</v>
+        <v>2989</v>
       </c>
       <c r="E575" t="s">
         <v>16</v>
       </c>
       <c r="F575" t="s">
-        <v>2985</v>
+        <v>2990</v>
       </c>
       <c r="G575" t="s">
-        <v>2986</v>
+        <v>2991</v>
       </c>
       <c r="H575" t="s">
-        <v>2987</v>
+        <v>2992</v>
       </c>
       <c r="I575" t="s">
         <v>20</v>
@@ -29250,33 +29409,33 @@
         <v>30</v>
       </c>
       <c r="L575" t="s">
-        <v>2984</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>2988</v>
+        <v>2993</v>
       </c>
       <c r="B576" t="s">
-        <v>2989</v>
+        <v>2994</v>
       </c>
       <c r="C576" t="s">
         <v>38</v>
       </c>
       <c r="D576" t="s">
-        <v>2990</v>
+        <v>2995</v>
       </c>
       <c r="E576" t="s">
         <v>16</v>
       </c>
       <c r="F576" t="s">
-        <v>2991</v>
+        <v>2996</v>
       </c>
       <c r="G576" t="s">
-        <v>2992</v>
+        <v>2997</v>
       </c>
       <c r="H576" t="s">
-        <v>2993</v>
+        <v>2998</v>
       </c>
       <c r="I576" t="s">
         <v>43</v>
@@ -29285,7 +29444,7 @@
         <v>30</v>
       </c>
       <c r="L576" t="s">
-        <v>2990</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="577">
@@ -29293,22 +29452,22 @@
         <v>1499</v>
       </c>
       <c r="B577" t="s">
-        <v>2994</v>
+        <v>2999</v>
       </c>
       <c r="C577" t="s">
         <v>38</v>
       </c>
       <c r="D577" t="s">
-        <v>2995</v>
+        <v>3000</v>
       </c>
       <c r="E577" t="s">
         <v>16</v>
       </c>
       <c r="F577" t="s">
-        <v>2996</v>
+        <v>3001</v>
       </c>
       <c r="G577" t="s">
-        <v>2997</v>
+        <v>3002</v>
       </c>
       <c r="H577" t="s">
         <v>1128</v>
@@ -29320,21 +29479,21 @@
         <v>30</v>
       </c>
       <c r="L577" t="s">
-        <v>2995</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>2998</v>
+        <v>3003</v>
       </c>
       <c r="B578" t="s">
-        <v>2999</v>
+        <v>3004</v>
       </c>
       <c r="C578" t="s">
         <v>38</v>
       </c>
       <c r="D578" t="s">
-        <v>3000</v>
+        <v>3005</v>
       </c>
       <c r="E578" t="s">
         <v>16</v>
@@ -29343,19 +29502,19 @@
         <v>891</v>
       </c>
       <c r="G578" t="s">
-        <v>3001</v>
+        <v>3006</v>
       </c>
       <c r="H578" t="s">
-        <v>3002</v>
+        <v>3007</v>
       </c>
       <c r="I578" t="s">
         <v>20</v>
       </c>
       <c r="K578" t="s">
-        <v>3003</v>
+        <v>3008</v>
       </c>
       <c r="L578" t="s">
-        <v>3000</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="579">
@@ -29363,25 +29522,25 @@
         <v>1493</v>
       </c>
       <c r="B579" t="s">
-        <v>3004</v>
+        <v>3009</v>
       </c>
       <c r="C579" t="s">
         <v>38</v>
       </c>
       <c r="D579" t="s">
-        <v>3005</v>
+        <v>3010</v>
       </c>
       <c r="E579" t="s">
         <v>16</v>
       </c>
       <c r="F579" t="s">
-        <v>3006</v>
+        <v>3011</v>
       </c>
       <c r="G579" t="s">
-        <v>3007</v>
+        <v>3012</v>
       </c>
       <c r="H579" t="s">
-        <v>3008</v>
+        <v>3013</v>
       </c>
       <c r="I579" t="s">
         <v>20</v>
@@ -29390,30 +29549,33 @@
         <v>2362</v>
       </c>
       <c r="L579" t="s">
-        <v>3005</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>3009</v>
+        <v>3014</v>
+      </c>
+      <c r="B580" t="s">
+        <v>3015</v>
       </c>
       <c r="C580" t="s">
         <v>2584</v>
       </c>
       <c r="D580" t="s">
-        <v>3010</v>
+        <v>3016</v>
       </c>
       <c r="E580" t="s">
         <v>2586</v>
       </c>
       <c r="F580" t="s">
-        <v>3011</v>
+        <v>3017</v>
       </c>
       <c r="G580" t="s">
-        <v>3012</v>
+        <v>3018</v>
       </c>
       <c r="H580" t="s">
-        <v>3013</v>
+        <v>3019</v>
       </c>
       <c r="I580" t="s">
         <v>20</v>
@@ -29422,30 +29584,33 @@
         <v>30</v>
       </c>
       <c r="L580" t="s">
-        <v>3010</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
         <v>1598</v>
       </c>
+      <c r="B581" t="s">
+        <v>3020</v>
+      </c>
       <c r="C581" t="s">
         <v>38</v>
       </c>
       <c r="D581" t="s">
-        <v>3014</v>
+        <v>3021</v>
       </c>
       <c r="E581" t="s">
         <v>16</v>
       </c>
       <c r="F581" t="s">
-        <v>3015</v>
+        <v>3022</v>
       </c>
       <c r="G581" t="s">
-        <v>3016</v>
+        <v>3023</v>
       </c>
       <c r="H581" t="s">
-        <v>3017</v>
+        <v>3024</v>
       </c>
       <c r="I581" t="s">
         <v>43</v>
@@ -29454,30 +29619,33 @@
         <v>30</v>
       </c>
       <c r="L581" t="s">
-        <v>3014</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>3018</v>
+        <v>3025</v>
+      </c>
+      <c r="B582" t="s">
+        <v>3026</v>
       </c>
       <c r="C582" t="s">
         <v>137</v>
       </c>
       <c r="D582" t="s">
-        <v>3019</v>
+        <v>3027</v>
       </c>
       <c r="E582" t="s">
         <v>16</v>
       </c>
       <c r="F582" t="s">
-        <v>3020</v>
+        <v>3028</v>
       </c>
       <c r="G582" t="s">
-        <v>3021</v>
+        <v>3029</v>
       </c>
       <c r="H582" t="s">
-        <v>3022</v>
+        <v>3030</v>
       </c>
       <c r="I582" t="s">
         <v>43</v>
@@ -29486,30 +29654,33 @@
         <v>30</v>
       </c>
       <c r="L582" t="s">
-        <v>3019</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="s">
         <v>1593</v>
       </c>
+      <c r="B583" t="s">
+        <v>3031</v>
+      </c>
       <c r="C583" t="s">
         <v>38</v>
       </c>
       <c r="D583" t="s">
-        <v>3023</v>
+        <v>3032</v>
       </c>
       <c r="E583" t="s">
         <v>16</v>
       </c>
       <c r="F583" t="s">
-        <v>3024</v>
+        <v>3033</v>
       </c>
       <c r="G583" t="s">
-        <v>3025</v>
+        <v>3034</v>
       </c>
       <c r="H583" t="s">
-        <v>3026</v>
+        <v>3035</v>
       </c>
       <c r="I583" t="s">
         <v>43</v>
@@ -29518,39 +29689,284 @@
         <v>30</v>
       </c>
       <c r="L583" t="s">
-        <v>3023</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>3027</v>
+        <v>3036</v>
+      </c>
+      <c r="B584" t="s">
+        <v>3037</v>
       </c>
       <c r="C584" t="s">
         <v>38</v>
       </c>
       <c r="D584" t="s">
-        <v>3028</v>
+        <v>3038</v>
       </c>
       <c r="E584" t="s">
         <v>16</v>
       </c>
       <c r="F584" t="s">
-        <v>3002</v>
+        <v>3007</v>
       </c>
       <c r="G584" t="s">
-        <v>3029</v>
+        <v>3039</v>
       </c>
       <c r="H584" t="s">
-        <v>3030</v>
+        <v>3040</v>
       </c>
       <c r="I584" t="s">
         <v>20</v>
       </c>
       <c r="K584" t="s">
-        <v>30</v>
+        <v>2355</v>
       </c>
       <c r="L584" t="s">
-        <v>3028</v>
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B585" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C585" t="s">
+        <v>70</v>
+      </c>
+      <c r="D585" t="s">
+        <v>3043</v>
+      </c>
+      <c r="E585" t="s">
+        <v>26</v>
+      </c>
+      <c r="F585" t="s">
+        <v>3044</v>
+      </c>
+      <c r="G585" t="s">
+        <v>3045</v>
+      </c>
+      <c r="H585" t="s">
+        <v>3046</v>
+      </c>
+      <c r="I585" t="s">
+        <v>20</v>
+      </c>
+      <c r="K585" t="s">
+        <v>30</v>
+      </c>
+      <c r="L585" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B586" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C586" t="s">
+        <v>70</v>
+      </c>
+      <c r="D586" t="s">
+        <v>3049</v>
+      </c>
+      <c r="E586" t="s">
+        <v>26</v>
+      </c>
+      <c r="F586" t="s">
+        <v>3050</v>
+      </c>
+      <c r="G586" t="s">
+        <v>3051</v>
+      </c>
+      <c r="H586" t="s">
+        <v>3052</v>
+      </c>
+      <c r="I586" t="s">
+        <v>20</v>
+      </c>
+      <c r="K586" t="s">
+        <v>30</v>
+      </c>
+      <c r="L586" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B587" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C587" t="s">
+        <v>70</v>
+      </c>
+      <c r="D587" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E587" t="s">
+        <v>26</v>
+      </c>
+      <c r="F587" t="s">
+        <v>3056</v>
+      </c>
+      <c r="G587" t="s">
+        <v>3057</v>
+      </c>
+      <c r="H587" t="s">
+        <v>3058</v>
+      </c>
+      <c r="I587" t="s">
+        <v>20</v>
+      </c>
+      <c r="K587" t="s">
+        <v>30</v>
+      </c>
+      <c r="L587" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B588" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C588" t="s">
+        <v>70</v>
+      </c>
+      <c r="D588" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E588" t="s">
+        <v>26</v>
+      </c>
+      <c r="F588" t="s">
+        <v>3062</v>
+      </c>
+      <c r="G588" t="s">
+        <v>3063</v>
+      </c>
+      <c r="H588" t="s">
+        <v>670</v>
+      </c>
+      <c r="I588" t="s">
+        <v>108</v>
+      </c>
+      <c r="K588" t="s">
+        <v>30</v>
+      </c>
+      <c r="L588" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B589" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C589" t="s">
+        <v>70</v>
+      </c>
+      <c r="D589" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E589" t="s">
+        <v>26</v>
+      </c>
+      <c r="F589" t="s">
+        <v>3067</v>
+      </c>
+      <c r="G589" t="s">
+        <v>3068</v>
+      </c>
+      <c r="H589" t="s">
+        <v>723</v>
+      </c>
+      <c r="I589" t="s">
+        <v>108</v>
+      </c>
+      <c r="K589" t="s">
+        <v>30</v>
+      </c>
+      <c r="L589" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B590" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C590" t="s">
+        <v>70</v>
+      </c>
+      <c r="D590" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E590" t="s">
+        <v>26</v>
+      </c>
+      <c r="F590" t="s">
+        <v>3072</v>
+      </c>
+      <c r="G590" t="s">
+        <v>3073</v>
+      </c>
+      <c r="H590" t="s">
+        <v>732</v>
+      </c>
+      <c r="I590" t="s">
+        <v>108</v>
+      </c>
+      <c r="K590" t="s">
+        <v>30</v>
+      </c>
+      <c r="L590" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C591" t="s">
+        <v>38</v>
+      </c>
+      <c r="D591" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E591" t="s">
+        <v>16</v>
+      </c>
+      <c r="F591" t="s">
+        <v>3076</v>
+      </c>
+      <c r="G591" t="s">
+        <v>3077</v>
+      </c>
+      <c r="H591" t="s">
+        <v>3078</v>
+      </c>
+      <c r="I591" t="s">
+        <v>20</v>
+      </c>
+      <c r="K591" t="s">
+        <v>30</v>
+      </c>
+      <c r="L591" t="s">
+        <v>3075</v>
       </c>
     </row>
   </sheetData>

--- a/hans/OcrmCashierRecEntity.xlsx
+++ b/hans/OcrmCashierRecEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6497" uniqueCount="3079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6498" uniqueCount="3080">
   <si>
     <t>_id</t>
   </si>
@@ -9240,13 +9240,16 @@
     <t>598</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/sophia ocean-租金-usd 119700_1685935039440_1586.pdf</t>
+  </si>
+  <si>
     <t>1685687504099</t>
   </si>
   <si>
     <t>119700</t>
   </si>
   <si>
-    <t>1685687907490</t>
+    <t>1685687907000</t>
   </si>
   <si>
     <t>1079</t>
@@ -29941,32 +29944,35 @@
       <c r="A591" t="s">
         <v>3074</v>
       </c>
+      <c r="B591" t="s">
+        <v>3075</v>
+      </c>
       <c r="C591" t="s">
         <v>38</v>
       </c>
       <c r="D591" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="E591" t="s">
         <v>16</v>
       </c>
       <c r="F591" t="s">
+        <v>3077</v>
+      </c>
+      <c r="G591" t="s">
+        <v>3078</v>
+      </c>
+      <c r="H591" t="s">
+        <v>3079</v>
+      </c>
+      <c r="I591" t="s">
+        <v>20</v>
+      </c>
+      <c r="K591" t="s">
+        <v>2355</v>
+      </c>
+      <c r="L591" t="s">
         <v>3076</v>
-      </c>
-      <c r="G591" t="s">
-        <v>3077</v>
-      </c>
-      <c r="H591" t="s">
-        <v>3078</v>
-      </c>
-      <c r="I591" t="s">
-        <v>20</v>
-      </c>
-      <c r="K591" t="s">
-        <v>30</v>
-      </c>
-      <c r="L591" t="s">
-        <v>3075</v>
       </c>
     </row>
   </sheetData>

--- a/hans/OcrmCashierRecEntity.xlsx
+++ b/hans/OcrmCashierRecEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7390" uniqueCount="3479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8165" uniqueCount="3804">
   <si>
     <t>_id</t>
   </si>
@@ -8457,13 +8457,16 @@
     <t>548</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-22年12月-23年3月C站通讯费-usd1355_1688029860202_7269.05.pdf</t>
+  </si>
+  <si>
     <t>1684830009508</t>
   </si>
   <si>
     <t>411.05</t>
   </si>
   <si>
-    <t>1684916546423</t>
+    <t>1688020957000</t>
   </si>
   <si>
     <t>988</t>
@@ -8751,10 +8754,13 @@
     <t>566</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/兴业付75863_1687768299172_6352.59.pdf</t>
+  </si>
+  <si>
     <t>1685083918324</t>
   </si>
   <si>
-    <t>1684997661615</t>
+    <t>1684997661000</t>
   </si>
   <si>
     <t>567</t>
@@ -9516,7 +9522,7 @@
     <t>17716.75</t>
   </si>
   <si>
-    <t>1686035946000</t>
+    <t>1686727146000</t>
   </si>
   <si>
     <t>1090</t>
@@ -10062,22 +10068,31 @@
     <t>1134</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/mv lucy ocean-45期租金-usd 108000_1687760024167_1234.pdf</t>
+  </si>
+  <si>
     <t>1686793724189</t>
   </si>
   <si>
-    <t>1686793895487</t>
+    <t>1686793895000</t>
   </si>
   <si>
     <t>1140</t>
   </si>
   <si>
+    <t>16.01</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/花旗收177781_1687759552306_1061.79.pdf</t>
+  </si>
+  <si>
     <t>1686793875228</t>
   </si>
   <si>
     <t>177781.79</t>
   </si>
   <si>
-    <t>1686534841779</t>
+    <t>1686534841000</t>
   </si>
   <si>
     <t>1142</t>
@@ -10086,22 +10101,28 @@
     <t>652</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean-do2302-抓斗预付款-usd10000_1687759937342_8463.pdf</t>
+  </si>
+  <si>
     <t>1686801609697</t>
   </si>
   <si>
-    <t>1686801776904</t>
+    <t>1686888176000</t>
   </si>
   <si>
     <t>1174</t>
   </si>
   <si>
+    <t>https://hans.pdmarket.cn/crmres/lucy ocean-加滑油-usd34614_1687343647964_275.16.pdf</t>
+  </si>
+  <si>
     <t>1686808893700</t>
   </si>
   <si>
     <t>34614.16</t>
   </si>
   <si>
-    <t>1686809067416</t>
+    <t>1687327467000</t>
   </si>
   <si>
     <t>991</t>
@@ -10305,9 +10326,6 @@
     <t>1095</t>
   </si>
   <si>
-    <t>16.01</t>
-  </si>
-  <si>
     <t>670</t>
   </si>
   <si>
@@ -10450,6 +10468,963 @@
   </si>
   <si>
     <t>16.03</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/转monica-usd 98040_1687253820809_3615.pdf</t>
+  </si>
+  <si>
+    <t>1687243050085</t>
+  </si>
+  <si>
+    <t>1687243516000</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>12.81</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/代收代付-1w美金-rmb 70867_1687253757264_7505.pdf</t>
+  </si>
+  <si>
+    <t>1687251755743</t>
+  </si>
+  <si>
+    <t>70867</t>
+  </si>
+  <si>
+    <t>1687252219000</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/代收代付陈礼斌工资-rmb 20919_1687253744757_1634.52.pdf</t>
+  </si>
+  <si>
+    <t>1687251943998</t>
+  </si>
+  <si>
+    <t>20919.52</t>
+  </si>
+  <si>
+    <t>1687252409000</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>683</t>
+  </si>
+  <si>
+    <t>1687314194052</t>
+  </si>
+  <si>
+    <t>1687314665581</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean-第49期租金-usd108000_1687343604999_5517.pdf</t>
+  </si>
+  <si>
+    <t>1687329291133</t>
+  </si>
+  <si>
+    <t>1687329276000</t>
+  </si>
+  <si>
+    <t>1228</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy+lucy ocean-6月船舶管理费+洛美工作服+天津工作服-usd7893_1687834939583_5311.09.pdf</t>
+  </si>
+  <si>
+    <t>1687764867371</t>
+  </si>
+  <si>
+    <t>430.84</t>
+  </si>
+  <si>
+    <t>1687765031000</t>
+  </si>
+  <si>
+    <t>1265</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy+lucy ocean-6月船舶管理费+洛美工作服+天津工作服-usd7893_1687834966232_6395.09.pdf</t>
+  </si>
+  <si>
+    <t>1687764909618</t>
+  </si>
+  <si>
+    <t>1687765073000</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy+lucy ocean-6月船舶管理费+洛美工作服+天津工作服-usd7893_1687834984977_811.09.pdf</t>
+  </si>
+  <si>
+    <t>1687764940857</t>
+  </si>
+  <si>
+    <t>262.25</t>
+  </si>
+  <si>
+    <t>1687765104000</t>
+  </si>
+  <si>
+    <t>1209</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy+lucy ocean-6月船舶管理费+洛美工作服+天津工作服-usd7893_1688030688154_7964.09.pdf</t>
+  </si>
+  <si>
+    <t>1687764958452</t>
+  </si>
+  <si>
+    <t>1687765124000</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy+lucy ocean-6月船员工资及其他-usd191567_1687831783875_3358.52.pdf</t>
+  </si>
+  <si>
+    <t>1687765010341</t>
+  </si>
+  <si>
+    <t>90668.86</t>
+  </si>
+  <si>
+    <t>1687765173000</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy+lucy ocean-6月船员工资及其他-usd191567_1687833507139_5683.52.pdf</t>
+  </si>
+  <si>
+    <t>1687765038516</t>
+  </si>
+  <si>
+    <t>100898.66</t>
+  </si>
+  <si>
+    <t>1687765196000</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/mv dina ocean+lauren ocean+sophia ocean+christina ocean-5月管理费-usd 18000_1687920116093_7279.pdf</t>
+  </si>
+  <si>
+    <t>1687768537495</t>
+  </si>
+  <si>
+    <t>1687769026000</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/mv dina ocean+lauren ocean+sophia ocean+christina ocean-5月管理费-usd 18000_1687920140414_4526.pdf</t>
+  </si>
+  <si>
+    <t>1687768561448</t>
+  </si>
+  <si>
+    <t>1687769052000</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>693</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/mv dina ocean+lauren ocean+sophia ocean+christina ocean-5月管理费-usd 18000_1687920130124_9007.pdf</t>
+  </si>
+  <si>
+    <t>1687768584151</t>
+  </si>
+  <si>
+    <t>1687769076000</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/mv dina ocean+lauren ocean+sophia ocean+christina ocean-5月管理费-usd 18000_1687920151447_8004.pdf</t>
+  </si>
+  <si>
+    <t>1687768602633</t>
+  </si>
+  <si>
+    <t>1687769094000</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>1687835431519</t>
+  </si>
+  <si>
+    <t>3988.99</t>
+  </si>
+  <si>
+    <t>1686885498599</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/mv dina ocean-2023修船-主副机油头修理费用-rmb 2710_1688021080194_5470.pdf</t>
+  </si>
+  <si>
+    <t>1687835712299</t>
+  </si>
+  <si>
+    <t>2710</t>
+  </si>
+  <si>
+    <t>1687836205000</t>
+  </si>
+  <si>
+    <t>1226</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean-do2301-lome港高压清洗机备件-usd648_1688094997077_7310.pdf</t>
+  </si>
+  <si>
+    <t>1687838014455</t>
+  </si>
+  <si>
+    <t>1687924574000</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean-do2301-消防救生装备氧气瓶背包和呼吸阀总成-usd210_1688094052389_91.pdf</t>
+  </si>
+  <si>
+    <t>1687847646180</t>
+  </si>
+  <si>
+    <t>1687934212000</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean-do2205-SEEMP PARTIII-usd200_1688094646366_6269.pdf</t>
+  </si>
+  <si>
+    <t>1687847667029</t>
+  </si>
+  <si>
+    <t>1687934232000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-克令吊备件+天津供应备件-usd10637_1688092352961_1854.3.pdf</t>
+  </si>
+  <si>
+    <t>1687847685891</t>
+  </si>
+  <si>
+    <t>1687934247000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-克令吊备件+天津供应备件-usd10637_1688092433771_944.3.pdf</t>
+  </si>
+  <si>
+    <t>1687847716158</t>
+  </si>
+  <si>
+    <t>9602.3</t>
+  </si>
+  <si>
+    <t>1687934276000</t>
+  </si>
+  <si>
+    <t>978</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-天津供备件+救生艇叶轮+至巴西运费-usd2608_1688095134909_3779.39.pdf</t>
+  </si>
+  <si>
+    <t>1687849776242</t>
+  </si>
+  <si>
+    <t>2317.39</t>
+  </si>
+  <si>
+    <t>1687936335000</t>
+  </si>
+  <si>
+    <t>985</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-天津供备件+救生艇叶轮+至巴西运费-usd2608_1688095222772_2806.39.pdf</t>
+  </si>
+  <si>
+    <t>1687849814304</t>
+  </si>
+  <si>
+    <t>1687936375000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-天津供备件+救生艇叶轮+至巴西运费-usd2608_1688095172018_2047.39.pdf</t>
+  </si>
+  <si>
+    <t>1687849836104</t>
+  </si>
+  <si>
+    <t>1687936399000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/花旗收226980_1687852889496_9417.63.pdf</t>
+  </si>
+  <si>
+    <t>1687852454929</t>
+  </si>
+  <si>
+    <t>226980.63</t>
+  </si>
+  <si>
+    <t>1687507015000</t>
+  </si>
+  <si>
+    <t>1149</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/mv daisy ocean-do2302-千斤钢丝+吊货钢丝各1根 预付款-rmb 19500_1688090816311_8444.pdf</t>
+  </si>
+  <si>
+    <t>1687853283699</t>
+  </si>
+  <si>
+    <t>19500</t>
+  </si>
+  <si>
+    <t>1687939834000</t>
+  </si>
+  <si>
+    <t>1268</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/花旗收217776_1688006823102_3049.07.pdf</t>
+  </si>
+  <si>
+    <t>1687924913987</t>
+  </si>
+  <si>
+    <t>217776.07</t>
+  </si>
+  <si>
+    <t>1687838671000</t>
+  </si>
+  <si>
+    <t>1273</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-lome港供备件+gurrucha港供备件+天津供备件-usd13127_1688097348681_5640.4.pdf</t>
+  </si>
+  <si>
+    <t>1688003578528</t>
+  </si>
+  <si>
+    <t>6054.4</t>
+  </si>
+  <si>
+    <t>1688003743000</t>
+  </si>
+  <si>
+    <t>1266</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-lome港供备件+gurrucha港供备件+天津供备件-usd13127_1688097327725_1057.4.pdf</t>
+  </si>
+  <si>
+    <t>1688003601848</t>
+  </si>
+  <si>
+    <t>2444</t>
+  </si>
+  <si>
+    <t>1688003767000</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-lome港供备件+gurrucha港供备件+天津供备件-usd13127_1688097304321_9030.4.pdf</t>
+  </si>
+  <si>
+    <t>1688003626783</t>
+  </si>
+  <si>
+    <t>4629</t>
+  </si>
+  <si>
+    <t>1688003792000</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-22年12月-23年3月C站通讯费-usd1355_1688029774116_4058.05.pdf</t>
+  </si>
+  <si>
+    <t>1688003747472</t>
+  </si>
+  <si>
+    <t>944</t>
+  </si>
+  <si>
+    <t>1688003888000</t>
+  </si>
+  <si>
+    <t>957</t>
+  </si>
+  <si>
+    <t>1688004141781</t>
+  </si>
+  <si>
+    <t>5192.7</t>
+  </si>
+  <si>
+    <t>1688004306673</t>
+  </si>
+  <si>
+    <t>984</t>
+  </si>
+  <si>
+    <t>1688004157645</t>
+  </si>
+  <si>
+    <t>4538.07</t>
+  </si>
+  <si>
+    <t>1688004322136</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-GPS通导修理设备预付款+VDR信标-usd2350_1688108429611_397.pdf</t>
+  </si>
+  <si>
+    <t>1688004230421</t>
+  </si>
+  <si>
+    <t>1760</t>
+  </si>
+  <si>
+    <t>1688004396000</t>
+  </si>
+  <si>
+    <t>955</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-GPS通导修理设备预付款+VDR信标-usd2350_1688108448269_3060.pdf</t>
+  </si>
+  <si>
+    <t>1688004627164</t>
+  </si>
+  <si>
+    <t>1688004790000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-lome港紧急送物料+连云港补充物料+天津年度物料+22年11月上船物料-usd39362_1688111675501_1211.33.pdf</t>
+  </si>
+  <si>
+    <t>1688004840244</t>
+  </si>
+  <si>
+    <t>1688005003000</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-lome港紧急送物料+连云港补充物料+天津年度物料+22年11月上船物料-usd39362_1688111658222_5876.33.pdf</t>
+  </si>
+  <si>
+    <t>1688005024711</t>
+  </si>
+  <si>
+    <t>1688005191000</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-lome港紧急送物料+连云港补充物料+天津年度物料+22年11月上船物料-usd39362_1688111706496_7936.33.pdf</t>
+  </si>
+  <si>
+    <t>1688005046328</t>
+  </si>
+  <si>
+    <t>33663.08</t>
+  </si>
+  <si>
+    <t>1688005205000</t>
+  </si>
+  <si>
+    <t>986</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean+lucy ocean-lome港紧急送物料+连云港补充物料+天津年度物料+22年11月上船物料-usd39362_1688111748713_5435.33.pdf</t>
+  </si>
+  <si>
+    <t>1688005067195</t>
+  </si>
+  <si>
+    <t>4770.25</t>
+  </si>
+  <si>
+    <t>1688005228000</t>
+  </si>
+  <si>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>1688008081795</t>
+  </si>
+  <si>
+    <t>70612.39</t>
+  </si>
+  <si>
+    <t>1688008575262</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/mv dina ocean+lauren ocean+sophia ocean+christina ocean-海予备件-usd 33131_1688091087472_5032.18.pdf</t>
+  </si>
+  <si>
+    <t>1688019958339</t>
+  </si>
+  <si>
+    <t>1688020439000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/mv dina ocean+lauren ocean+sophia ocean+christina ocean-海予备件-usd 33131_1688091097042_4713.18.pdf</t>
+  </si>
+  <si>
+    <t>1688019981867</t>
+  </si>
+  <si>
+    <t>31146.68</t>
+  </si>
+  <si>
+    <t>1688020475000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/mv dina ocean+lauren ocean+sophia ocean+christina ocean-海予备件-usd 33131_1688091109201_7620.18.pdf</t>
+  </si>
+  <si>
+    <t>1688020009020</t>
+  </si>
+  <si>
+    <t>1688020505000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/mv dina ocean+lauren ocean+sophia ocean+christina ocean-海予备件-usd 33131_1688091118577_3161.18.pdf</t>
+  </si>
+  <si>
+    <t>1688020024387</t>
+  </si>
+  <si>
+    <t>583.5</t>
+  </si>
+  <si>
+    <t>1688020524000</t>
+  </si>
+  <si>
+    <t>1688020246507</t>
+  </si>
+  <si>
+    <t>34024</t>
+  </si>
+  <si>
+    <t>1688020741012</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>726</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/daisy ocean-do2302-23年度吨税-usd4107_1688029118722_1758.55.pdf</t>
+  </si>
+  <si>
+    <t>1688021025466</t>
+  </si>
+  <si>
+    <t>4107.55</t>
+  </si>
+  <si>
+    <t>1688021191000</t>
+  </si>
+  <si>
+    <t>1287</t>
+  </si>
+  <si>
+    <t>1688021426428</t>
+  </si>
+  <si>
+    <t>13780</t>
+  </si>
+  <si>
+    <t>1688021926128</t>
+  </si>
+  <si>
+    <t>1161</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>1688021702741</t>
+  </si>
+  <si>
+    <t>12840</t>
+  </si>
+  <si>
+    <t>1688022193918</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/6415_1688350112037_3066.pdf</t>
+  </si>
+  <si>
+    <t>1688090717895</t>
+  </si>
+  <si>
+    <t>6415</t>
+  </si>
+  <si>
+    <t>1688091209000</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/1709_1688350144363_3974.pdf</t>
+  </si>
+  <si>
+    <t>1688090745849</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1688091247000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/126_1688350161266_565.pdf</t>
+  </si>
+  <si>
+    <t>1688090778281</t>
+  </si>
+  <si>
+    <t>1688091283000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/1800_1688350173987_2080.pdf</t>
+  </si>
+  <si>
+    <t>1688090807469</t>
+  </si>
+  <si>
+    <t>1688091309000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/550_1688350187117_7903.pdf</t>
+  </si>
+  <si>
+    <t>1688090846519</t>
+  </si>
+  <si>
+    <t>1688091350000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/2281_1688350199769_5027.pdf</t>
+  </si>
+  <si>
+    <t>1688090881351</t>
+  </si>
+  <si>
+    <t>2281</t>
+  </si>
+  <si>
+    <t>1688091384000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/148_1688350211031_8398.pdf</t>
+  </si>
+  <si>
+    <t>1688090901284</t>
+  </si>
+  <si>
+    <t>1688091405000</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/40408_1688350222962_9811.19.pdf</t>
+  </si>
+  <si>
+    <t>1688091383491</t>
+  </si>
+  <si>
+    <t>40408.19</t>
+  </si>
+  <si>
+    <t>1688091884000</t>
+  </si>
+  <si>
+    <t>1688093361046</t>
+  </si>
+  <si>
+    <t>1191.86</t>
+  </si>
+  <si>
+    <t>1688093857775</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>1688093380858</t>
+  </si>
+  <si>
+    <t>1688093883538</t>
+  </si>
+  <si>
+    <t>1186</t>
+  </si>
+  <si>
+    <t>739</t>
+  </si>
+  <si>
+    <t>1688093405784</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>1688093908159</t>
+  </si>
+  <si>
+    <t>1178</t>
+  </si>
+  <si>
+    <t>1688093427089</t>
+  </si>
+  <si>
+    <t>938.49</t>
+  </si>
+  <si>
+    <t>1688093927811</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>1688094554955</t>
+  </si>
+  <si>
+    <t>20520</t>
+  </si>
+  <si>
+    <t>1688095053287</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>1688095131638</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>1688095629007</t>
+  </si>
+  <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>1688096605738</t>
+  </si>
+  <si>
+    <t>9028</t>
+  </si>
+  <si>
+    <t>1688097101717</t>
+  </si>
+  <si>
+    <t>1163</t>
+  </si>
+  <si>
+    <t>1688096625107</t>
+  </si>
+  <si>
+    <t>1688097127457</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>1688096648915</t>
+  </si>
+  <si>
+    <t>3829</t>
+  </si>
+  <si>
+    <t>1688097146185</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>1688110349194</t>
+  </si>
+  <si>
+    <t>1688110850542</t>
+  </si>
+  <si>
+    <t>1293</t>
+  </si>
+  <si>
+    <t>1688111044042</t>
+  </si>
+  <si>
+    <t>137004.48</t>
+  </si>
+  <si>
+    <t>1688111539629</t>
+  </si>
+  <si>
+    <t>1291</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>1688111066358</t>
+  </si>
+  <si>
+    <t>68502.24</t>
+  </si>
+  <si>
+    <t>1688111567640</t>
+  </si>
+  <si>
+    <t>1289</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>1688111549943</t>
+  </si>
+  <si>
+    <t>4066.1</t>
+  </si>
+  <si>
+    <t>1688112048246</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>1688111574533</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>1688112070467</t>
+  </si>
+  <si>
+    <t>751</t>
+  </si>
+  <si>
+    <t>1688111593909</t>
+  </si>
+  <si>
+    <t>1653</t>
+  </si>
+  <si>
+    <t>1688112094109</t>
   </si>
 </sst>
 </file>
@@ -10493,7 +11468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L672"/>
+  <dimension ref="A1:L744"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -19602,7 +20577,7 @@
         <v>20</v>
       </c>
       <c r="K260" t="s">
-        <v>1389</v>
+        <v>30</v>
       </c>
       <c r="L260" t="s">
         <v>1400</v>
@@ -29412,32 +30387,35 @@
       <c r="A541" t="s">
         <v>2813</v>
       </c>
+      <c r="B541" t="s">
+        <v>2814</v>
+      </c>
       <c r="C541" t="s">
         <v>137</v>
       </c>
       <c r="D541" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="E541" t="s">
         <v>16</v>
       </c>
       <c r="F541" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G541" t="s">
+        <v>2817</v>
+      </c>
+      <c r="H541" t="s">
+        <v>2818</v>
+      </c>
+      <c r="I541" t="s">
+        <v>20</v>
+      </c>
+      <c r="K541" t="s">
+        <v>30</v>
+      </c>
+      <c r="L541" t="s">
         <v>2815</v>
-      </c>
-      <c r="G541" t="s">
-        <v>2816</v>
-      </c>
-      <c r="H541" t="s">
-        <v>2817</v>
-      </c>
-      <c r="I541" t="s">
-        <v>20</v>
-      </c>
-      <c r="K541" t="s">
-        <v>30</v>
-      </c>
-      <c r="L541" t="s">
-        <v>2814</v>
       </c>
     </row>
     <row r="542">
@@ -29445,34 +30423,34 @@
         <v>2506</v>
       </c>
       <c r="B542" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="C542" t="s">
         <v>137</v>
       </c>
       <c r="D542" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="E542" t="s">
         <v>16</v>
       </c>
       <c r="F542" t="s">
+        <v>2821</v>
+      </c>
+      <c r="G542" t="s">
+        <v>2822</v>
+      </c>
+      <c r="H542" t="s">
+        <v>2823</v>
+      </c>
+      <c r="I542" t="s">
+        <v>20</v>
+      </c>
+      <c r="K542" t="s">
+        <v>30</v>
+      </c>
+      <c r="L542" t="s">
         <v>2820</v>
-      </c>
-      <c r="G542" t="s">
-        <v>2821</v>
-      </c>
-      <c r="H542" t="s">
-        <v>2822</v>
-      </c>
-      <c r="I542" t="s">
-        <v>20</v>
-      </c>
-      <c r="K542" t="s">
-        <v>30</v>
-      </c>
-      <c r="L542" t="s">
-        <v>2819</v>
       </c>
     </row>
     <row r="543">
@@ -29480,48 +30458,48 @@
         <v>735</v>
       </c>
       <c r="B543" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="C543" t="s">
         <v>137</v>
       </c>
       <c r="D543" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="E543" t="s">
         <v>16</v>
       </c>
       <c r="F543" t="s">
+        <v>2826</v>
+      </c>
+      <c r="G543" t="s">
+        <v>2827</v>
+      </c>
+      <c r="H543" t="s">
+        <v>2828</v>
+      </c>
+      <c r="I543" t="s">
+        <v>20</v>
+      </c>
+      <c r="K543" t="s">
+        <v>30</v>
+      </c>
+      <c r="L543" t="s">
         <v>2825</v>
-      </c>
-      <c r="G543" t="s">
-        <v>2826</v>
-      </c>
-      <c r="H543" t="s">
-        <v>2827</v>
-      </c>
-      <c r="I543" t="s">
-        <v>20</v>
-      </c>
-      <c r="K543" t="s">
-        <v>30</v>
-      </c>
-      <c r="L543" t="s">
-        <v>2824</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="B544" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="C544" t="s">
         <v>137</v>
       </c>
       <c r="D544" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="E544" t="s">
         <v>16</v>
@@ -29530,33 +30508,33 @@
         <v>822</v>
       </c>
       <c r="G544" t="s">
+        <v>2832</v>
+      </c>
+      <c r="H544" t="s">
+        <v>2833</v>
+      </c>
+      <c r="I544" t="s">
+        <v>20</v>
+      </c>
+      <c r="K544" t="s">
+        <v>30</v>
+      </c>
+      <c r="L544" t="s">
         <v>2831</v>
-      </c>
-      <c r="H544" t="s">
-        <v>2832</v>
-      </c>
-      <c r="I544" t="s">
-        <v>20</v>
-      </c>
-      <c r="K544" t="s">
-        <v>30</v>
-      </c>
-      <c r="L544" t="s">
-        <v>2830</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="B545" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="C545" t="s">
         <v>137</v>
       </c>
       <c r="D545" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="E545" t="s">
         <v>16</v>
@@ -29565,159 +30543,159 @@
         <v>822</v>
       </c>
       <c r="G545" t="s">
+        <v>2837</v>
+      </c>
+      <c r="H545" t="s">
+        <v>2838</v>
+      </c>
+      <c r="I545" t="s">
+        <v>20</v>
+      </c>
+      <c r="K545" t="s">
+        <v>30</v>
+      </c>
+      <c r="L545" t="s">
         <v>2836</v>
-      </c>
-      <c r="H545" t="s">
-        <v>2837</v>
-      </c>
-      <c r="I545" t="s">
-        <v>20</v>
-      </c>
-      <c r="K545" t="s">
-        <v>30</v>
-      </c>
-      <c r="L545" t="s">
-        <v>2835</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="B546" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="C546" t="s">
         <v>137</v>
       </c>
       <c r="D546" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="E546" t="s">
         <v>16</v>
       </c>
       <c r="F546" t="s">
+        <v>2842</v>
+      </c>
+      <c r="G546" t="s">
+        <v>2843</v>
+      </c>
+      <c r="H546" t="s">
+        <v>2844</v>
+      </c>
+      <c r="I546" t="s">
+        <v>20</v>
+      </c>
+      <c r="K546" t="s">
+        <v>30</v>
+      </c>
+      <c r="L546" t="s">
         <v>2841</v>
-      </c>
-      <c r="G546" t="s">
-        <v>2842</v>
-      </c>
-      <c r="H546" t="s">
-        <v>2843</v>
-      </c>
-      <c r="I546" t="s">
-        <v>20</v>
-      </c>
-      <c r="K546" t="s">
-        <v>30</v>
-      </c>
-      <c r="L546" t="s">
-        <v>2840</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="B547" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="C547" t="s">
         <v>24</v>
       </c>
       <c r="D547" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="E547" t="s">
         <v>26</v>
       </c>
       <c r="F547" t="s">
+        <v>2848</v>
+      </c>
+      <c r="G547" t="s">
+        <v>2849</v>
+      </c>
+      <c r="H547" t="s">
+        <v>2850</v>
+      </c>
+      <c r="I547" t="s">
+        <v>20</v>
+      </c>
+      <c r="K547" t="s">
+        <v>30</v>
+      </c>
+      <c r="L547" t="s">
         <v>2847</v>
-      </c>
-      <c r="G547" t="s">
-        <v>2848</v>
-      </c>
-      <c r="H547" t="s">
-        <v>2849</v>
-      </c>
-      <c r="I547" t="s">
-        <v>20</v>
-      </c>
-      <c r="K547" t="s">
-        <v>30</v>
-      </c>
-      <c r="L547" t="s">
-        <v>2846</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="B548" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="C548" t="s">
         <v>137</v>
       </c>
       <c r="D548" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="E548" t="s">
         <v>16</v>
       </c>
       <c r="F548" t="s">
+        <v>2854</v>
+      </c>
+      <c r="G548" t="s">
+        <v>2855</v>
+      </c>
+      <c r="H548" t="s">
+        <v>2856</v>
+      </c>
+      <c r="I548" t="s">
+        <v>20</v>
+      </c>
+      <c r="K548" t="s">
+        <v>30</v>
+      </c>
+      <c r="L548" t="s">
         <v>2853</v>
-      </c>
-      <c r="G548" t="s">
-        <v>2854</v>
-      </c>
-      <c r="H548" t="s">
-        <v>2855</v>
-      </c>
-      <c r="I548" t="s">
-        <v>20</v>
-      </c>
-      <c r="K548" t="s">
-        <v>30</v>
-      </c>
-      <c r="L548" t="s">
-        <v>2852</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="B549" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="C549" t="s">
         <v>70</v>
       </c>
       <c r="D549" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="E549" t="s">
         <v>26</v>
       </c>
       <c r="F549" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G549" t="s">
+        <v>2861</v>
+      </c>
+      <c r="H549" t="s">
+        <v>2862</v>
+      </c>
+      <c r="I549" t="s">
+        <v>20</v>
+      </c>
+      <c r="K549" t="s">
+        <v>30</v>
+      </c>
+      <c r="L549" t="s">
         <v>2859</v>
-      </c>
-      <c r="G549" t="s">
-        <v>2860</v>
-      </c>
-      <c r="H549" t="s">
-        <v>2861</v>
-      </c>
-      <c r="I549" t="s">
-        <v>20</v>
-      </c>
-      <c r="K549" t="s">
-        <v>30</v>
-      </c>
-      <c r="L549" t="s">
-        <v>2858</v>
       </c>
     </row>
     <row r="550">
@@ -29725,153 +30703,153 @@
         <v>2357</v>
       </c>
       <c r="B550" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="C550" t="s">
         <v>70</v>
       </c>
       <c r="D550" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="E550" t="s">
         <v>26</v>
       </c>
       <c r="F550" t="s">
+        <v>2865</v>
+      </c>
+      <c r="G550" t="s">
+        <v>2866</v>
+      </c>
+      <c r="H550" t="s">
+        <v>2867</v>
+      </c>
+      <c r="I550" t="s">
+        <v>20</v>
+      </c>
+      <c r="K550" t="s">
+        <v>30</v>
+      </c>
+      <c r="L550" t="s">
         <v>2864</v>
-      </c>
-      <c r="G550" t="s">
-        <v>2865</v>
-      </c>
-      <c r="H550" t="s">
-        <v>2866</v>
-      </c>
-      <c r="I550" t="s">
-        <v>20</v>
-      </c>
-      <c r="K550" t="s">
-        <v>30</v>
-      </c>
-      <c r="L550" t="s">
-        <v>2863</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="B551" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="C551" t="s">
         <v>70</v>
       </c>
       <c r="D551" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="E551" t="s">
         <v>26</v>
       </c>
       <c r="F551" t="s">
+        <v>2871</v>
+      </c>
+      <c r="G551" t="s">
+        <v>2872</v>
+      </c>
+      <c r="H551" t="s">
+        <v>2873</v>
+      </c>
+      <c r="I551" t="s">
+        <v>20</v>
+      </c>
+      <c r="K551" t="s">
+        <v>30</v>
+      </c>
+      <c r="L551" t="s">
         <v>2870</v>
-      </c>
-      <c r="G551" t="s">
-        <v>2871</v>
-      </c>
-      <c r="H551" t="s">
-        <v>2872</v>
-      </c>
-      <c r="I551" t="s">
-        <v>20</v>
-      </c>
-      <c r="K551" t="s">
-        <v>30</v>
-      </c>
-      <c r="L551" t="s">
-        <v>2869</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="B552" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="C552" t="s">
         <v>70</v>
       </c>
       <c r="D552" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="E552" t="s">
         <v>26</v>
       </c>
       <c r="F552" t="s">
+        <v>2877</v>
+      </c>
+      <c r="G552" t="s">
+        <v>2878</v>
+      </c>
+      <c r="H552" t="s">
+        <v>2879</v>
+      </c>
+      <c r="I552" t="s">
+        <v>20</v>
+      </c>
+      <c r="K552" t="s">
+        <v>30</v>
+      </c>
+      <c r="L552" t="s">
         <v>2876</v>
-      </c>
-      <c r="G552" t="s">
-        <v>2877</v>
-      </c>
-      <c r="H552" t="s">
-        <v>2878</v>
-      </c>
-      <c r="I552" t="s">
-        <v>20</v>
-      </c>
-      <c r="K552" t="s">
-        <v>30</v>
-      </c>
-      <c r="L552" t="s">
-        <v>2875</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="B553" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="C553" t="s">
         <v>38</v>
       </c>
       <c r="D553" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="E553" t="s">
         <v>16</v>
       </c>
       <c r="F553" t="s">
+        <v>2883</v>
+      </c>
+      <c r="G553" t="s">
+        <v>2884</v>
+      </c>
+      <c r="H553" t="s">
+        <v>2885</v>
+      </c>
+      <c r="I553" t="s">
+        <v>20</v>
+      </c>
+      <c r="K553" t="s">
+        <v>30</v>
+      </c>
+      <c r="L553" t="s">
         <v>2882</v>
-      </c>
-      <c r="G553" t="s">
-        <v>2883</v>
-      </c>
-      <c r="H553" t="s">
-        <v>2884</v>
-      </c>
-      <c r="I553" t="s">
-        <v>20</v>
-      </c>
-      <c r="K553" t="s">
-        <v>30</v>
-      </c>
-      <c r="L553" t="s">
-        <v>2881</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="B554" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="C554" t="s">
         <v>38</v>
       </c>
       <c r="D554" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="E554" t="s">
         <v>16</v>
@@ -29880,54 +30858,54 @@
         <v>720</v>
       </c>
       <c r="G554" t="s">
+        <v>2889</v>
+      </c>
+      <c r="H554" t="s">
+        <v>2890</v>
+      </c>
+      <c r="I554" t="s">
+        <v>20</v>
+      </c>
+      <c r="K554" t="s">
+        <v>2891</v>
+      </c>
+      <c r="L554" t="s">
         <v>2888</v>
-      </c>
-      <c r="H554" t="s">
-        <v>2889</v>
-      </c>
-      <c r="I554" t="s">
-        <v>20</v>
-      </c>
-      <c r="K554" t="s">
-        <v>2890</v>
-      </c>
-      <c r="L554" t="s">
-        <v>2887</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="B555" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="C555" t="s">
         <v>137</v>
       </c>
       <c r="D555" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="E555" t="s">
         <v>16</v>
       </c>
       <c r="F555" t="s">
+        <v>2895</v>
+      </c>
+      <c r="G555" t="s">
+        <v>2896</v>
+      </c>
+      <c r="H555" t="s">
+        <v>2897</v>
+      </c>
+      <c r="I555" t="s">
+        <v>20</v>
+      </c>
+      <c r="K555" t="s">
+        <v>30</v>
+      </c>
+      <c r="L555" t="s">
         <v>2894</v>
-      </c>
-      <c r="G555" t="s">
-        <v>2895</v>
-      </c>
-      <c r="H555" t="s">
-        <v>2896</v>
-      </c>
-      <c r="I555" t="s">
-        <v>20</v>
-      </c>
-      <c r="K555" t="s">
-        <v>30</v>
-      </c>
-      <c r="L555" t="s">
-        <v>2893</v>
       </c>
     </row>
     <row r="556">
@@ -29935,25 +30913,25 @@
         <v>1353</v>
       </c>
       <c r="B556" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="C556" t="s">
         <v>38</v>
       </c>
       <c r="D556" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="E556" t="s">
         <v>16</v>
       </c>
       <c r="F556" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="G556" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="H556" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="I556" t="s">
         <v>20</v>
@@ -29962,21 +30940,21 @@
         <v>2358</v>
       </c>
       <c r="L556" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="B557" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="C557" t="s">
         <v>213</v>
       </c>
       <c r="D557" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="E557" t="s">
         <v>16</v>
@@ -29985,19 +30963,19 @@
         <v>771</v>
       </c>
       <c r="G557" t="s">
+        <v>2906</v>
+      </c>
+      <c r="H557" t="s">
+        <v>2907</v>
+      </c>
+      <c r="I557" t="s">
+        <v>20</v>
+      </c>
+      <c r="K557" t="s">
+        <v>30</v>
+      </c>
+      <c r="L557" t="s">
         <v>2905</v>
-      </c>
-      <c r="H557" t="s">
-        <v>2906</v>
-      </c>
-      <c r="I557" t="s">
-        <v>20</v>
-      </c>
-      <c r="K557" t="s">
-        <v>30</v>
-      </c>
-      <c r="L557" t="s">
-        <v>2904</v>
       </c>
     </row>
     <row r="558">
@@ -30005,22 +30983,22 @@
         <v>1348</v>
       </c>
       <c r="B558" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="C558" t="s">
         <v>52</v>
       </c>
       <c r="D558" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="E558" t="s">
         <v>26</v>
       </c>
       <c r="F558" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="G558" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="H558" t="s">
         <v>692</v>
@@ -30032,27 +31010,30 @@
         <v>57</v>
       </c>
       <c r="L558" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>2911</v>
+        <v>2912</v>
+      </c>
+      <c r="B559" t="s">
+        <v>2913</v>
       </c>
       <c r="C559" t="s">
         <v>175</v>
       </c>
       <c r="D559" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="E559" t="s">
         <v>26</v>
       </c>
       <c r="F559" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="G559" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="H559" t="s">
         <v>713</v>
@@ -30061,36 +31042,36 @@
         <v>108</v>
       </c>
       <c r="K559" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="L559" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
       <c r="B560" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
       <c r="C560" t="s">
         <v>52</v>
       </c>
       <c r="D560" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="E560" t="s">
         <v>26</v>
       </c>
       <c r="F560" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="G560" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="H560" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
       <c r="I560" t="s">
         <v>43</v>
@@ -30099,21 +31080,21 @@
         <v>30</v>
       </c>
       <c r="L560" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
       <c r="B561" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="C561" t="s">
         <v>52</v>
       </c>
       <c r="D561" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="E561" t="s">
         <v>26</v>
@@ -30122,10 +31103,10 @@
         <v>2301</v>
       </c>
       <c r="G561" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="H561" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
       <c r="I561" t="s">
         <v>43</v>
@@ -30134,30 +31115,30 @@
         <v>30</v>
       </c>
       <c r="L561" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="B562" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
       <c r="C562" t="s">
         <v>52</v>
       </c>
       <c r="D562" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="E562" t="s">
         <v>26</v>
       </c>
       <c r="F562" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="G562" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
       <c r="H562" t="s">
         <v>682</v>
@@ -30166,45 +31147,45 @@
         <v>108</v>
       </c>
       <c r="K562" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
       <c r="L562" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="B563" t="s">
-        <v>2932</v>
+        <v>2934</v>
       </c>
       <c r="C563" t="s">
         <v>14</v>
       </c>
       <c r="D563" t="s">
-        <v>2933</v>
+        <v>2935</v>
       </c>
       <c r="E563" t="s">
         <v>16</v>
       </c>
       <c r="F563" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="G563" t="s">
+        <v>2937</v>
+      </c>
+      <c r="H563" t="s">
+        <v>2938</v>
+      </c>
+      <c r="I563" t="s">
+        <v>20</v>
+      </c>
+      <c r="K563" t="s">
+        <v>2939</v>
+      </c>
+      <c r="L563" t="s">
         <v>2935</v>
-      </c>
-      <c r="H563" t="s">
-        <v>2936</v>
-      </c>
-      <c r="I563" t="s">
-        <v>20</v>
-      </c>
-      <c r="K563" t="s">
-        <v>2937</v>
-      </c>
-      <c r="L563" t="s">
-        <v>2933</v>
       </c>
     </row>
     <row r="564">
@@ -30212,25 +31193,25 @@
         <v>1359</v>
       </c>
       <c r="B564" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="C564" t="s">
         <v>137</v>
       </c>
       <c r="D564" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="E564" t="s">
         <v>16</v>
       </c>
       <c r="F564" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
       <c r="G564" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="H564" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
       <c r="I564" t="s">
         <v>43</v>
@@ -30239,33 +31220,33 @@
         <v>30</v>
       </c>
       <c r="L564" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="B565" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="C565" t="s">
         <v>213</v>
       </c>
       <c r="D565" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="E565" t="s">
         <v>16</v>
       </c>
       <c r="F565" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
       <c r="G565" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
       <c r="H565" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="I565" t="s">
         <v>20</v>
@@ -30274,21 +31255,21 @@
         <v>2358</v>
       </c>
       <c r="L565" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="B566" t="s">
-        <v>2950</v>
+        <v>2952</v>
       </c>
       <c r="C566" t="s">
         <v>226</v>
       </c>
       <c r="D566" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="E566" t="s">
         <v>16</v>
@@ -30297,7 +31278,7 @@
         <v>2717</v>
       </c>
       <c r="G566" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="H566" t="s">
         <v>1151</v>
@@ -30309,7 +31290,7 @@
         <v>30</v>
       </c>
       <c r="L566" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="567">
@@ -30317,13 +31298,13 @@
         <v>1427</v>
       </c>
       <c r="B567" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="C567" t="s">
         <v>213</v>
       </c>
       <c r="D567" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="E567" t="s">
         <v>16</v>
@@ -30332,10 +31313,10 @@
         <v>720</v>
       </c>
       <c r="G567" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="H567" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
       <c r="I567" t="s">
         <v>43</v>
@@ -30344,21 +31325,21 @@
         <v>30</v>
       </c>
       <c r="L567" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="B568" t="s">
-        <v>2958</v>
+        <v>2960</v>
       </c>
       <c r="C568" t="s">
         <v>213</v>
       </c>
       <c r="D568" t="s">
-        <v>2959</v>
+        <v>2961</v>
       </c>
       <c r="E568" t="s">
         <v>16</v>
@@ -30367,10 +31348,10 @@
         <v>2717</v>
       </c>
       <c r="G568" t="s">
-        <v>2960</v>
+        <v>2962</v>
       </c>
       <c r="H568" t="s">
-        <v>2961</v>
+        <v>2963</v>
       </c>
       <c r="I568" t="s">
         <v>43</v>
@@ -30379,7 +31360,7 @@
         <v>30</v>
       </c>
       <c r="L568" t="s">
-        <v>2959</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="569">
@@ -30387,34 +31368,34 @@
         <v>2067</v>
       </c>
       <c r="B569" t="s">
-        <v>2962</v>
+        <v>2964</v>
       </c>
       <c r="C569" t="s">
         <v>70</v>
       </c>
       <c r="D569" t="s">
-        <v>2963</v>
+        <v>2965</v>
       </c>
       <c r="E569" t="s">
         <v>26</v>
       </c>
       <c r="F569" t="s">
-        <v>2964</v>
+        <v>2966</v>
       </c>
       <c r="G569" t="s">
+        <v>2967</v>
+      </c>
+      <c r="H569" t="s">
+        <v>2968</v>
+      </c>
+      <c r="I569" t="s">
+        <v>20</v>
+      </c>
+      <c r="K569" t="s">
+        <v>30</v>
+      </c>
+      <c r="L569" t="s">
         <v>2965</v>
-      </c>
-      <c r="H569" t="s">
-        <v>2966</v>
-      </c>
-      <c r="I569" t="s">
-        <v>20</v>
-      </c>
-      <c r="K569" t="s">
-        <v>30</v>
-      </c>
-      <c r="L569" t="s">
-        <v>2963</v>
       </c>
     </row>
     <row r="570">
@@ -30422,69 +31403,69 @@
         <v>1422</v>
       </c>
       <c r="B570" t="s">
-        <v>2967</v>
+        <v>2969</v>
       </c>
       <c r="C570" t="s">
         <v>70</v>
       </c>
       <c r="D570" t="s">
-        <v>2968</v>
+        <v>2970</v>
       </c>
       <c r="E570" t="s">
         <v>26</v>
       </c>
       <c r="F570" t="s">
-        <v>2969</v>
+        <v>2971</v>
       </c>
       <c r="G570" t="s">
+        <v>2972</v>
+      </c>
+      <c r="H570" t="s">
+        <v>2973</v>
+      </c>
+      <c r="I570" t="s">
+        <v>20</v>
+      </c>
+      <c r="K570" t="s">
+        <v>30</v>
+      </c>
+      <c r="L570" t="s">
         <v>2970</v>
-      </c>
-      <c r="H570" t="s">
-        <v>2971</v>
-      </c>
-      <c r="I570" t="s">
-        <v>20</v>
-      </c>
-      <c r="K570" t="s">
-        <v>30</v>
-      </c>
-      <c r="L570" t="s">
-        <v>2968</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>2972</v>
+        <v>2974</v>
       </c>
       <c r="B571" t="s">
-        <v>2973</v>
+        <v>2975</v>
       </c>
       <c r="C571" t="s">
         <v>70</v>
       </c>
       <c r="D571" t="s">
-        <v>2974</v>
+        <v>2976</v>
       </c>
       <c r="E571" t="s">
         <v>26</v>
       </c>
       <c r="F571" t="s">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="G571" t="s">
+        <v>2978</v>
+      </c>
+      <c r="H571" t="s">
+        <v>2979</v>
+      </c>
+      <c r="I571" t="s">
+        <v>20</v>
+      </c>
+      <c r="K571" t="s">
+        <v>30</v>
+      </c>
+      <c r="L571" t="s">
         <v>2976</v>
-      </c>
-      <c r="H571" t="s">
-        <v>2977</v>
-      </c>
-      <c r="I571" t="s">
-        <v>20</v>
-      </c>
-      <c r="K571" t="s">
-        <v>30</v>
-      </c>
-      <c r="L571" t="s">
-        <v>2974</v>
       </c>
     </row>
     <row r="572">
@@ -30492,13 +31473,13 @@
         <v>1418</v>
       </c>
       <c r="B572" t="s">
-        <v>2978</v>
+        <v>2980</v>
       </c>
       <c r="C572" t="s">
         <v>70</v>
       </c>
       <c r="D572" t="s">
-        <v>2979</v>
+        <v>2981</v>
       </c>
       <c r="E572" t="s">
         <v>26</v>
@@ -30507,33 +31488,33 @@
         <v>181</v>
       </c>
       <c r="G572" t="s">
-        <v>2980</v>
+        <v>2982</v>
       </c>
       <c r="H572" t="s">
+        <v>2983</v>
+      </c>
+      <c r="I572" t="s">
+        <v>20</v>
+      </c>
+      <c r="K572" t="s">
+        <v>30</v>
+      </c>
+      <c r="L572" t="s">
         <v>2981</v>
-      </c>
-      <c r="I572" t="s">
-        <v>20</v>
-      </c>
-      <c r="K572" t="s">
-        <v>30</v>
-      </c>
-      <c r="L572" t="s">
-        <v>2979</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>2982</v>
+        <v>2984</v>
       </c>
       <c r="B573" t="s">
-        <v>2983</v>
+        <v>2985</v>
       </c>
       <c r="C573" t="s">
         <v>38</v>
       </c>
       <c r="D573" t="s">
-        <v>2984</v>
+        <v>2986</v>
       </c>
       <c r="E573" t="s">
         <v>16</v>
@@ -30542,10 +31523,10 @@
         <v>66</v>
       </c>
       <c r="G573" t="s">
-        <v>2985</v>
+        <v>2987</v>
       </c>
       <c r="H573" t="s">
-        <v>2986</v>
+        <v>2988</v>
       </c>
       <c r="I573" t="s">
         <v>43</v>
@@ -30554,7 +31535,7 @@
         <v>30</v>
       </c>
       <c r="L573" t="s">
-        <v>2984</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="574">
@@ -30562,25 +31543,25 @@
         <v>1505</v>
       </c>
       <c r="B574" t="s">
-        <v>2987</v>
+        <v>2989</v>
       </c>
       <c r="C574" t="s">
         <v>137</v>
       </c>
       <c r="D574" t="s">
-        <v>2988</v>
+        <v>2990</v>
       </c>
       <c r="E574" t="s">
         <v>16</v>
       </c>
       <c r="F574" t="s">
-        <v>2989</v>
+        <v>2991</v>
       </c>
       <c r="G574" t="s">
-        <v>2990</v>
+        <v>2992</v>
       </c>
       <c r="H574" t="s">
-        <v>2991</v>
+        <v>2993</v>
       </c>
       <c r="I574" t="s">
         <v>43</v>
@@ -30589,68 +31570,68 @@
         <v>30</v>
       </c>
       <c r="L574" t="s">
-        <v>2988</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>2992</v>
+        <v>2994</v>
       </c>
       <c r="B575" t="s">
-        <v>2993</v>
+        <v>2995</v>
       </c>
       <c r="C575" t="s">
         <v>38</v>
       </c>
       <c r="D575" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="E575" t="s">
         <v>16</v>
       </c>
       <c r="F575" t="s">
-        <v>2995</v>
+        <v>2997</v>
       </c>
       <c r="G575" t="s">
+        <v>2998</v>
+      </c>
+      <c r="H575" t="s">
+        <v>2999</v>
+      </c>
+      <c r="I575" t="s">
+        <v>20</v>
+      </c>
+      <c r="K575" t="s">
+        <v>30</v>
+      </c>
+      <c r="L575" t="s">
         <v>2996</v>
-      </c>
-      <c r="H575" t="s">
-        <v>2997</v>
-      </c>
-      <c r="I575" t="s">
-        <v>20</v>
-      </c>
-      <c r="K575" t="s">
-        <v>30</v>
-      </c>
-      <c r="L575" t="s">
-        <v>2994</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>2998</v>
+        <v>3000</v>
       </c>
       <c r="B576" t="s">
-        <v>2999</v>
+        <v>3001</v>
       </c>
       <c r="C576" t="s">
         <v>38</v>
       </c>
       <c r="D576" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="E576" t="s">
         <v>16</v>
       </c>
       <c r="F576" t="s">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="G576" t="s">
-        <v>3002</v>
+        <v>3004</v>
       </c>
       <c r="H576" t="s">
-        <v>3003</v>
+        <v>3005</v>
       </c>
       <c r="I576" t="s">
         <v>43</v>
@@ -30659,7 +31640,7 @@
         <v>30</v>
       </c>
       <c r="L576" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="577">
@@ -30667,22 +31648,22 @@
         <v>1499</v>
       </c>
       <c r="B577" t="s">
-        <v>3004</v>
+        <v>3006</v>
       </c>
       <c r="C577" t="s">
         <v>38</v>
       </c>
       <c r="D577" t="s">
-        <v>3005</v>
+        <v>3007</v>
       </c>
       <c r="E577" t="s">
         <v>16</v>
       </c>
       <c r="F577" t="s">
-        <v>3006</v>
+        <v>3008</v>
       </c>
       <c r="G577" t="s">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="H577" t="s">
         <v>1128</v>
@@ -30694,21 +31675,21 @@
         <v>30</v>
       </c>
       <c r="L577" t="s">
-        <v>3005</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>3008</v>
+        <v>3010</v>
       </c>
       <c r="B578" t="s">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="C578" t="s">
         <v>38</v>
       </c>
       <c r="D578" t="s">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="E578" t="s">
         <v>16</v>
@@ -30717,19 +31698,19 @@
         <v>891</v>
       </c>
       <c r="G578" t="s">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="H578" t="s">
+        <v>3014</v>
+      </c>
+      <c r="I578" t="s">
+        <v>20</v>
+      </c>
+      <c r="K578" t="s">
+        <v>3015</v>
+      </c>
+      <c r="L578" t="s">
         <v>3012</v>
-      </c>
-      <c r="I578" t="s">
-        <v>20</v>
-      </c>
-      <c r="K578" t="s">
-        <v>3013</v>
-      </c>
-      <c r="L578" t="s">
-        <v>3010</v>
       </c>
     </row>
     <row r="579">
@@ -30737,25 +31718,25 @@
         <v>1493</v>
       </c>
       <c r="B579" t="s">
-        <v>3014</v>
+        <v>3016</v>
       </c>
       <c r="C579" t="s">
         <v>38</v>
       </c>
       <c r="D579" t="s">
-        <v>3015</v>
+        <v>3017</v>
       </c>
       <c r="E579" t="s">
         <v>16</v>
       </c>
       <c r="F579" t="s">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="G579" t="s">
-        <v>3017</v>
+        <v>3019</v>
       </c>
       <c r="H579" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="I579" t="s">
         <v>20</v>
@@ -30764,42 +31745,42 @@
         <v>2365</v>
       </c>
       <c r="L579" t="s">
-        <v>3015</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="B580" t="s">
-        <v>3020</v>
+        <v>3022</v>
       </c>
       <c r="C580" t="s">
         <v>2587</v>
       </c>
       <c r="D580" t="s">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="E580" t="s">
         <v>2589</v>
       </c>
       <c r="F580" t="s">
-        <v>3022</v>
+        <v>3024</v>
       </c>
       <c r="G580" t="s">
+        <v>3025</v>
+      </c>
+      <c r="H580" t="s">
+        <v>3026</v>
+      </c>
+      <c r="I580" t="s">
+        <v>20</v>
+      </c>
+      <c r="K580" t="s">
+        <v>30</v>
+      </c>
+      <c r="L580" t="s">
         <v>3023</v>
-      </c>
-      <c r="H580" t="s">
-        <v>3024</v>
-      </c>
-      <c r="I580" t="s">
-        <v>20</v>
-      </c>
-      <c r="K580" t="s">
-        <v>30</v>
-      </c>
-      <c r="L580" t="s">
-        <v>3021</v>
       </c>
     </row>
     <row r="581">
@@ -30807,25 +31788,25 @@
         <v>1598</v>
       </c>
       <c r="B581" t="s">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="C581" t="s">
         <v>38</v>
       </c>
       <c r="D581" t="s">
-        <v>3026</v>
+        <v>3028</v>
       </c>
       <c r="E581" t="s">
         <v>16</v>
       </c>
       <c r="F581" t="s">
-        <v>3027</v>
+        <v>3029</v>
       </c>
       <c r="G581" t="s">
-        <v>3028</v>
+        <v>3030</v>
       </c>
       <c r="H581" t="s">
-        <v>3029</v>
+        <v>3031</v>
       </c>
       <c r="I581" t="s">
         <v>43</v>
@@ -30834,33 +31815,33 @@
         <v>30</v>
       </c>
       <c r="L581" t="s">
-        <v>3026</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="B582" t="s">
-        <v>3031</v>
+        <v>3033</v>
       </c>
       <c r="C582" t="s">
         <v>137</v>
       </c>
       <c r="D582" t="s">
-        <v>3032</v>
+        <v>3034</v>
       </c>
       <c r="E582" t="s">
         <v>16</v>
       </c>
       <c r="F582" t="s">
-        <v>3033</v>
+        <v>3035</v>
       </c>
       <c r="G582" t="s">
-        <v>3034</v>
+        <v>3036</v>
       </c>
       <c r="H582" t="s">
-        <v>3035</v>
+        <v>3037</v>
       </c>
       <c r="I582" t="s">
         <v>43</v>
@@ -30869,7 +31850,7 @@
         <v>30</v>
       </c>
       <c r="L582" t="s">
-        <v>3032</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="583">
@@ -30877,25 +31858,25 @@
         <v>1593</v>
       </c>
       <c r="B583" t="s">
-        <v>3036</v>
+        <v>3038</v>
       </c>
       <c r="C583" t="s">
         <v>38</v>
       </c>
       <c r="D583" t="s">
-        <v>3037</v>
+        <v>3039</v>
       </c>
       <c r="E583" t="s">
         <v>16</v>
       </c>
       <c r="F583" t="s">
-        <v>3038</v>
+        <v>3040</v>
       </c>
       <c r="G583" t="s">
-        <v>3039</v>
+        <v>3041</v>
       </c>
       <c r="H583" t="s">
-        <v>3040</v>
+        <v>3042</v>
       </c>
       <c r="I583" t="s">
         <v>43</v>
@@ -30904,33 +31885,33 @@
         <v>30</v>
       </c>
       <c r="L583" t="s">
-        <v>3037</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>3041</v>
+        <v>3043</v>
       </c>
       <c r="B584" t="s">
-        <v>3042</v>
+        <v>3044</v>
       </c>
       <c r="C584" t="s">
         <v>38</v>
       </c>
       <c r="D584" t="s">
-        <v>3043</v>
+        <v>3045</v>
       </c>
       <c r="E584" t="s">
         <v>16</v>
       </c>
       <c r="F584" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="G584" t="s">
-        <v>3044</v>
+        <v>3046</v>
       </c>
       <c r="H584" t="s">
-        <v>3045</v>
+        <v>3047</v>
       </c>
       <c r="I584" t="s">
         <v>20</v>
@@ -30939,135 +31920,135 @@
         <v>2358</v>
       </c>
       <c r="L584" t="s">
-        <v>3043</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>3046</v>
+        <v>3048</v>
       </c>
       <c r="B585" t="s">
-        <v>3047</v>
+        <v>3049</v>
       </c>
       <c r="C585" t="s">
         <v>70</v>
       </c>
       <c r="D585" t="s">
-        <v>3048</v>
+        <v>3050</v>
       </c>
       <c r="E585" t="s">
         <v>26</v>
       </c>
       <c r="F585" t="s">
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="G585" t="s">
+        <v>3052</v>
+      </c>
+      <c r="H585" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I585" t="s">
+        <v>20</v>
+      </c>
+      <c r="K585" t="s">
+        <v>30</v>
+      </c>
+      <c r="L585" t="s">
         <v>3050</v>
-      </c>
-      <c r="H585" t="s">
-        <v>3051</v>
-      </c>
-      <c r="I585" t="s">
-        <v>20</v>
-      </c>
-      <c r="K585" t="s">
-        <v>30</v>
-      </c>
-      <c r="L585" t="s">
-        <v>3048</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="B586" t="s">
-        <v>3053</v>
+        <v>3055</v>
       </c>
       <c r="C586" t="s">
         <v>70</v>
       </c>
       <c r="D586" t="s">
-        <v>3054</v>
+        <v>3056</v>
       </c>
       <c r="E586" t="s">
         <v>26</v>
       </c>
       <c r="F586" t="s">
-        <v>3055</v>
+        <v>3057</v>
       </c>
       <c r="G586" t="s">
+        <v>3058</v>
+      </c>
+      <c r="H586" t="s">
+        <v>3059</v>
+      </c>
+      <c r="I586" t="s">
+        <v>20</v>
+      </c>
+      <c r="K586" t="s">
+        <v>30</v>
+      </c>
+      <c r="L586" t="s">
         <v>3056</v>
-      </c>
-      <c r="H586" t="s">
-        <v>3057</v>
-      </c>
-      <c r="I586" t="s">
-        <v>20</v>
-      </c>
-      <c r="K586" t="s">
-        <v>30</v>
-      </c>
-      <c r="L586" t="s">
-        <v>3054</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>3058</v>
+        <v>3060</v>
       </c>
       <c r="B587" t="s">
-        <v>3059</v>
+        <v>3061</v>
       </c>
       <c r="C587" t="s">
         <v>70</v>
       </c>
       <c r="D587" t="s">
-        <v>3060</v>
+        <v>3062</v>
       </c>
       <c r="E587" t="s">
         <v>26</v>
       </c>
       <c r="F587" t="s">
-        <v>3061</v>
+        <v>3063</v>
       </c>
       <c r="G587" t="s">
+        <v>3064</v>
+      </c>
+      <c r="H587" t="s">
+        <v>3065</v>
+      </c>
+      <c r="I587" t="s">
+        <v>20</v>
+      </c>
+      <c r="K587" t="s">
+        <v>30</v>
+      </c>
+      <c r="L587" t="s">
         <v>3062</v>
-      </c>
-      <c r="H587" t="s">
-        <v>3063</v>
-      </c>
-      <c r="I587" t="s">
-        <v>20</v>
-      </c>
-      <c r="K587" t="s">
-        <v>30</v>
-      </c>
-      <c r="L587" t="s">
-        <v>3060</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>3064</v>
+        <v>3066</v>
       </c>
       <c r="B588" t="s">
-        <v>3065</v>
+        <v>3067</v>
       </c>
       <c r="C588" t="s">
         <v>70</v>
       </c>
       <c r="D588" t="s">
-        <v>3066</v>
+        <v>3068</v>
       </c>
       <c r="E588" t="s">
         <v>26</v>
       </c>
       <c r="F588" t="s">
-        <v>3067</v>
+        <v>3069</v>
       </c>
       <c r="G588" t="s">
-        <v>3068</v>
+        <v>3070</v>
       </c>
       <c r="H588" t="s">
         <v>670</v>
@@ -31079,30 +32060,30 @@
         <v>30</v>
       </c>
       <c r="L588" t="s">
-        <v>3066</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>3069</v>
+        <v>3071</v>
       </c>
       <c r="B589" t="s">
-        <v>3070</v>
+        <v>3072</v>
       </c>
       <c r="C589" t="s">
         <v>70</v>
       </c>
       <c r="D589" t="s">
-        <v>3071</v>
+        <v>3073</v>
       </c>
       <c r="E589" t="s">
         <v>26</v>
       </c>
       <c r="F589" t="s">
-        <v>3072</v>
+        <v>3074</v>
       </c>
       <c r="G589" t="s">
-        <v>3073</v>
+        <v>3075</v>
       </c>
       <c r="H589" t="s">
         <v>723</v>
@@ -31114,30 +32095,30 @@
         <v>30</v>
       </c>
       <c r="L589" t="s">
-        <v>3071</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>3074</v>
+        <v>3076</v>
       </c>
       <c r="B590" t="s">
-        <v>3075</v>
+        <v>3077</v>
       </c>
       <c r="C590" t="s">
         <v>70</v>
       </c>
       <c r="D590" t="s">
-        <v>3076</v>
+        <v>3078</v>
       </c>
       <c r="E590" t="s">
         <v>26</v>
       </c>
       <c r="F590" t="s">
-        <v>3077</v>
+        <v>3079</v>
       </c>
       <c r="G590" t="s">
-        <v>3078</v>
+        <v>3080</v>
       </c>
       <c r="H590" t="s">
         <v>732</v>
@@ -31149,33 +32130,33 @@
         <v>30</v>
       </c>
       <c r="L590" t="s">
-        <v>3076</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>3079</v>
+        <v>3081</v>
       </c>
       <c r="B591" t="s">
-        <v>3080</v>
+        <v>3082</v>
       </c>
       <c r="C591" t="s">
         <v>38</v>
       </c>
       <c r="D591" t="s">
-        <v>3081</v>
+        <v>3083</v>
       </c>
       <c r="E591" t="s">
         <v>16</v>
       </c>
       <c r="F591" t="s">
-        <v>3082</v>
+        <v>3084</v>
       </c>
       <c r="G591" t="s">
-        <v>3083</v>
+        <v>3085</v>
       </c>
       <c r="H591" t="s">
-        <v>3084</v>
+        <v>3086</v>
       </c>
       <c r="I591" t="s">
         <v>20</v>
@@ -31184,7 +32165,7 @@
         <v>2358</v>
       </c>
       <c r="L591" t="s">
-        <v>3081</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="592">
@@ -31192,34 +32173,34 @@
         <v>1471</v>
       </c>
       <c r="B592" t="s">
-        <v>3085</v>
+        <v>3087</v>
       </c>
       <c r="C592" t="s">
         <v>14</v>
       </c>
       <c r="D592" t="s">
-        <v>3086</v>
+        <v>3088</v>
       </c>
       <c r="E592" t="s">
         <v>16</v>
       </c>
       <c r="F592" t="s">
-        <v>3087</v>
+        <v>3089</v>
       </c>
       <c r="G592" t="s">
+        <v>3090</v>
+      </c>
+      <c r="H592" t="s">
+        <v>3091</v>
+      </c>
+      <c r="I592" t="s">
+        <v>20</v>
+      </c>
+      <c r="K592" t="s">
+        <v>3092</v>
+      </c>
+      <c r="L592" t="s">
         <v>3088</v>
-      </c>
-      <c r="H592" t="s">
-        <v>3089</v>
-      </c>
-      <c r="I592" t="s">
-        <v>20</v>
-      </c>
-      <c r="K592" t="s">
-        <v>3090</v>
-      </c>
-      <c r="L592" t="s">
-        <v>3086</v>
       </c>
     </row>
     <row r="593">
@@ -31227,25 +32208,25 @@
         <v>781</v>
       </c>
       <c r="B593" t="s">
-        <v>3091</v>
+        <v>3093</v>
       </c>
       <c r="C593" t="s">
         <v>38</v>
       </c>
       <c r="D593" t="s">
-        <v>3092</v>
+        <v>3094</v>
       </c>
       <c r="E593" t="s">
         <v>16</v>
       </c>
       <c r="F593" t="s">
-        <v>3093</v>
+        <v>3095</v>
       </c>
       <c r="G593" t="s">
-        <v>3094</v>
+        <v>3096</v>
       </c>
       <c r="H593" t="s">
-        <v>3095</v>
+        <v>3097</v>
       </c>
       <c r="I593" t="s">
         <v>20</v>
@@ -31254,33 +32235,33 @@
         <v>2547</v>
       </c>
       <c r="L593" t="s">
-        <v>3092</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>3096</v>
+        <v>3098</v>
       </c>
       <c r="B594" t="s">
-        <v>3097</v>
+        <v>3099</v>
       </c>
       <c r="C594" t="s">
         <v>52</v>
       </c>
       <c r="D594" t="s">
-        <v>3098</v>
+        <v>3100</v>
       </c>
       <c r="E594" t="s">
         <v>26</v>
       </c>
       <c r="F594" t="s">
-        <v>3099</v>
+        <v>3101</v>
       </c>
       <c r="G594" t="s">
-        <v>3100</v>
+        <v>3102</v>
       </c>
       <c r="H594" t="s">
-        <v>3101</v>
+        <v>3103</v>
       </c>
       <c r="I594" t="s">
         <v>43</v>
@@ -31289,7 +32270,7 @@
         <v>30</v>
       </c>
       <c r="L594" t="s">
-        <v>3098</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="595">
@@ -31297,25 +32278,25 @@
         <v>1561</v>
       </c>
       <c r="B595" t="s">
-        <v>3102</v>
+        <v>3104</v>
       </c>
       <c r="C595" t="s">
         <v>137</v>
       </c>
       <c r="D595" t="s">
-        <v>3103</v>
+        <v>3105</v>
       </c>
       <c r="E595" t="s">
         <v>16</v>
       </c>
       <c r="F595" t="s">
-        <v>3104</v>
+        <v>3106</v>
       </c>
       <c r="G595" t="s">
-        <v>3105</v>
+        <v>3107</v>
       </c>
       <c r="H595" t="s">
-        <v>3106</v>
+        <v>3108</v>
       </c>
       <c r="I595" t="s">
         <v>43</v>
@@ -31324,7 +32305,7 @@
         <v>30</v>
       </c>
       <c r="L595" t="s">
-        <v>3103</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="596">
@@ -31332,25 +32313,25 @@
         <v>1487</v>
       </c>
       <c r="B596" t="s">
-        <v>3107</v>
+        <v>3109</v>
       </c>
       <c r="C596" t="s">
         <v>213</v>
       </c>
       <c r="D596" t="s">
-        <v>3108</v>
+        <v>3110</v>
       </c>
       <c r="E596" t="s">
         <v>16</v>
       </c>
       <c r="F596" t="s">
-        <v>3109</v>
+        <v>3111</v>
       </c>
       <c r="G596" t="s">
-        <v>3110</v>
+        <v>3112</v>
       </c>
       <c r="H596" t="s">
-        <v>3111</v>
+        <v>3113</v>
       </c>
       <c r="I596" t="s">
         <v>43</v>
@@ -31359,33 +32340,33 @@
         <v>30</v>
       </c>
       <c r="L596" t="s">
-        <v>3108</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>3112</v>
+        <v>3114</v>
       </c>
       <c r="B597" t="s">
-        <v>3113</v>
+        <v>3115</v>
       </c>
       <c r="C597" t="s">
         <v>38</v>
       </c>
       <c r="D597" t="s">
-        <v>3114</v>
+        <v>3116</v>
       </c>
       <c r="E597" t="s">
         <v>16</v>
       </c>
       <c r="F597" t="s">
-        <v>3115</v>
+        <v>3117</v>
       </c>
       <c r="G597" t="s">
-        <v>3116</v>
+        <v>3118</v>
       </c>
       <c r="H597" t="s">
-        <v>3117</v>
+        <v>3119</v>
       </c>
       <c r="I597" t="s">
         <v>43</v>
@@ -31394,7 +32375,7 @@
         <v>30</v>
       </c>
       <c r="L597" t="s">
-        <v>3114</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="598">
@@ -31402,25 +32383,25 @@
         <v>1465</v>
       </c>
       <c r="B598" t="s">
-        <v>3118</v>
+        <v>3120</v>
       </c>
       <c r="C598" t="s">
         <v>38</v>
       </c>
       <c r="D598" t="s">
-        <v>3119</v>
+        <v>3121</v>
       </c>
       <c r="E598" t="s">
         <v>16</v>
       </c>
       <c r="F598" t="s">
-        <v>3120</v>
+        <v>3122</v>
       </c>
       <c r="G598" t="s">
-        <v>3121</v>
+        <v>3123</v>
       </c>
       <c r="H598" t="s">
-        <v>3122</v>
+        <v>3124</v>
       </c>
       <c r="I598" t="s">
         <v>43</v>
@@ -31429,33 +32410,33 @@
         <v>30</v>
       </c>
       <c r="L598" t="s">
-        <v>3119</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>3123</v>
+        <v>3125</v>
       </c>
       <c r="B599" t="s">
-        <v>3124</v>
+        <v>3126</v>
       </c>
       <c r="C599" t="s">
         <v>38</v>
       </c>
       <c r="D599" t="s">
-        <v>3125</v>
+        <v>3127</v>
       </c>
       <c r="E599" t="s">
         <v>16</v>
       </c>
       <c r="F599" t="s">
-        <v>3126</v>
+        <v>3128</v>
       </c>
       <c r="G599" t="s">
-        <v>3127</v>
+        <v>3129</v>
       </c>
       <c r="H599" t="s">
-        <v>3128</v>
+        <v>3130</v>
       </c>
       <c r="I599" t="s">
         <v>43</v>
@@ -31464,7 +32445,7 @@
         <v>30</v>
       </c>
       <c r="L599" t="s">
-        <v>3125</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="600">
@@ -31472,25 +32453,25 @@
         <v>1667</v>
       </c>
       <c r="B600" t="s">
-        <v>3129</v>
+        <v>3131</v>
       </c>
       <c r="C600" t="s">
         <v>38</v>
       </c>
       <c r="D600" t="s">
-        <v>3130</v>
+        <v>3132</v>
       </c>
       <c r="E600" t="s">
         <v>16</v>
       </c>
       <c r="F600" t="s">
-        <v>3131</v>
+        <v>3133</v>
       </c>
       <c r="G600" t="s">
-        <v>3132</v>
+        <v>3134</v>
       </c>
       <c r="H600" t="s">
-        <v>3133</v>
+        <v>3135</v>
       </c>
       <c r="I600" t="s">
         <v>43</v>
@@ -31499,7 +32480,7 @@
         <v>30</v>
       </c>
       <c r="L600" t="s">
-        <v>3130</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="601">
@@ -31507,60 +32488,60 @@
         <v>1918</v>
       </c>
       <c r="B601" t="s">
-        <v>3134</v>
+        <v>3136</v>
       </c>
       <c r="C601" t="s">
         <v>38</v>
       </c>
       <c r="D601" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="E601" t="s">
         <v>16</v>
       </c>
       <c r="F601" t="s">
-        <v>3136</v>
+        <v>3138</v>
       </c>
       <c r="G601" t="s">
+        <v>3139</v>
+      </c>
+      <c r="H601" t="s">
+        <v>3140</v>
+      </c>
+      <c r="I601" t="s">
+        <v>20</v>
+      </c>
+      <c r="K601" t="s">
+        <v>30</v>
+      </c>
+      <c r="L601" t="s">
         <v>3137</v>
-      </c>
-      <c r="H601" t="s">
-        <v>3138</v>
-      </c>
-      <c r="I601" t="s">
-        <v>20</v>
-      </c>
-      <c r="K601" t="s">
-        <v>30</v>
-      </c>
-      <c r="L601" t="s">
-        <v>3135</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>3139</v>
+        <v>3141</v>
       </c>
       <c r="B602" t="s">
-        <v>3140</v>
+        <v>3142</v>
       </c>
       <c r="C602" t="s">
         <v>38</v>
       </c>
       <c r="D602" t="s">
-        <v>3141</v>
+        <v>3143</v>
       </c>
       <c r="E602" t="s">
         <v>16</v>
       </c>
       <c r="F602" t="s">
-        <v>3142</v>
+        <v>3144</v>
       </c>
       <c r="G602" t="s">
-        <v>3143</v>
+        <v>3145</v>
       </c>
       <c r="H602" t="s">
-        <v>3144</v>
+        <v>3146</v>
       </c>
       <c r="I602" t="s">
         <v>20</v>
@@ -31569,7 +32550,7 @@
         <v>534</v>
       </c>
       <c r="L602" t="s">
-        <v>3141</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="603">
@@ -31577,22 +32558,22 @@
         <v>146</v>
       </c>
       <c r="B603" t="s">
-        <v>3145</v>
+        <v>3147</v>
       </c>
       <c r="C603" t="s">
         <v>38</v>
       </c>
       <c r="D603" t="s">
-        <v>3146</v>
+        <v>3148</v>
       </c>
       <c r="E603" t="s">
         <v>16</v>
       </c>
       <c r="F603" t="s">
-        <v>3147</v>
+        <v>3149</v>
       </c>
       <c r="G603" t="s">
-        <v>3148</v>
+        <v>3150</v>
       </c>
       <c r="H603" t="s">
         <v>1238</v>
@@ -31601,45 +32582,45 @@
         <v>20</v>
       </c>
       <c r="K603" t="s">
-        <v>3149</v>
+        <v>3151</v>
       </c>
       <c r="L603" t="s">
-        <v>3146</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>3150</v>
+        <v>3152</v>
       </c>
       <c r="B604" t="s">
-        <v>3151</v>
+        <v>3153</v>
       </c>
       <c r="C604" t="s">
         <v>38</v>
       </c>
       <c r="D604" t="s">
-        <v>3152</v>
+        <v>3154</v>
       </c>
       <c r="E604" t="s">
         <v>16</v>
       </c>
       <c r="F604" t="s">
-        <v>3153</v>
+        <v>3155</v>
       </c>
       <c r="G604" t="s">
+        <v>3156</v>
+      </c>
+      <c r="H604" t="s">
+        <v>2851</v>
+      </c>
+      <c r="I604" t="s">
+        <v>20</v>
+      </c>
+      <c r="K604" t="s">
+        <v>30</v>
+      </c>
+      <c r="L604" t="s">
         <v>3154</v>
-      </c>
-      <c r="H604" t="s">
-        <v>2850</v>
-      </c>
-      <c r="I604" t="s">
-        <v>20</v>
-      </c>
-      <c r="K604" t="s">
-        <v>30</v>
-      </c>
-      <c r="L604" t="s">
-        <v>3152</v>
       </c>
     </row>
     <row r="605">
@@ -31647,22 +32628,22 @@
         <v>1896</v>
       </c>
       <c r="B605" t="s">
-        <v>3155</v>
+        <v>3157</v>
       </c>
       <c r="C605" t="s">
         <v>38</v>
       </c>
       <c r="D605" t="s">
-        <v>3156</v>
+        <v>3158</v>
       </c>
       <c r="E605" t="s">
         <v>16</v>
       </c>
       <c r="F605" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
       <c r="G605" t="s">
-        <v>3158</v>
+        <v>3160</v>
       </c>
       <c r="H605" t="s">
         <v>2381</v>
@@ -31674,30 +32655,30 @@
         <v>30</v>
       </c>
       <c r="L605" t="s">
-        <v>3156</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="B606" t="s">
-        <v>3160</v>
+        <v>3162</v>
       </c>
       <c r="C606" t="s">
         <v>38</v>
       </c>
       <c r="D606" t="s">
-        <v>3161</v>
+        <v>3163</v>
       </c>
       <c r="E606" t="s">
         <v>16</v>
       </c>
       <c r="F606" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="G606" t="s">
-        <v>3163</v>
+        <v>3165</v>
       </c>
       <c r="H606" t="s">
         <v>2193</v>
@@ -31709,7 +32690,7 @@
         <v>30</v>
       </c>
       <c r="L606" t="s">
-        <v>3161</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="607">
@@ -31717,69 +32698,69 @@
         <v>1770</v>
       </c>
       <c r="B607" t="s">
-        <v>3164</v>
+        <v>3166</v>
       </c>
       <c r="C607" t="s">
         <v>70</v>
       </c>
       <c r="D607" t="s">
-        <v>3165</v>
+        <v>3167</v>
       </c>
       <c r="E607" t="s">
         <v>26</v>
       </c>
       <c r="F607" t="s">
-        <v>3166</v>
+        <v>3168</v>
       </c>
       <c r="G607" t="s">
+        <v>3169</v>
+      </c>
+      <c r="H607" t="s">
+        <v>3170</v>
+      </c>
+      <c r="I607" t="s">
+        <v>20</v>
+      </c>
+      <c r="K607" t="s">
+        <v>30</v>
+      </c>
+      <c r="L607" t="s">
         <v>3167</v>
-      </c>
-      <c r="H607" t="s">
-        <v>3168</v>
-      </c>
-      <c r="I607" t="s">
-        <v>20</v>
-      </c>
-      <c r="K607" t="s">
-        <v>30</v>
-      </c>
-      <c r="L607" t="s">
-        <v>3165</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>3169</v>
+        <v>3171</v>
       </c>
       <c r="B608" t="s">
-        <v>3170</v>
+        <v>3172</v>
       </c>
       <c r="C608" t="s">
         <v>213</v>
       </c>
       <c r="D608" t="s">
-        <v>3171</v>
+        <v>3173</v>
       </c>
       <c r="E608" t="s">
         <v>16</v>
       </c>
       <c r="F608" t="s">
-        <v>3172</v>
+        <v>3174</v>
       </c>
       <c r="G608" t="s">
+        <v>3175</v>
+      </c>
+      <c r="H608" t="s">
+        <v>3176</v>
+      </c>
+      <c r="I608" t="s">
+        <v>20</v>
+      </c>
+      <c r="K608" t="s">
+        <v>30</v>
+      </c>
+      <c r="L608" t="s">
         <v>3173</v>
-      </c>
-      <c r="H608" t="s">
-        <v>3174</v>
-      </c>
-      <c r="I608" t="s">
-        <v>20</v>
-      </c>
-      <c r="K608" t="s">
-        <v>30</v>
-      </c>
-      <c r="L608" t="s">
-        <v>3171</v>
       </c>
     </row>
     <row r="609">
@@ -31787,60 +32768,60 @@
         <v>1624</v>
       </c>
       <c r="B609" t="s">
-        <v>3175</v>
+        <v>3177</v>
       </c>
       <c r="C609" t="s">
         <v>213</v>
       </c>
       <c r="D609" t="s">
-        <v>3176</v>
+        <v>3178</v>
       </c>
       <c r="E609" t="s">
         <v>16</v>
       </c>
       <c r="F609" t="s">
-        <v>3177</v>
+        <v>3179</v>
       </c>
       <c r="G609" t="s">
+        <v>3180</v>
+      </c>
+      <c r="H609" t="s">
+        <v>3181</v>
+      </c>
+      <c r="I609" t="s">
+        <v>20</v>
+      </c>
+      <c r="K609" t="s">
+        <v>30</v>
+      </c>
+      <c r="L609" t="s">
         <v>3178</v>
-      </c>
-      <c r="H609" t="s">
-        <v>3179</v>
-      </c>
-      <c r="I609" t="s">
-        <v>20</v>
-      </c>
-      <c r="K609" t="s">
-        <v>30</v>
-      </c>
-      <c r="L609" t="s">
-        <v>3176</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>3180</v>
+        <v>3182</v>
       </c>
       <c r="B610" t="s">
-        <v>3181</v>
+        <v>3183</v>
       </c>
       <c r="C610" t="s">
         <v>38</v>
       </c>
       <c r="D610" t="s">
-        <v>3182</v>
+        <v>3184</v>
       </c>
       <c r="E610" t="s">
         <v>16</v>
       </c>
       <c r="F610" t="s">
-        <v>3183</v>
+        <v>3185</v>
       </c>
       <c r="G610" t="s">
-        <v>3184</v>
+        <v>3186</v>
       </c>
       <c r="H610" t="s">
-        <v>3185</v>
+        <v>3187</v>
       </c>
       <c r="I610" t="s">
         <v>43</v>
@@ -31849,7 +32830,7 @@
         <v>30</v>
       </c>
       <c r="L610" t="s">
-        <v>3182</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="611">
@@ -31857,22 +32838,22 @@
         <v>2105</v>
       </c>
       <c r="B611" t="s">
-        <v>3186</v>
+        <v>3188</v>
       </c>
       <c r="C611" t="s">
         <v>38</v>
       </c>
       <c r="D611" t="s">
-        <v>3187</v>
+        <v>3189</v>
       </c>
       <c r="E611" t="s">
         <v>16</v>
       </c>
       <c r="F611" t="s">
-        <v>3188</v>
+        <v>3190</v>
       </c>
       <c r="G611" t="s">
-        <v>3189</v>
+        <v>3191</v>
       </c>
       <c r="H611" t="s">
         <v>1690</v>
@@ -31884,42 +32865,42 @@
         <v>30</v>
       </c>
       <c r="L611" t="s">
-        <v>3187</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>3190</v>
+        <v>3192</v>
       </c>
       <c r="B612" t="s">
-        <v>3191</v>
+        <v>3193</v>
       </c>
       <c r="C612" t="s">
         <v>238</v>
       </c>
       <c r="D612" t="s">
-        <v>3192</v>
+        <v>3194</v>
       </c>
       <c r="E612" t="s">
         <v>16</v>
       </c>
       <c r="F612" t="s">
-        <v>3193</v>
+        <v>3195</v>
       </c>
       <c r="G612" t="s">
+        <v>3196</v>
+      </c>
+      <c r="H612" t="s">
+        <v>3197</v>
+      </c>
+      <c r="I612" t="s">
+        <v>20</v>
+      </c>
+      <c r="K612" t="s">
+        <v>3198</v>
+      </c>
+      <c r="L612" t="s">
         <v>3194</v>
-      </c>
-      <c r="H612" t="s">
-        <v>3195</v>
-      </c>
-      <c r="I612" t="s">
-        <v>20</v>
-      </c>
-      <c r="K612" t="s">
-        <v>3196</v>
-      </c>
-      <c r="L612" t="s">
-        <v>3192</v>
       </c>
     </row>
     <row r="613">
@@ -31927,22 +32908,22 @@
         <v>2101</v>
       </c>
       <c r="B613" t="s">
-        <v>3197</v>
+        <v>3199</v>
       </c>
       <c r="C613" t="s">
         <v>52</v>
       </c>
       <c r="D613" t="s">
-        <v>3198</v>
+        <v>3200</v>
       </c>
       <c r="E613" t="s">
         <v>26</v>
       </c>
       <c r="F613" t="s">
-        <v>3199</v>
+        <v>3201</v>
       </c>
       <c r="G613" t="s">
-        <v>3200</v>
+        <v>3202</v>
       </c>
       <c r="H613" t="s">
         <v>814</v>
@@ -31954,7 +32935,7 @@
         <v>57</v>
       </c>
       <c r="L613" t="s">
-        <v>3198</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="614">
@@ -31962,13 +32943,13 @@
         <v>1476</v>
       </c>
       <c r="B614" t="s">
-        <v>3201</v>
+        <v>3203</v>
       </c>
       <c r="C614" t="s">
         <v>52</v>
       </c>
       <c r="D614" t="s">
-        <v>3202</v>
+        <v>3204</v>
       </c>
       <c r="E614" t="s">
         <v>26</v>
@@ -31977,7 +32958,7 @@
         <v>2435</v>
       </c>
       <c r="G614" t="s">
-        <v>3203</v>
+        <v>3205</v>
       </c>
       <c r="H614" t="s">
         <v>803</v>
@@ -31989,33 +32970,33 @@
         <v>57</v>
       </c>
       <c r="L614" t="s">
-        <v>3202</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="B615" t="s">
-        <v>3205</v>
+        <v>3207</v>
       </c>
       <c r="C615" t="s">
         <v>38</v>
       </c>
       <c r="D615" t="s">
-        <v>3206</v>
+        <v>3208</v>
       </c>
       <c r="E615" t="s">
         <v>16</v>
       </c>
       <c r="F615" t="s">
-        <v>3207</v>
+        <v>3209</v>
       </c>
       <c r="G615" t="s">
-        <v>3208</v>
+        <v>3210</v>
       </c>
       <c r="H615" t="s">
-        <v>3209</v>
+        <v>3211</v>
       </c>
       <c r="I615" t="s">
         <v>20</v>
@@ -32024,7 +33005,7 @@
         <v>2547</v>
       </c>
       <c r="L615" t="s">
-        <v>3206</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="616">
@@ -32032,60 +33013,60 @@
         <v>1481</v>
       </c>
       <c r="B616" t="s">
-        <v>3210</v>
+        <v>3212</v>
       </c>
       <c r="C616" t="s">
         <v>38</v>
       </c>
       <c r="D616" t="s">
-        <v>3211</v>
+        <v>3213</v>
       </c>
       <c r="E616" t="s">
         <v>16</v>
       </c>
       <c r="F616" t="s">
-        <v>3212</v>
+        <v>3214</v>
       </c>
       <c r="G616" t="s">
+        <v>3215</v>
+      </c>
+      <c r="H616" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I616" t="s">
+        <v>20</v>
+      </c>
+      <c r="K616" t="s">
+        <v>30</v>
+      </c>
+      <c r="L616" t="s">
         <v>3213</v>
-      </c>
-      <c r="H616" t="s">
-        <v>3214</v>
-      </c>
-      <c r="I616" t="s">
-        <v>20</v>
-      </c>
-      <c r="K616" t="s">
-        <v>30</v>
-      </c>
-      <c r="L616" t="s">
-        <v>3211</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>3215</v>
+        <v>3217</v>
       </c>
       <c r="B617" t="s">
-        <v>3216</v>
+        <v>3218</v>
       </c>
       <c r="C617" t="s">
         <v>70</v>
       </c>
       <c r="D617" t="s">
-        <v>3217</v>
+        <v>3219</v>
       </c>
       <c r="E617" t="s">
         <v>26</v>
       </c>
       <c r="F617" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
       <c r="G617" t="s">
-        <v>3219</v>
+        <v>3221</v>
       </c>
       <c r="H617" t="s">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="I617" t="s">
         <v>43</v>
@@ -32094,7 +33075,7 @@
         <v>30</v>
       </c>
       <c r="L617" t="s">
-        <v>3217</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="618">
@@ -32102,25 +33083,25 @@
         <v>1860</v>
       </c>
       <c r="B618" t="s">
-        <v>3221</v>
+        <v>3223</v>
       </c>
       <c r="C618" t="s">
         <v>38</v>
       </c>
       <c r="D618" t="s">
-        <v>3222</v>
+        <v>3224</v>
       </c>
       <c r="E618" t="s">
         <v>16</v>
       </c>
       <c r="F618" t="s">
-        <v>3223</v>
+        <v>3225</v>
       </c>
       <c r="G618" t="s">
-        <v>3224</v>
+        <v>3226</v>
       </c>
       <c r="H618" t="s">
-        <v>3225</v>
+        <v>3227</v>
       </c>
       <c r="I618" t="s">
         <v>43</v>
@@ -32129,33 +33110,33 @@
         <v>30</v>
       </c>
       <c r="L618" t="s">
-        <v>3222</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>3226</v>
+        <v>3228</v>
       </c>
       <c r="B619" t="s">
-        <v>3227</v>
+        <v>3229</v>
       </c>
       <c r="C619" t="s">
         <v>38</v>
       </c>
       <c r="D619" t="s">
-        <v>3228</v>
+        <v>3230</v>
       </c>
       <c r="E619" t="s">
         <v>16</v>
       </c>
       <c r="F619" t="s">
-        <v>3229</v>
+        <v>3231</v>
       </c>
       <c r="G619" t="s">
-        <v>3230</v>
+        <v>3232</v>
       </c>
       <c r="H619" t="s">
-        <v>3231</v>
+        <v>3233</v>
       </c>
       <c r="I619" t="s">
         <v>20</v>
@@ -32164,7 +33145,7 @@
         <v>2358</v>
       </c>
       <c r="L619" t="s">
-        <v>3228</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="620">
@@ -32172,25 +33153,25 @@
         <v>1881</v>
       </c>
       <c r="B620" t="s">
-        <v>3232</v>
+        <v>3234</v>
       </c>
       <c r="C620" t="s">
         <v>38</v>
       </c>
       <c r="D620" t="s">
-        <v>3233</v>
+        <v>3235</v>
       </c>
       <c r="E620" t="s">
         <v>16</v>
       </c>
       <c r="F620" t="s">
-        <v>3234</v>
+        <v>3236</v>
       </c>
       <c r="G620" t="s">
-        <v>3235</v>
+        <v>3237</v>
       </c>
       <c r="H620" t="s">
-        <v>3236</v>
+        <v>3238</v>
       </c>
       <c r="I620" t="s">
         <v>20</v>
@@ -32199,68 +33180,68 @@
         <v>2358</v>
       </c>
       <c r="L620" t="s">
-        <v>3233</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="B621" t="s">
-        <v>3238</v>
+        <v>3240</v>
       </c>
       <c r="C621" t="s">
         <v>38</v>
       </c>
       <c r="D621" t="s">
-        <v>3239</v>
+        <v>3241</v>
       </c>
       <c r="E621" t="s">
         <v>16</v>
       </c>
       <c r="F621" t="s">
-        <v>3240</v>
+        <v>3242</v>
       </c>
       <c r="G621" t="s">
+        <v>3243</v>
+      </c>
+      <c r="H621" t="s">
+        <v>3244</v>
+      </c>
+      <c r="I621" t="s">
+        <v>20</v>
+      </c>
+      <c r="K621" t="s">
+        <v>30</v>
+      </c>
+      <c r="L621" t="s">
         <v>3241</v>
-      </c>
-      <c r="H621" t="s">
-        <v>3242</v>
-      </c>
-      <c r="I621" t="s">
-        <v>20</v>
-      </c>
-      <c r="K621" t="s">
-        <v>30</v>
-      </c>
-      <c r="L621" t="s">
-        <v>3239</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>3243</v>
+        <v>3245</v>
       </c>
       <c r="B622" t="s">
-        <v>3244</v>
+        <v>3246</v>
       </c>
       <c r="C622" t="s">
         <v>38</v>
       </c>
       <c r="D622" t="s">
-        <v>3245</v>
+        <v>3247</v>
       </c>
       <c r="E622" t="s">
         <v>16</v>
       </c>
       <c r="F622" t="s">
-        <v>3246</v>
+        <v>3248</v>
       </c>
       <c r="G622" t="s">
-        <v>3247</v>
+        <v>3249</v>
       </c>
       <c r="H622" t="s">
-        <v>3248</v>
+        <v>3250</v>
       </c>
       <c r="I622" t="s">
         <v>20</v>
@@ -32269,7 +33250,7 @@
         <v>2358</v>
       </c>
       <c r="L622" t="s">
-        <v>3245</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="623">
@@ -32277,13 +33258,13 @@
         <v>2030</v>
       </c>
       <c r="B623" t="s">
-        <v>3249</v>
+        <v>3251</v>
       </c>
       <c r="C623" t="s">
         <v>70</v>
       </c>
       <c r="D623" t="s">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="E623" t="s">
         <v>26</v>
@@ -32292,19 +33273,19 @@
         <v>293</v>
       </c>
       <c r="G623" t="s">
-        <v>3251</v>
+        <v>3253</v>
       </c>
       <c r="H623" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I623" t="s">
+        <v>20</v>
+      </c>
+      <c r="K623" t="s">
+        <v>30</v>
+      </c>
+      <c r="L623" t="s">
         <v>3252</v>
-      </c>
-      <c r="I623" t="s">
-        <v>20</v>
-      </c>
-      <c r="K623" t="s">
-        <v>30</v>
-      </c>
-      <c r="L623" t="s">
-        <v>3250</v>
       </c>
     </row>
     <row r="624">
@@ -32312,130 +33293,130 @@
         <v>1855</v>
       </c>
       <c r="B624" t="s">
-        <v>3253</v>
+        <v>3255</v>
       </c>
       <c r="C624" t="s">
         <v>70</v>
       </c>
       <c r="D624" t="s">
-        <v>3254</v>
+        <v>3256</v>
       </c>
       <c r="E624" t="s">
         <v>26</v>
       </c>
       <c r="F624" t="s">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="G624" t="s">
+        <v>3258</v>
+      </c>
+      <c r="H624" t="s">
+        <v>3259</v>
+      </c>
+      <c r="I624" t="s">
+        <v>20</v>
+      </c>
+      <c r="K624" t="s">
+        <v>30</v>
+      </c>
+      <c r="L624" t="s">
         <v>3256</v>
-      </c>
-      <c r="H624" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I624" t="s">
-        <v>20</v>
-      </c>
-      <c r="K624" t="s">
-        <v>30</v>
-      </c>
-      <c r="L624" t="s">
-        <v>3254</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>3258</v>
+        <v>3260</v>
       </c>
       <c r="B625" t="s">
-        <v>3259</v>
+        <v>3261</v>
       </c>
       <c r="C625" t="s">
         <v>70</v>
       </c>
       <c r="D625" t="s">
-        <v>3260</v>
+        <v>3262</v>
       </c>
       <c r="E625" t="s">
         <v>26</v>
       </c>
       <c r="F625" t="s">
-        <v>3261</v>
+        <v>3263</v>
       </c>
       <c r="G625" t="s">
+        <v>3264</v>
+      </c>
+      <c r="H625" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I625" t="s">
+        <v>20</v>
+      </c>
+      <c r="K625" t="s">
+        <v>30</v>
+      </c>
+      <c r="L625" t="s">
         <v>3262</v>
-      </c>
-      <c r="H625" t="s">
-        <v>3263</v>
-      </c>
-      <c r="I625" t="s">
-        <v>20</v>
-      </c>
-      <c r="K625" t="s">
-        <v>30</v>
-      </c>
-      <c r="L625" t="s">
-        <v>3260</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="B626" t="s">
-        <v>3264</v>
+        <v>3266</v>
       </c>
       <c r="C626" t="s">
         <v>70</v>
       </c>
       <c r="D626" t="s">
-        <v>3265</v>
+        <v>3267</v>
       </c>
       <c r="E626" t="s">
         <v>26</v>
       </c>
       <c r="F626" t="s">
-        <v>3266</v>
+        <v>3268</v>
       </c>
       <c r="G626" t="s">
+        <v>3269</v>
+      </c>
+      <c r="H626" t="s">
+        <v>3069</v>
+      </c>
+      <c r="I626" t="s">
+        <v>20</v>
+      </c>
+      <c r="K626" t="s">
+        <v>30</v>
+      </c>
+      <c r="L626" t="s">
         <v>3267</v>
-      </c>
-      <c r="H626" t="s">
-        <v>3067</v>
-      </c>
-      <c r="I626" t="s">
-        <v>20</v>
-      </c>
-      <c r="K626" t="s">
-        <v>30</v>
-      </c>
-      <c r="L626" t="s">
-        <v>3265</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>3268</v>
+        <v>3270</v>
       </c>
       <c r="B627" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="C627" t="s">
         <v>137</v>
       </c>
       <c r="D627" t="s">
-        <v>3270</v>
+        <v>3272</v>
       </c>
       <c r="E627" t="s">
         <v>16</v>
       </c>
       <c r="F627" t="s">
-        <v>3271</v>
+        <v>3273</v>
       </c>
       <c r="G627" t="s">
-        <v>3272</v>
+        <v>3274</v>
       </c>
       <c r="H627" t="s">
-        <v>3273</v>
+        <v>3275</v>
       </c>
       <c r="I627" t="s">
         <v>43</v>
@@ -32444,7 +33425,7 @@
         <v>30</v>
       </c>
       <c r="L627" t="s">
-        <v>3270</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="628">
@@ -32452,22 +33433,22 @@
         <v>2017</v>
       </c>
       <c r="B628" t="s">
-        <v>3274</v>
+        <v>3276</v>
       </c>
       <c r="C628" t="s">
         <v>52</v>
       </c>
       <c r="D628" t="s">
-        <v>3275</v>
+        <v>3277</v>
       </c>
       <c r="E628" t="s">
         <v>26</v>
       </c>
       <c r="F628" t="s">
-        <v>3276</v>
+        <v>3278</v>
       </c>
       <c r="G628" t="s">
-        <v>3277</v>
+        <v>3279</v>
       </c>
       <c r="H628" t="s">
         <v>857</v>
@@ -32479,21 +33460,21 @@
         <v>30</v>
       </c>
       <c r="L628" t="s">
-        <v>3275</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>3278</v>
+        <v>3280</v>
       </c>
       <c r="B629" t="s">
-        <v>3279</v>
+        <v>3281</v>
       </c>
       <c r="C629" t="s">
         <v>175</v>
       </c>
       <c r="D629" t="s">
-        <v>3280</v>
+        <v>3282</v>
       </c>
       <c r="E629" t="s">
         <v>26</v>
@@ -32502,7 +33483,7 @@
         <v>254</v>
       </c>
       <c r="G629" t="s">
-        <v>3281</v>
+        <v>3283</v>
       </c>
       <c r="H629" t="s">
         <v>825</v>
@@ -32514,30 +33495,30 @@
         <v>30</v>
       </c>
       <c r="L629" t="s">
-        <v>3280</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>3282</v>
+        <v>3284</v>
       </c>
       <c r="B630" t="s">
-        <v>3283</v>
+        <v>3285</v>
       </c>
       <c r="C630" t="s">
         <v>38</v>
       </c>
       <c r="D630" t="s">
-        <v>3284</v>
+        <v>3286</v>
       </c>
       <c r="E630" t="s">
         <v>16</v>
       </c>
       <c r="F630" t="s">
-        <v>3285</v>
+        <v>3287</v>
       </c>
       <c r="G630" t="s">
-        <v>3286</v>
+        <v>3288</v>
       </c>
       <c r="H630" t="s">
         <v>1175</v>
@@ -32546,10 +33527,10 @@
         <v>20</v>
       </c>
       <c r="K630" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="L630" t="s">
-        <v>3284</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="631">
@@ -32557,83 +33538,83 @@
         <v>1865</v>
       </c>
       <c r="B631" t="s">
-        <v>3287</v>
+        <v>3289</v>
       </c>
       <c r="C631" t="s">
         <v>70</v>
       </c>
       <c r="D631" t="s">
-        <v>3288</v>
+        <v>3290</v>
       </c>
       <c r="E631" t="s">
         <v>26</v>
       </c>
       <c r="F631" t="s">
-        <v>3289</v>
+        <v>3291</v>
       </c>
       <c r="G631" t="s">
+        <v>3292</v>
+      </c>
+      <c r="H631" t="s">
+        <v>3293</v>
+      </c>
+      <c r="I631" t="s">
+        <v>20</v>
+      </c>
+      <c r="K631" t="s">
+        <v>30</v>
+      </c>
+      <c r="L631" t="s">
         <v>3290</v>
-      </c>
-      <c r="H631" t="s">
-        <v>3291</v>
-      </c>
-      <c r="I631" t="s">
-        <v>20</v>
-      </c>
-      <c r="K631" t="s">
-        <v>30</v>
-      </c>
-      <c r="L631" t="s">
-        <v>3288</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>3292</v>
+        <v>3294</v>
       </c>
       <c r="B632" t="s">
-        <v>3293</v>
+        <v>3295</v>
       </c>
       <c r="C632" t="s">
         <v>70</v>
       </c>
       <c r="D632" t="s">
-        <v>3294</v>
+        <v>3296</v>
       </c>
       <c r="E632" t="s">
         <v>26</v>
       </c>
       <c r="F632" t="s">
-        <v>3289</v>
+        <v>3291</v>
       </c>
       <c r="G632" t="s">
-        <v>3295</v>
+        <v>3297</v>
       </c>
       <c r="H632" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I632" t="s">
+        <v>20</v>
+      </c>
+      <c r="K632" t="s">
+        <v>30</v>
+      </c>
+      <c r="L632" t="s">
         <v>3296</v>
-      </c>
-      <c r="I632" t="s">
-        <v>20</v>
-      </c>
-      <c r="K632" t="s">
-        <v>30</v>
-      </c>
-      <c r="L632" t="s">
-        <v>3294</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>3297</v>
+        <v>3299</v>
       </c>
       <c r="B633" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="C633" t="s">
         <v>175</v>
       </c>
       <c r="D633" t="s">
-        <v>3299</v>
+        <v>3301</v>
       </c>
       <c r="E633" t="s">
         <v>26</v>
@@ -32642,10 +33623,10 @@
         <v>2435</v>
       </c>
       <c r="G633" t="s">
-        <v>3300</v>
+        <v>3302</v>
       </c>
       <c r="H633" t="s">
-        <v>3301</v>
+        <v>3303</v>
       </c>
       <c r="I633" t="s">
         <v>43</v>
@@ -32654,7 +33635,7 @@
         <v>30</v>
       </c>
       <c r="L633" t="s">
-        <v>3299</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="634">
@@ -32662,25 +33643,25 @@
         <v>1849</v>
       </c>
       <c r="B634" t="s">
-        <v>3302</v>
+        <v>3304</v>
       </c>
       <c r="C634" t="s">
         <v>170</v>
       </c>
       <c r="D634" t="s">
-        <v>3303</v>
+        <v>3305</v>
       </c>
       <c r="E634" t="s">
         <v>26</v>
       </c>
       <c r="F634" t="s">
-        <v>3199</v>
+        <v>3201</v>
       </c>
       <c r="G634" t="s">
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="H634" t="s">
-        <v>3305</v>
+        <v>3307</v>
       </c>
       <c r="I634" t="s">
         <v>43</v>
@@ -32689,21 +33670,21 @@
         <v>30</v>
       </c>
       <c r="L634" t="s">
-        <v>3303</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>3306</v>
+        <v>3308</v>
       </c>
       <c r="B635" t="s">
-        <v>3307</v>
+        <v>3309</v>
       </c>
       <c r="C635" t="s">
         <v>52</v>
       </c>
       <c r="D635" t="s">
-        <v>3308</v>
+        <v>3310</v>
       </c>
       <c r="E635" t="s">
         <v>26</v>
@@ -32712,10 +33693,10 @@
         <v>849</v>
       </c>
       <c r="G635" t="s">
-        <v>3309</v>
+        <v>3311</v>
       </c>
       <c r="H635" t="s">
-        <v>3310</v>
+        <v>3312</v>
       </c>
       <c r="I635" t="s">
         <v>43</v>
@@ -32724,7 +33705,7 @@
         <v>30</v>
       </c>
       <c r="L635" t="s">
-        <v>3308</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="636">
@@ -32732,13 +33713,13 @@
         <v>1844</v>
       </c>
       <c r="B636" t="s">
-        <v>3311</v>
+        <v>3313</v>
       </c>
       <c r="C636" t="s">
         <v>170</v>
       </c>
       <c r="D636" t="s">
-        <v>3312</v>
+        <v>3314</v>
       </c>
       <c r="E636" t="s">
         <v>26</v>
@@ -32747,7 +33728,7 @@
         <v>2580</v>
       </c>
       <c r="G636" t="s">
-        <v>3313</v>
+        <v>3315</v>
       </c>
       <c r="H636" t="s">
         <v>835</v>
@@ -32759,33 +33740,33 @@
         <v>30</v>
       </c>
       <c r="L636" t="s">
-        <v>3312</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>3314</v>
+        <v>3316</v>
       </c>
       <c r="B637" t="s">
-        <v>3315</v>
+        <v>3317</v>
       </c>
       <c r="C637" t="s">
         <v>38</v>
       </c>
       <c r="D637" t="s">
-        <v>3316</v>
+        <v>3318</v>
       </c>
       <c r="E637" t="s">
         <v>16</v>
       </c>
       <c r="F637" t="s">
-        <v>3317</v>
+        <v>3319</v>
       </c>
       <c r="G637" t="s">
-        <v>3318</v>
+        <v>3320</v>
       </c>
       <c r="H637" t="s">
-        <v>3319</v>
+        <v>3321</v>
       </c>
       <c r="I637" t="s">
         <v>43</v>
@@ -32794,33 +33775,33 @@
         <v>30</v>
       </c>
       <c r="L637" t="s">
-        <v>3316</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>3320</v>
+        <v>3322</v>
       </c>
       <c r="B638" t="s">
-        <v>3321</v>
+        <v>3323</v>
       </c>
       <c r="C638" t="s">
         <v>38</v>
       </c>
       <c r="D638" t="s">
-        <v>3322</v>
+        <v>3324</v>
       </c>
       <c r="E638" t="s">
         <v>16</v>
       </c>
       <c r="F638" t="s">
-        <v>3323</v>
+        <v>3325</v>
       </c>
       <c r="G638" t="s">
-        <v>3324</v>
+        <v>3326</v>
       </c>
       <c r="H638" t="s">
-        <v>3325</v>
+        <v>3327</v>
       </c>
       <c r="I638" t="s">
         <v>43</v>
@@ -32829,33 +33810,33 @@
         <v>30</v>
       </c>
       <c r="L638" t="s">
-        <v>3322</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>3326</v>
+        <v>3328</v>
       </c>
       <c r="B639" t="s">
-        <v>3327</v>
+        <v>3329</v>
       </c>
       <c r="C639" t="s">
         <v>38</v>
       </c>
       <c r="D639" t="s">
-        <v>3328</v>
+        <v>3330</v>
       </c>
       <c r="E639" t="s">
         <v>16</v>
       </c>
       <c r="F639" t="s">
-        <v>3329</v>
+        <v>3331</v>
       </c>
       <c r="G639" t="s">
-        <v>3330</v>
+        <v>3332</v>
       </c>
       <c r="H639" t="s">
-        <v>3331</v>
+        <v>3333</v>
       </c>
       <c r="I639" t="s">
         <v>43</v>
@@ -32864,7 +33845,7 @@
         <v>30</v>
       </c>
       <c r="L639" t="s">
-        <v>3328</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="640">
@@ -32872,25 +33853,25 @@
         <v>2736</v>
       </c>
       <c r="B640" t="s">
-        <v>3332</v>
+        <v>3334</v>
       </c>
       <c r="C640" t="s">
         <v>38</v>
       </c>
       <c r="D640" t="s">
-        <v>3333</v>
+        <v>3335</v>
       </c>
       <c r="E640" t="s">
         <v>16</v>
       </c>
       <c r="F640" t="s">
-        <v>3334</v>
+        <v>3336</v>
       </c>
       <c r="G640" t="s">
-        <v>3335</v>
+        <v>3337</v>
       </c>
       <c r="H640" t="s">
-        <v>3336</v>
+        <v>3338</v>
       </c>
       <c r="I640" t="s">
         <v>43</v>
@@ -32899,33 +33880,33 @@
         <v>30</v>
       </c>
       <c r="L640" t="s">
-        <v>3333</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>3337</v>
+        <v>3339</v>
       </c>
       <c r="B641" t="s">
-        <v>3338</v>
+        <v>3340</v>
       </c>
       <c r="C641" t="s">
         <v>38</v>
       </c>
       <c r="D641" t="s">
-        <v>3339</v>
+        <v>3341</v>
       </c>
       <c r="E641" t="s">
         <v>16</v>
       </c>
       <c r="F641" t="s">
-        <v>3340</v>
+        <v>3342</v>
       </c>
       <c r="G641" t="s">
-        <v>3341</v>
+        <v>3343</v>
       </c>
       <c r="H641" t="s">
-        <v>3342</v>
+        <v>3344</v>
       </c>
       <c r="I641" t="s">
         <v>43</v>
@@ -32934,33 +33915,33 @@
         <v>30</v>
       </c>
       <c r="L641" t="s">
-        <v>3339</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>3343</v>
+        <v>3345</v>
       </c>
       <c r="B642" t="s">
-        <v>3344</v>
+        <v>3346</v>
       </c>
       <c r="C642" t="s">
         <v>38</v>
       </c>
       <c r="D642" t="s">
-        <v>3345</v>
+        <v>3347</v>
       </c>
       <c r="E642" t="s">
         <v>16</v>
       </c>
       <c r="F642" t="s">
-        <v>3346</v>
+        <v>3348</v>
       </c>
       <c r="G642" t="s">
-        <v>3347</v>
+        <v>3349</v>
       </c>
       <c r="H642" t="s">
-        <v>3348</v>
+        <v>3350</v>
       </c>
       <c r="I642" t="s">
         <v>20</v>
@@ -32969,18 +33950,21 @@
         <v>63</v>
       </c>
       <c r="L642" t="s">
-        <v>3345</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="s">
         <v>776</v>
       </c>
+      <c r="B643" t="s">
+        <v>3351</v>
+      </c>
       <c r="C643" t="s">
         <v>38</v>
       </c>
       <c r="D643" t="s">
-        <v>3349</v>
+        <v>3352</v>
       </c>
       <c r="E643" t="s">
         <v>16</v>
@@ -32989,42 +33973,45 @@
         <v>1580</v>
       </c>
       <c r="G643" t="s">
-        <v>3350</v>
+        <v>3353</v>
       </c>
       <c r="H643" t="s">
-        <v>3351</v>
+        <v>3354</v>
       </c>
       <c r="I643" t="s">
         <v>20</v>
       </c>
       <c r="K643" t="s">
-        <v>30</v>
+        <v>3355</v>
       </c>
       <c r="L643" t="s">
-        <v>3349</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>2884</v>
+        <v>2885</v>
+      </c>
+      <c r="B644" t="s">
+        <v>3356</v>
       </c>
       <c r="C644" t="s">
         <v>137</v>
       </c>
       <c r="D644" t="s">
-        <v>3352</v>
+        <v>3357</v>
       </c>
       <c r="E644" t="s">
         <v>16</v>
       </c>
       <c r="F644" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="G644" t="s">
-        <v>3354</v>
+        <v>3359</v>
       </c>
       <c r="H644" t="s">
-        <v>3355</v>
+        <v>3360</v>
       </c>
       <c r="I644" t="s">
         <v>43</v>
@@ -33033,30 +34020,33 @@
         <v>30</v>
       </c>
       <c r="L644" t="s">
-        <v>3352</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>3356</v>
+        <v>3361</v>
+      </c>
+      <c r="B645" t="s">
+        <v>3362</v>
       </c>
       <c r="C645" t="s">
         <v>137</v>
       </c>
       <c r="D645" t="s">
-        <v>3357</v>
+        <v>3363</v>
       </c>
       <c r="E645" t="s">
         <v>16</v>
       </c>
       <c r="F645" t="s">
-        <v>2995</v>
+        <v>2997</v>
       </c>
       <c r="G645" t="s">
-        <v>3358</v>
+        <v>3364</v>
       </c>
       <c r="H645" t="s">
-        <v>3359</v>
+        <v>3365</v>
       </c>
       <c r="I645" t="s">
         <v>20</v>
@@ -33065,30 +34055,33 @@
         <v>30</v>
       </c>
       <c r="L645" t="s">
-        <v>3357</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="s">
         <v>2714</v>
       </c>
+      <c r="B646" t="s">
+        <v>3366</v>
+      </c>
       <c r="C646" t="s">
         <v>137</v>
       </c>
       <c r="D646" t="s">
-        <v>3360</v>
+        <v>3367</v>
       </c>
       <c r="E646" t="s">
         <v>16</v>
       </c>
       <c r="F646" t="s">
-        <v>3361</v>
+        <v>3368</v>
       </c>
       <c r="G646" t="s">
-        <v>3362</v>
+        <v>3369</v>
       </c>
       <c r="H646" t="s">
-        <v>3363</v>
+        <v>3370</v>
       </c>
       <c r="I646" t="s">
         <v>20</v>
@@ -33097,33 +34090,33 @@
         <v>30</v>
       </c>
       <c r="L646" t="s">
-        <v>3360</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>3364</v>
+        <v>3371</v>
       </c>
       <c r="B647" t="s">
-        <v>3365</v>
+        <v>3372</v>
       </c>
       <c r="C647" t="s">
         <v>38</v>
       </c>
       <c r="D647" t="s">
-        <v>3366</v>
+        <v>3373</v>
       </c>
       <c r="E647" t="s">
         <v>16</v>
       </c>
       <c r="F647" t="s">
-        <v>3367</v>
+        <v>3374</v>
       </c>
       <c r="G647" t="s">
-        <v>3368</v>
+        <v>3375</v>
       </c>
       <c r="H647" t="s">
-        <v>3369</v>
+        <v>3376</v>
       </c>
       <c r="I647" t="s">
         <v>20</v>
@@ -33132,7 +34125,7 @@
         <v>63</v>
       </c>
       <c r="L647" t="s">
-        <v>3366</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="648">
@@ -33140,25 +34133,25 @@
         <v>2719</v>
       </c>
       <c r="B648" t="s">
-        <v>3370</v>
+        <v>3377</v>
       </c>
       <c r="C648" t="s">
         <v>70</v>
       </c>
       <c r="D648" t="s">
-        <v>3371</v>
+        <v>3378</v>
       </c>
       <c r="E648" t="s">
         <v>26</v>
       </c>
       <c r="F648" t="s">
-        <v>3372</v>
+        <v>3379</v>
       </c>
       <c r="G648" t="s">
-        <v>3373</v>
+        <v>3380</v>
       </c>
       <c r="H648" t="s">
-        <v>3320</v>
+        <v>3322</v>
       </c>
       <c r="I648" t="s">
         <v>20</v>
@@ -33167,7 +34160,7 @@
         <v>30</v>
       </c>
       <c r="L648" t="s">
-        <v>3371</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="649">
@@ -33175,13 +34168,13 @@
         <v>1891</v>
       </c>
       <c r="B649" t="s">
-        <v>3374</v>
+        <v>3381</v>
       </c>
       <c r="C649" t="s">
         <v>70</v>
       </c>
       <c r="D649" t="s">
-        <v>3375</v>
+        <v>3382</v>
       </c>
       <c r="E649" t="s">
         <v>26</v>
@@ -33190,10 +34183,10 @@
         <v>542</v>
       </c>
       <c r="G649" t="s">
-        <v>3376</v>
+        <v>3383</v>
       </c>
       <c r="H649" t="s">
-        <v>3377</v>
+        <v>3384</v>
       </c>
       <c r="I649" t="s">
         <v>20</v>
@@ -33202,7 +34195,7 @@
         <v>30</v>
       </c>
       <c r="L649" t="s">
-        <v>3375</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="650">
@@ -33210,13 +34203,13 @@
         <v>1673</v>
       </c>
       <c r="B650" t="s">
-        <v>3378</v>
+        <v>3385</v>
       </c>
       <c r="C650" t="s">
         <v>70</v>
       </c>
       <c r="D650" t="s">
-        <v>3379</v>
+        <v>3386</v>
       </c>
       <c r="E650" t="s">
         <v>26</v>
@@ -33225,7 +34218,7 @@
         <v>386</v>
       </c>
       <c r="G650" t="s">
-        <v>3380</v>
+        <v>3387</v>
       </c>
       <c r="H650" t="s">
         <v>958</v>
@@ -33237,30 +34230,30 @@
         <v>30</v>
       </c>
       <c r="L650" t="s">
-        <v>3379</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>3381</v>
+        <v>3388</v>
       </c>
       <c r="B651" t="s">
-        <v>3382</v>
+        <v>3389</v>
       </c>
       <c r="C651" t="s">
         <v>70</v>
       </c>
       <c r="D651" t="s">
-        <v>3383</v>
+        <v>3390</v>
       </c>
       <c r="E651" t="s">
         <v>26</v>
       </c>
       <c r="F651" t="s">
-        <v>3384</v>
+        <v>3391</v>
       </c>
       <c r="G651" t="s">
-        <v>3385</v>
+        <v>3392</v>
       </c>
       <c r="H651" t="s">
         <v>947</v>
@@ -33272,7 +34265,7 @@
         <v>30</v>
       </c>
       <c r="L651" t="s">
-        <v>3383</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="652">
@@ -33280,13 +34273,13 @@
         <v>2702</v>
       </c>
       <c r="B652" t="s">
-        <v>3386</v>
+        <v>3393</v>
       </c>
       <c r="C652" t="s">
         <v>70</v>
       </c>
       <c r="D652" t="s">
-        <v>3387</v>
+        <v>3394</v>
       </c>
       <c r="E652" t="s">
         <v>26</v>
@@ -33295,7 +34288,7 @@
         <v>1702</v>
       </c>
       <c r="G652" t="s">
-        <v>3388</v>
+        <v>3395</v>
       </c>
       <c r="H652" t="s">
         <v>783</v>
@@ -33307,7 +34300,7 @@
         <v>30</v>
       </c>
       <c r="L652" t="s">
-        <v>3387</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="653">
@@ -33315,13 +34308,13 @@
         <v>2653</v>
       </c>
       <c r="B653" t="s">
-        <v>3389</v>
+        <v>3396</v>
       </c>
       <c r="C653" t="s">
         <v>70</v>
       </c>
       <c r="D653" t="s">
-        <v>3390</v>
+        <v>3397</v>
       </c>
       <c r="E653" t="s">
         <v>26</v>
@@ -33330,7 +34323,7 @@
         <v>506</v>
       </c>
       <c r="G653" t="s">
-        <v>3391</v>
+        <v>3398</v>
       </c>
       <c r="H653" t="s">
         <v>846</v>
@@ -33342,7 +34335,7 @@
         <v>30</v>
       </c>
       <c r="L653" t="s">
-        <v>3390</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="654">
@@ -33350,13 +34343,13 @@
         <v>1689</v>
       </c>
       <c r="B654" t="s">
-        <v>3392</v>
+        <v>3399</v>
       </c>
       <c r="C654" t="s">
         <v>70</v>
       </c>
       <c r="D654" t="s">
-        <v>3393</v>
+        <v>3400</v>
       </c>
       <c r="E654" t="s">
         <v>26</v>
@@ -33365,7 +34358,7 @@
         <v>264</v>
       </c>
       <c r="G654" t="s">
-        <v>3394</v>
+        <v>3401</v>
       </c>
       <c r="H654" t="s">
         <v>587</v>
@@ -33377,30 +34370,30 @@
         <v>30</v>
       </c>
       <c r="L654" t="s">
-        <v>3393</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>3395</v>
+        <v>3402</v>
       </c>
       <c r="B655" t="s">
-        <v>3396</v>
+        <v>3403</v>
       </c>
       <c r="C655" t="s">
         <v>70</v>
       </c>
       <c r="D655" t="s">
-        <v>3397</v>
+        <v>3404</v>
       </c>
       <c r="E655" t="s">
         <v>26</v>
       </c>
       <c r="F655" t="s">
-        <v>3398</v>
+        <v>3405</v>
       </c>
       <c r="G655" t="s">
-        <v>3399</v>
+        <v>3406</v>
       </c>
       <c r="H655" t="s">
         <v>505</v>
@@ -33412,7 +34405,7 @@
         <v>30</v>
       </c>
       <c r="L655" t="s">
-        <v>3397</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="656">
@@ -33420,22 +34413,22 @@
         <v>1588</v>
       </c>
       <c r="B656" t="s">
-        <v>3400</v>
+        <v>3407</v>
       </c>
       <c r="C656" t="s">
         <v>70</v>
       </c>
       <c r="D656" t="s">
-        <v>3401</v>
+        <v>3408</v>
       </c>
       <c r="E656" t="s">
         <v>26</v>
       </c>
       <c r="F656" t="s">
-        <v>3398</v>
+        <v>3405</v>
       </c>
       <c r="G656" t="s">
-        <v>3402</v>
+        <v>3409</v>
       </c>
       <c r="H656" t="s">
         <v>361</v>
@@ -33447,30 +34440,30 @@
         <v>30</v>
       </c>
       <c r="L656" t="s">
-        <v>3401</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>3403</v>
+        <v>3410</v>
       </c>
       <c r="B657" t="s">
-        <v>3404</v>
+        <v>3411</v>
       </c>
       <c r="C657" t="s">
         <v>70</v>
       </c>
       <c r="D657" t="s">
-        <v>3405</v>
+        <v>3412</v>
       </c>
       <c r="E657" t="s">
         <v>26</v>
       </c>
       <c r="F657" t="s">
-        <v>3406</v>
+        <v>3413</v>
       </c>
       <c r="G657" t="s">
-        <v>3407</v>
+        <v>3414</v>
       </c>
       <c r="H657" t="s">
         <v>758</v>
@@ -33482,7 +34475,7 @@
         <v>30</v>
       </c>
       <c r="L657" t="s">
-        <v>3405</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="658">
@@ -33490,13 +34483,13 @@
         <v>2115</v>
       </c>
       <c r="B658" t="s">
-        <v>3408</v>
+        <v>3415</v>
       </c>
       <c r="C658" t="s">
         <v>70</v>
       </c>
       <c r="D658" t="s">
-        <v>3409</v>
+        <v>3416</v>
       </c>
       <c r="E658" t="s">
         <v>26</v>
@@ -33505,7 +34498,7 @@
         <v>944</v>
       </c>
       <c r="G658" t="s">
-        <v>3410</v>
+        <v>3417</v>
       </c>
       <c r="H658" t="s">
         <v>608</v>
@@ -33517,30 +34510,30 @@
         <v>30</v>
       </c>
       <c r="L658" t="s">
-        <v>3409</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>3411</v>
+        <v>3418</v>
       </c>
       <c r="B659" t="s">
-        <v>3412</v>
+        <v>3419</v>
       </c>
       <c r="C659" t="s">
         <v>70</v>
       </c>
       <c r="D659" t="s">
-        <v>3413</v>
+        <v>3420</v>
       </c>
       <c r="E659" t="s">
         <v>26</v>
       </c>
       <c r="F659" t="s">
-        <v>3414</v>
+        <v>3421</v>
       </c>
       <c r="G659" t="s">
-        <v>3415</v>
+        <v>3422</v>
       </c>
       <c r="H659" t="s">
         <v>560</v>
@@ -33552,7 +34545,7 @@
         <v>30</v>
       </c>
       <c r="L659" t="s">
-        <v>3413</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="660">
@@ -33560,22 +34553,22 @@
         <v>1630</v>
       </c>
       <c r="B660" t="s">
-        <v>3416</v>
+        <v>3423</v>
       </c>
       <c r="C660" t="s">
         <v>70</v>
       </c>
       <c r="D660" t="s">
-        <v>3417</v>
+        <v>3424</v>
       </c>
       <c r="E660" t="s">
         <v>26</v>
       </c>
       <c r="F660" t="s">
-        <v>3418</v>
+        <v>3425</v>
       </c>
       <c r="G660" t="s">
-        <v>3419</v>
+        <v>3426</v>
       </c>
       <c r="H660" t="s">
         <v>471</v>
@@ -33587,33 +34580,33 @@
         <v>30</v>
       </c>
       <c r="L660" t="s">
-        <v>3417</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>3420</v>
+        <v>3427</v>
       </c>
       <c r="B661" t="s">
-        <v>3421</v>
+        <v>3428</v>
       </c>
       <c r="C661" t="s">
         <v>38</v>
       </c>
       <c r="D661" t="s">
-        <v>3422</v>
+        <v>3429</v>
       </c>
       <c r="E661" t="s">
         <v>16</v>
       </c>
       <c r="F661" t="s">
-        <v>3423</v>
+        <v>3430</v>
       </c>
       <c r="G661" t="s">
-        <v>3424</v>
+        <v>3431</v>
       </c>
       <c r="H661" t="s">
-        <v>3425</v>
+        <v>3432</v>
       </c>
       <c r="I661" t="s">
         <v>43</v>
@@ -33622,7 +34615,7 @@
         <v>30</v>
       </c>
       <c r="L661" t="s">
-        <v>3422</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="662">
@@ -33630,13 +34623,13 @@
         <v>1699</v>
       </c>
       <c r="B662" t="s">
-        <v>3426</v>
+        <v>3433</v>
       </c>
       <c r="C662" t="s">
         <v>38</v>
       </c>
       <c r="D662" t="s">
-        <v>3427</v>
+        <v>3434</v>
       </c>
       <c r="E662" t="s">
         <v>16</v>
@@ -33645,45 +34638,45 @@
         <v>542</v>
       </c>
       <c r="G662" t="s">
-        <v>3428</v>
+        <v>3435</v>
       </c>
       <c r="H662" t="s">
-        <v>3429</v>
+        <v>3436</v>
       </c>
       <c r="I662" t="s">
         <v>20</v>
       </c>
       <c r="K662" t="s">
-        <v>3430</v>
+        <v>3355</v>
       </c>
       <c r="L662" t="s">
-        <v>3427</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>3431</v>
+        <v>3437</v>
       </c>
       <c r="B663" t="s">
-        <v>3432</v>
+        <v>3438</v>
       </c>
       <c r="C663" t="s">
         <v>38</v>
       </c>
       <c r="D663" t="s">
-        <v>3433</v>
+        <v>3439</v>
       </c>
       <c r="E663" t="s">
         <v>16</v>
       </c>
       <c r="F663" t="s">
-        <v>3434</v>
+        <v>3440</v>
       </c>
       <c r="G663" t="s">
-        <v>3435</v>
+        <v>3441</v>
       </c>
       <c r="H663" t="s">
-        <v>3436</v>
+        <v>3442</v>
       </c>
       <c r="I663" t="s">
         <v>20</v>
@@ -33692,7 +34685,7 @@
         <v>30</v>
       </c>
       <c r="L663" t="s">
-        <v>3433</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="664">
@@ -33700,22 +34693,22 @@
         <v>1709</v>
       </c>
       <c r="B664" t="s">
-        <v>3437</v>
+        <v>3443</v>
       </c>
       <c r="C664" t="s">
         <v>38</v>
       </c>
       <c r="D664" t="s">
-        <v>3438</v>
+        <v>3444</v>
       </c>
       <c r="E664" t="s">
         <v>16</v>
       </c>
       <c r="F664" t="s">
-        <v>3439</v>
+        <v>3445</v>
       </c>
       <c r="G664" t="s">
-        <v>3440</v>
+        <v>3446</v>
       </c>
       <c r="H664" t="s">
         <v>2359</v>
@@ -33724,36 +34717,36 @@
         <v>20</v>
       </c>
       <c r="K664" t="s">
-        <v>3430</v>
+        <v>3355</v>
       </c>
       <c r="L664" t="s">
-        <v>3438</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>3441</v>
+        <v>3447</v>
       </c>
       <c r="B665" t="s">
-        <v>3442</v>
+        <v>3448</v>
       </c>
       <c r="C665" t="s">
         <v>70</v>
       </c>
       <c r="D665" t="s">
-        <v>3443</v>
+        <v>3449</v>
       </c>
       <c r="E665" t="s">
         <v>26</v>
       </c>
       <c r="F665" t="s">
-        <v>3444</v>
+        <v>3450</v>
       </c>
       <c r="G665" t="s">
-        <v>3445</v>
+        <v>3451</v>
       </c>
       <c r="H665" t="s">
-        <v>3446</v>
+        <v>3452</v>
       </c>
       <c r="I665" t="s">
         <v>20</v>
@@ -33762,7 +34755,7 @@
         <v>30</v>
       </c>
       <c r="L665" t="s">
-        <v>3443</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="666">
@@ -33770,13 +34763,13 @@
         <v>1730</v>
       </c>
       <c r="B666" t="s">
-        <v>3447</v>
+        <v>3453</v>
       </c>
       <c r="C666" t="s">
         <v>70</v>
       </c>
       <c r="D666" t="s">
-        <v>3448</v>
+        <v>3454</v>
       </c>
       <c r="E666" t="s">
         <v>26</v>
@@ -33785,7 +34778,7 @@
         <v>1534</v>
       </c>
       <c r="G666" t="s">
-        <v>3449</v>
+        <v>3455</v>
       </c>
       <c r="H666" t="s">
         <v>957</v>
@@ -33797,30 +34790,30 @@
         <v>30</v>
       </c>
       <c r="L666" t="s">
-        <v>3448</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>3450</v>
+        <v>3456</v>
       </c>
       <c r="B667" t="s">
-        <v>3451</v>
+        <v>3457</v>
       </c>
       <c r="C667" t="s">
         <v>70</v>
       </c>
       <c r="D667" t="s">
-        <v>3452</v>
+        <v>3458</v>
       </c>
       <c r="E667" t="s">
         <v>26</v>
       </c>
       <c r="F667" t="s">
-        <v>3453</v>
+        <v>3459</v>
       </c>
       <c r="G667" t="s">
-        <v>3454</v>
+        <v>3460</v>
       </c>
       <c r="H667" t="s">
         <v>582</v>
@@ -33832,7 +34825,7 @@
         <v>30</v>
       </c>
       <c r="L667" t="s">
-        <v>3452</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="668">
@@ -33840,13 +34833,13 @@
         <v>1714</v>
       </c>
       <c r="B668" t="s">
-        <v>3455</v>
+        <v>3461</v>
       </c>
       <c r="C668" t="s">
         <v>38</v>
       </c>
       <c r="D668" t="s">
-        <v>3456</v>
+        <v>3462</v>
       </c>
       <c r="E668" t="s">
         <v>16</v>
@@ -33855,10 +34848,10 @@
         <v>386</v>
       </c>
       <c r="G668" t="s">
-        <v>3457</v>
+        <v>3463</v>
       </c>
       <c r="H668" t="s">
-        <v>3458</v>
+        <v>3464</v>
       </c>
       <c r="I668" t="s">
         <v>43</v>
@@ -33867,21 +34860,21 @@
         <v>30</v>
       </c>
       <c r="L668" t="s">
-        <v>3456</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>3459</v>
+        <v>3465</v>
       </c>
       <c r="B669" t="s">
-        <v>3460</v>
+        <v>3466</v>
       </c>
       <c r="C669" t="s">
         <v>38</v>
       </c>
       <c r="D669" t="s">
-        <v>3461</v>
+        <v>3467</v>
       </c>
       <c r="E669" t="s">
         <v>16</v>
@@ -33890,10 +34883,10 @@
         <v>2783</v>
       </c>
       <c r="G669" t="s">
-        <v>3462</v>
+        <v>3468</v>
       </c>
       <c r="H669" t="s">
-        <v>3463</v>
+        <v>3469</v>
       </c>
       <c r="I669" t="s">
         <v>20</v>
@@ -33902,7 +34895,7 @@
         <v>30</v>
       </c>
       <c r="L669" t="s">
-        <v>3461</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="670">
@@ -33910,13 +34903,13 @@
         <v>2408</v>
       </c>
       <c r="B670" t="s">
-        <v>3464</v>
+        <v>3470</v>
       </c>
       <c r="C670" t="s">
         <v>38</v>
       </c>
       <c r="D670" t="s">
-        <v>3465</v>
+        <v>3471</v>
       </c>
       <c r="E670" t="s">
         <v>16</v>
@@ -33925,10 +34918,10 @@
         <v>2794</v>
       </c>
       <c r="G670" t="s">
-        <v>3466</v>
+        <v>3472</v>
       </c>
       <c r="H670" t="s">
-        <v>3467</v>
+        <v>3473</v>
       </c>
       <c r="I670" t="s">
         <v>20</v>
@@ -33937,33 +34930,33 @@
         <v>30</v>
       </c>
       <c r="L670" t="s">
-        <v>3465</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>3468</v>
+        <v>3474</v>
       </c>
       <c r="B671" t="s">
-        <v>3469</v>
+        <v>3475</v>
       </c>
       <c r="C671" t="s">
         <v>38</v>
       </c>
       <c r="D671" t="s">
-        <v>3470</v>
+        <v>3476</v>
       </c>
       <c r="E671" t="s">
         <v>16</v>
       </c>
       <c r="F671" t="s">
-        <v>3471</v>
+        <v>3477</v>
       </c>
       <c r="G671" t="s">
-        <v>3472</v>
+        <v>3478</v>
       </c>
       <c r="H671" t="s">
-        <v>3473</v>
+        <v>3479</v>
       </c>
       <c r="I671" t="s">
         <v>20</v>
@@ -33972,7 +34965,7 @@
         <v>30</v>
       </c>
       <c r="L671" t="s">
-        <v>3470</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="672">
@@ -33980,13 +34973,13 @@
         <v>2096</v>
       </c>
       <c r="B672" t="s">
-        <v>3474</v>
+        <v>3480</v>
       </c>
       <c r="C672" t="s">
         <v>38</v>
       </c>
       <c r="D672" t="s">
-        <v>3475</v>
+        <v>3481</v>
       </c>
       <c r="E672" t="s">
         <v>16</v>
@@ -33995,19 +34988,2470 @@
         <v>1858</v>
       </c>
       <c r="G672" t="s">
-        <v>3476</v>
+        <v>3482</v>
       </c>
       <c r="H672" t="s">
-        <v>3477</v>
+        <v>3483</v>
       </c>
       <c r="I672" t="s">
         <v>20</v>
       </c>
       <c r="K672" t="s">
-        <v>3478</v>
+        <v>3484</v>
       </c>
       <c r="L672" t="s">
-        <v>3475</v>
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>656</v>
+      </c>
+      <c r="B673" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C673" t="s">
+        <v>213</v>
+      </c>
+      <c r="D673" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E673" t="s">
+        <v>16</v>
+      </c>
+      <c r="F673" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G673" t="s">
+        <v>3487</v>
+      </c>
+      <c r="H673" t="s">
+        <v>3488</v>
+      </c>
+      <c r="I673" t="s">
+        <v>20</v>
+      </c>
+      <c r="K673" t="s">
+        <v>3489</v>
+      </c>
+      <c r="L673" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B674" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C674" t="s">
+        <v>70</v>
+      </c>
+      <c r="D674" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E674" t="s">
+        <v>26</v>
+      </c>
+      <c r="F674" t="s">
+        <v>3492</v>
+      </c>
+      <c r="G674" t="s">
+        <v>3493</v>
+      </c>
+      <c r="H674" t="s">
+        <v>3494</v>
+      </c>
+      <c r="I674" t="s">
+        <v>20</v>
+      </c>
+      <c r="K674" t="s">
+        <v>30</v>
+      </c>
+      <c r="L674" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B675" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C675" t="s">
+        <v>70</v>
+      </c>
+      <c r="D675" t="s">
+        <v>3497</v>
+      </c>
+      <c r="E675" t="s">
+        <v>26</v>
+      </c>
+      <c r="F675" t="s">
+        <v>3498</v>
+      </c>
+      <c r="G675" t="s">
+        <v>3499</v>
+      </c>
+      <c r="H675" t="s">
+        <v>3500</v>
+      </c>
+      <c r="I675" t="s">
+        <v>20</v>
+      </c>
+      <c r="K675" t="s">
+        <v>30</v>
+      </c>
+      <c r="L675" t="s">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C676" t="s">
+        <v>213</v>
+      </c>
+      <c r="D676" t="s">
+        <v>3502</v>
+      </c>
+      <c r="E676" t="s">
+        <v>16</v>
+      </c>
+      <c r="F676" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G676" t="s">
+        <v>3503</v>
+      </c>
+      <c r="H676" t="s">
+        <v>3504</v>
+      </c>
+      <c r="I676" t="s">
+        <v>20</v>
+      </c>
+      <c r="K676" t="s">
+        <v>30</v>
+      </c>
+      <c r="L676" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B677" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C677" t="s">
+        <v>137</v>
+      </c>
+      <c r="D677" t="s">
+        <v>3506</v>
+      </c>
+      <c r="E677" t="s">
+        <v>16</v>
+      </c>
+      <c r="F677" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G677" t="s">
+        <v>3507</v>
+      </c>
+      <c r="H677" t="s">
+        <v>3508</v>
+      </c>
+      <c r="I677" t="s">
+        <v>20</v>
+      </c>
+      <c r="K677" t="s">
+        <v>30</v>
+      </c>
+      <c r="L677" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B678" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C678" t="s">
+        <v>137</v>
+      </c>
+      <c r="D678" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E678" t="s">
+        <v>16</v>
+      </c>
+      <c r="F678" t="s">
+        <v>3512</v>
+      </c>
+      <c r="G678" t="s">
+        <v>3513</v>
+      </c>
+      <c r="H678" t="s">
+        <v>3514</v>
+      </c>
+      <c r="I678" t="s">
+        <v>20</v>
+      </c>
+      <c r="K678" t="s">
+        <v>30</v>
+      </c>
+      <c r="L678" t="s">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B679" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C679" t="s">
+        <v>137</v>
+      </c>
+      <c r="D679" t="s">
+        <v>3517</v>
+      </c>
+      <c r="E679" t="s">
+        <v>16</v>
+      </c>
+      <c r="F679" t="s">
+        <v>822</v>
+      </c>
+      <c r="G679" t="s">
+        <v>3518</v>
+      </c>
+      <c r="H679" t="s">
+        <v>3519</v>
+      </c>
+      <c r="I679" t="s">
+        <v>20</v>
+      </c>
+      <c r="K679" t="s">
+        <v>30</v>
+      </c>
+      <c r="L679" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B680" t="s">
+        <v>3521</v>
+      </c>
+      <c r="C680" t="s">
+        <v>137</v>
+      </c>
+      <c r="D680" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E680" t="s">
+        <v>16</v>
+      </c>
+      <c r="F680" t="s">
+        <v>3523</v>
+      </c>
+      <c r="G680" t="s">
+        <v>3524</v>
+      </c>
+      <c r="H680" t="s">
+        <v>3525</v>
+      </c>
+      <c r="I680" t="s">
+        <v>20</v>
+      </c>
+      <c r="K680" t="s">
+        <v>30</v>
+      </c>
+      <c r="L680" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B681" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C681" t="s">
+        <v>137</v>
+      </c>
+      <c r="D681" t="s">
+        <v>3528</v>
+      </c>
+      <c r="E681" t="s">
+        <v>16</v>
+      </c>
+      <c r="F681" t="s">
+        <v>822</v>
+      </c>
+      <c r="G681" t="s">
+        <v>3529</v>
+      </c>
+      <c r="H681" t="s">
+        <v>3530</v>
+      </c>
+      <c r="I681" t="s">
+        <v>20</v>
+      </c>
+      <c r="K681" t="s">
+        <v>30</v>
+      </c>
+      <c r="L681" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B682" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C682" t="s">
+        <v>137</v>
+      </c>
+      <c r="D682" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E682" t="s">
+        <v>16</v>
+      </c>
+      <c r="F682" t="s">
+        <v>3533</v>
+      </c>
+      <c r="G682" t="s">
+        <v>3534</v>
+      </c>
+      <c r="H682" t="s">
+        <v>3535</v>
+      </c>
+      <c r="I682" t="s">
+        <v>20</v>
+      </c>
+      <c r="K682" t="s">
+        <v>30</v>
+      </c>
+      <c r="L682" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B683" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C683" t="s">
+        <v>137</v>
+      </c>
+      <c r="D683" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E683" t="s">
+        <v>16</v>
+      </c>
+      <c r="F683" t="s">
+        <v>3539</v>
+      </c>
+      <c r="G683" t="s">
+        <v>3540</v>
+      </c>
+      <c r="H683" t="s">
+        <v>3541</v>
+      </c>
+      <c r="I683" t="s">
+        <v>20</v>
+      </c>
+      <c r="K683" t="s">
+        <v>30</v>
+      </c>
+      <c r="L683" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B684" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C684" t="s">
+        <v>38</v>
+      </c>
+      <c r="D684" t="s">
+        <v>3543</v>
+      </c>
+      <c r="E684" t="s">
+        <v>16</v>
+      </c>
+      <c r="F684" t="s">
+        <v>685</v>
+      </c>
+      <c r="G684" t="s">
+        <v>3544</v>
+      </c>
+      <c r="H684" t="s">
+        <v>3545</v>
+      </c>
+      <c r="I684" t="s">
+        <v>20</v>
+      </c>
+      <c r="K684" t="s">
+        <v>30</v>
+      </c>
+      <c r="L684" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B685" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C685" t="s">
+        <v>38</v>
+      </c>
+      <c r="D685" t="s">
+        <v>3547</v>
+      </c>
+      <c r="E685" t="s">
+        <v>16</v>
+      </c>
+      <c r="F685" t="s">
+        <v>685</v>
+      </c>
+      <c r="G685" t="s">
+        <v>3548</v>
+      </c>
+      <c r="H685" t="s">
+        <v>3549</v>
+      </c>
+      <c r="I685" t="s">
+        <v>20</v>
+      </c>
+      <c r="K685" t="s">
+        <v>30</v>
+      </c>
+      <c r="L685" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B686" t="s">
+        <v>3551</v>
+      </c>
+      <c r="C686" t="s">
+        <v>38</v>
+      </c>
+      <c r="D686" t="s">
+        <v>3552</v>
+      </c>
+      <c r="E686" t="s">
+        <v>16</v>
+      </c>
+      <c r="F686" t="s">
+        <v>685</v>
+      </c>
+      <c r="G686" t="s">
+        <v>3553</v>
+      </c>
+      <c r="H686" t="s">
+        <v>3554</v>
+      </c>
+      <c r="I686" t="s">
+        <v>20</v>
+      </c>
+      <c r="K686" t="s">
+        <v>30</v>
+      </c>
+      <c r="L686" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B687" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C687" t="s">
+        <v>38</v>
+      </c>
+      <c r="D687" t="s">
+        <v>3556</v>
+      </c>
+      <c r="E687" t="s">
+        <v>16</v>
+      </c>
+      <c r="F687" t="s">
+        <v>685</v>
+      </c>
+      <c r="G687" t="s">
+        <v>3557</v>
+      </c>
+      <c r="H687" t="s">
+        <v>3558</v>
+      </c>
+      <c r="I687" t="s">
+        <v>20</v>
+      </c>
+      <c r="K687" t="s">
+        <v>2365</v>
+      </c>
+      <c r="L687" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C688" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D688" t="s">
+        <v>3560</v>
+      </c>
+      <c r="E688" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F688" t="s">
+        <v>3561</v>
+      </c>
+      <c r="G688" t="s">
+        <v>3562</v>
+      </c>
+      <c r="H688" t="s">
+        <v>3563</v>
+      </c>
+      <c r="I688" t="s">
+        <v>43</v>
+      </c>
+      <c r="K688" t="s">
+        <v>30</v>
+      </c>
+      <c r="L688" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B689" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C689" t="s">
+        <v>70</v>
+      </c>
+      <c r="D689" t="s">
+        <v>3565</v>
+      </c>
+      <c r="E689" t="s">
+        <v>26</v>
+      </c>
+      <c r="F689" t="s">
+        <v>3566</v>
+      </c>
+      <c r="G689" t="s">
+        <v>3567</v>
+      </c>
+      <c r="H689" t="s">
+        <v>3568</v>
+      </c>
+      <c r="I689" t="s">
+        <v>20</v>
+      </c>
+      <c r="K689" t="s">
+        <v>30</v>
+      </c>
+      <c r="L689" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B690" t="s">
+        <v>3570</v>
+      </c>
+      <c r="C690" t="s">
+        <v>137</v>
+      </c>
+      <c r="D690" t="s">
+        <v>3571</v>
+      </c>
+      <c r="E690" t="s">
+        <v>16</v>
+      </c>
+      <c r="F690" t="s">
+        <v>3339</v>
+      </c>
+      <c r="G690" t="s">
+        <v>3572</v>
+      </c>
+      <c r="H690" t="s">
+        <v>3573</v>
+      </c>
+      <c r="I690" t="s">
+        <v>20</v>
+      </c>
+      <c r="K690" t="s">
+        <v>30</v>
+      </c>
+      <c r="L690" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B691" t="s">
+        <v>3574</v>
+      </c>
+      <c r="C691" t="s">
+        <v>137</v>
+      </c>
+      <c r="D691" t="s">
+        <v>3575</v>
+      </c>
+      <c r="E691" t="s">
+        <v>16</v>
+      </c>
+      <c r="F691" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G691" t="s">
+        <v>3576</v>
+      </c>
+      <c r="H691" t="s">
+        <v>3060</v>
+      </c>
+      <c r="I691" t="s">
+        <v>20</v>
+      </c>
+      <c r="K691" t="s">
+        <v>30</v>
+      </c>
+      <c r="L691" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B692" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C692" t="s">
+        <v>137</v>
+      </c>
+      <c r="D692" t="s">
+        <v>3579</v>
+      </c>
+      <c r="E692" t="s">
+        <v>16</v>
+      </c>
+      <c r="F692" t="s">
+        <v>650</v>
+      </c>
+      <c r="G692" t="s">
+        <v>3580</v>
+      </c>
+      <c r="H692" t="s">
+        <v>3048</v>
+      </c>
+      <c r="I692" t="s">
+        <v>20</v>
+      </c>
+      <c r="K692" t="s">
+        <v>30</v>
+      </c>
+      <c r="L692" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B693" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C693" t="s">
+        <v>137</v>
+      </c>
+      <c r="D693" t="s">
+        <v>3582</v>
+      </c>
+      <c r="E693" t="s">
+        <v>16</v>
+      </c>
+      <c r="F693" t="s">
+        <v>2983</v>
+      </c>
+      <c r="G693" t="s">
+        <v>3583</v>
+      </c>
+      <c r="H693" t="s">
+        <v>3071</v>
+      </c>
+      <c r="I693" t="s">
+        <v>20</v>
+      </c>
+      <c r="K693" t="s">
+        <v>30</v>
+      </c>
+      <c r="L693" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B694" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C694" t="s">
+        <v>137</v>
+      </c>
+      <c r="D694" t="s">
+        <v>3585</v>
+      </c>
+      <c r="E694" t="s">
+        <v>16</v>
+      </c>
+      <c r="F694" t="s">
+        <v>3586</v>
+      </c>
+      <c r="G694" t="s">
+        <v>3587</v>
+      </c>
+      <c r="H694" t="s">
+        <v>3588</v>
+      </c>
+      <c r="I694" t="s">
+        <v>20</v>
+      </c>
+      <c r="K694" t="s">
+        <v>30</v>
+      </c>
+      <c r="L694" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B695" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C695" t="s">
+        <v>137</v>
+      </c>
+      <c r="D695" t="s">
+        <v>3591</v>
+      </c>
+      <c r="E695" t="s">
+        <v>16</v>
+      </c>
+      <c r="F695" t="s">
+        <v>3592</v>
+      </c>
+      <c r="G695" t="s">
+        <v>3593</v>
+      </c>
+      <c r="H695" t="s">
+        <v>3594</v>
+      </c>
+      <c r="I695" t="s">
+        <v>20</v>
+      </c>
+      <c r="K695" t="s">
+        <v>30</v>
+      </c>
+      <c r="L695" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B696" t="s">
+        <v>3595</v>
+      </c>
+      <c r="C696" t="s">
+        <v>137</v>
+      </c>
+      <c r="D696" t="s">
+        <v>3596</v>
+      </c>
+      <c r="E696" t="s">
+        <v>16</v>
+      </c>
+      <c r="F696" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G696" t="s">
+        <v>3597</v>
+      </c>
+      <c r="H696" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I696" t="s">
+        <v>20</v>
+      </c>
+      <c r="K696" t="s">
+        <v>30</v>
+      </c>
+      <c r="L696" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B697" t="s">
+        <v>3598</v>
+      </c>
+      <c r="C697" t="s">
+        <v>137</v>
+      </c>
+      <c r="D697" t="s">
+        <v>3599</v>
+      </c>
+      <c r="E697" t="s">
+        <v>16</v>
+      </c>
+      <c r="F697" t="s">
+        <v>295</v>
+      </c>
+      <c r="G697" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H697" t="s">
+        <v>3066</v>
+      </c>
+      <c r="I697" t="s">
+        <v>20</v>
+      </c>
+      <c r="K697" t="s">
+        <v>30</v>
+      </c>
+      <c r="L697" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B698" t="s">
+        <v>3601</v>
+      </c>
+      <c r="C698" t="s">
+        <v>137</v>
+      </c>
+      <c r="D698" t="s">
+        <v>3602</v>
+      </c>
+      <c r="E698" t="s">
+        <v>16</v>
+      </c>
+      <c r="F698" t="s">
+        <v>3603</v>
+      </c>
+      <c r="G698" t="s">
+        <v>3604</v>
+      </c>
+      <c r="H698" t="s">
+        <v>3605</v>
+      </c>
+      <c r="I698" t="s">
+        <v>43</v>
+      </c>
+      <c r="K698" t="s">
+        <v>30</v>
+      </c>
+      <c r="L698" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B699" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C699" t="s">
+        <v>70</v>
+      </c>
+      <c r="D699" t="s">
+        <v>3607</v>
+      </c>
+      <c r="E699" t="s">
+        <v>26</v>
+      </c>
+      <c r="F699" t="s">
+        <v>3608</v>
+      </c>
+      <c r="G699" t="s">
+        <v>3609</v>
+      </c>
+      <c r="H699" t="s">
+        <v>3610</v>
+      </c>
+      <c r="I699" t="s">
+        <v>20</v>
+      </c>
+      <c r="K699" t="s">
+        <v>30</v>
+      </c>
+      <c r="L699" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B700" t="s">
+        <v>3612</v>
+      </c>
+      <c r="C700" t="s">
+        <v>137</v>
+      </c>
+      <c r="D700" t="s">
+        <v>3613</v>
+      </c>
+      <c r="E700" t="s">
+        <v>16</v>
+      </c>
+      <c r="F700" t="s">
+        <v>3614</v>
+      </c>
+      <c r="G700" t="s">
+        <v>3615</v>
+      </c>
+      <c r="H700" t="s">
+        <v>3616</v>
+      </c>
+      <c r="I700" t="s">
+        <v>43</v>
+      </c>
+      <c r="K700" t="s">
+        <v>30</v>
+      </c>
+      <c r="L700" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B701" t="s">
+        <v>3618</v>
+      </c>
+      <c r="C701" t="s">
+        <v>137</v>
+      </c>
+      <c r="D701" t="s">
+        <v>3619</v>
+      </c>
+      <c r="E701" t="s">
+        <v>16</v>
+      </c>
+      <c r="F701" t="s">
+        <v>3620</v>
+      </c>
+      <c r="G701" t="s">
+        <v>3621</v>
+      </c>
+      <c r="H701" t="s">
+        <v>3622</v>
+      </c>
+      <c r="I701" t="s">
+        <v>20</v>
+      </c>
+      <c r="K701" t="s">
+        <v>30</v>
+      </c>
+      <c r="L701" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B702" t="s">
+        <v>3624</v>
+      </c>
+      <c r="C702" t="s">
+        <v>137</v>
+      </c>
+      <c r="D702" t="s">
+        <v>3625</v>
+      </c>
+      <c r="E702" t="s">
+        <v>16</v>
+      </c>
+      <c r="F702" t="s">
+        <v>3626</v>
+      </c>
+      <c r="G702" t="s">
+        <v>3627</v>
+      </c>
+      <c r="H702" t="s">
+        <v>3628</v>
+      </c>
+      <c r="I702" t="s">
+        <v>20</v>
+      </c>
+      <c r="K702" t="s">
+        <v>30</v>
+      </c>
+      <c r="L702" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B703" t="s">
+        <v>3629</v>
+      </c>
+      <c r="C703" t="s">
+        <v>137</v>
+      </c>
+      <c r="D703" t="s">
+        <v>3630</v>
+      </c>
+      <c r="E703" t="s">
+        <v>16</v>
+      </c>
+      <c r="F703" t="s">
+        <v>3631</v>
+      </c>
+      <c r="G703" t="s">
+        <v>3632</v>
+      </c>
+      <c r="H703" t="s">
+        <v>3076</v>
+      </c>
+      <c r="I703" t="s">
+        <v>20</v>
+      </c>
+      <c r="K703" t="s">
+        <v>30</v>
+      </c>
+      <c r="L703" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B704" t="s">
+        <v>3634</v>
+      </c>
+      <c r="C704" t="s">
+        <v>137</v>
+      </c>
+      <c r="D704" t="s">
+        <v>3635</v>
+      </c>
+      <c r="E704" t="s">
+        <v>16</v>
+      </c>
+      <c r="F704" t="s">
+        <v>3636</v>
+      </c>
+      <c r="G704" t="s">
+        <v>3637</v>
+      </c>
+      <c r="H704" t="s">
+        <v>3638</v>
+      </c>
+      <c r="I704" t="s">
+        <v>20</v>
+      </c>
+      <c r="K704" t="s">
+        <v>30</v>
+      </c>
+      <c r="L704" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C705" t="s">
+        <v>137</v>
+      </c>
+      <c r="D705" t="s">
+        <v>3639</v>
+      </c>
+      <c r="E705" t="s">
+        <v>16</v>
+      </c>
+      <c r="F705" t="s">
+        <v>3640</v>
+      </c>
+      <c r="G705" t="s">
+        <v>3641</v>
+      </c>
+      <c r="H705" t="s">
+        <v>3642</v>
+      </c>
+      <c r="I705" t="s">
+        <v>20</v>
+      </c>
+      <c r="K705" t="s">
+        <v>30</v>
+      </c>
+      <c r="L705" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C706" t="s">
+        <v>137</v>
+      </c>
+      <c r="D706" t="s">
+        <v>3643</v>
+      </c>
+      <c r="E706" t="s">
+        <v>16</v>
+      </c>
+      <c r="F706" t="s">
+        <v>3644</v>
+      </c>
+      <c r="G706" t="s">
+        <v>3645</v>
+      </c>
+      <c r="H706" t="s">
+        <v>3646</v>
+      </c>
+      <c r="I706" t="s">
+        <v>20</v>
+      </c>
+      <c r="K706" t="s">
+        <v>30</v>
+      </c>
+      <c r="L706" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B707" t="s">
+        <v>3648</v>
+      </c>
+      <c r="C707" t="s">
+        <v>137</v>
+      </c>
+      <c r="D707" t="s">
+        <v>3649</v>
+      </c>
+      <c r="E707" t="s">
+        <v>16</v>
+      </c>
+      <c r="F707" t="s">
+        <v>3650</v>
+      </c>
+      <c r="G707" t="s">
+        <v>3651</v>
+      </c>
+      <c r="H707" t="s">
+        <v>3652</v>
+      </c>
+      <c r="I707" t="s">
+        <v>20</v>
+      </c>
+      <c r="K707" t="s">
+        <v>30</v>
+      </c>
+      <c r="L707" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B708" t="s">
+        <v>3653</v>
+      </c>
+      <c r="C708" t="s">
+        <v>137</v>
+      </c>
+      <c r="D708" t="s">
+        <v>3654</v>
+      </c>
+      <c r="E708" t="s">
+        <v>16</v>
+      </c>
+      <c r="F708" t="s">
+        <v>781</v>
+      </c>
+      <c r="G708" t="s">
+        <v>3655</v>
+      </c>
+      <c r="H708" t="s">
+        <v>3520</v>
+      </c>
+      <c r="I708" t="s">
+        <v>20</v>
+      </c>
+      <c r="K708" t="s">
+        <v>30</v>
+      </c>
+      <c r="L708" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B709" t="s">
+        <v>3656</v>
+      </c>
+      <c r="C709" t="s">
+        <v>137</v>
+      </c>
+      <c r="D709" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E709" t="s">
+        <v>16</v>
+      </c>
+      <c r="F709" t="s">
+        <v>717</v>
+      </c>
+      <c r="G709" t="s">
+        <v>3658</v>
+      </c>
+      <c r="H709" t="s">
+        <v>656</v>
+      </c>
+      <c r="I709" t="s">
+        <v>20</v>
+      </c>
+      <c r="K709" t="s">
+        <v>30</v>
+      </c>
+      <c r="L709" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B710" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C710" t="s">
+        <v>137</v>
+      </c>
+      <c r="D710" t="s">
+        <v>3661</v>
+      </c>
+      <c r="E710" t="s">
+        <v>16</v>
+      </c>
+      <c r="F710" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G710" t="s">
+        <v>3662</v>
+      </c>
+      <c r="H710" t="s">
+        <v>3663</v>
+      </c>
+      <c r="I710" t="s">
+        <v>20</v>
+      </c>
+      <c r="K710" t="s">
+        <v>30</v>
+      </c>
+      <c r="L710" t="s">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B711" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C711" t="s">
+        <v>137</v>
+      </c>
+      <c r="D711" t="s">
+        <v>3665</v>
+      </c>
+      <c r="E711" t="s">
+        <v>16</v>
+      </c>
+      <c r="F711" t="s">
+        <v>3666</v>
+      </c>
+      <c r="G711" t="s">
+        <v>3667</v>
+      </c>
+      <c r="H711" t="s">
+        <v>3668</v>
+      </c>
+      <c r="I711" t="s">
+        <v>20</v>
+      </c>
+      <c r="K711" t="s">
+        <v>30</v>
+      </c>
+      <c r="L711" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B712" t="s">
+        <v>3670</v>
+      </c>
+      <c r="C712" t="s">
+        <v>137</v>
+      </c>
+      <c r="D712" t="s">
+        <v>3671</v>
+      </c>
+      <c r="E712" t="s">
+        <v>16</v>
+      </c>
+      <c r="F712" t="s">
+        <v>3672</v>
+      </c>
+      <c r="G712" t="s">
+        <v>3673</v>
+      </c>
+      <c r="H712" t="s">
+        <v>3674</v>
+      </c>
+      <c r="I712" t="s">
+        <v>20</v>
+      </c>
+      <c r="K712" t="s">
+        <v>30</v>
+      </c>
+      <c r="L712" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C713" t="s">
+        <v>14</v>
+      </c>
+      <c r="D713" t="s">
+        <v>3675</v>
+      </c>
+      <c r="E713" t="s">
+        <v>16</v>
+      </c>
+      <c r="F713" t="s">
+        <v>3676</v>
+      </c>
+      <c r="G713" t="s">
+        <v>3677</v>
+      </c>
+      <c r="H713" t="s">
+        <v>3678</v>
+      </c>
+      <c r="I713" t="s">
+        <v>20</v>
+      </c>
+      <c r="K713" t="s">
+        <v>30</v>
+      </c>
+      <c r="L713" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B714" t="s">
+        <v>3680</v>
+      </c>
+      <c r="C714" t="s">
+        <v>38</v>
+      </c>
+      <c r="D714" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E714" t="s">
+        <v>16</v>
+      </c>
+      <c r="F714" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G714" t="s">
+        <v>3682</v>
+      </c>
+      <c r="H714" t="s">
+        <v>2927</v>
+      </c>
+      <c r="I714" t="s">
+        <v>20</v>
+      </c>
+      <c r="K714" t="s">
+        <v>30</v>
+      </c>
+      <c r="L714" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B715" t="s">
+        <v>3683</v>
+      </c>
+      <c r="C715" t="s">
+        <v>38</v>
+      </c>
+      <c r="D715" t="s">
+        <v>3684</v>
+      </c>
+      <c r="E715" t="s">
+        <v>16</v>
+      </c>
+      <c r="F715" t="s">
+        <v>3685</v>
+      </c>
+      <c r="G715" t="s">
+        <v>3686</v>
+      </c>
+      <c r="H715" t="s">
+        <v>2886</v>
+      </c>
+      <c r="I715" t="s">
+        <v>20</v>
+      </c>
+      <c r="K715" t="s">
+        <v>30</v>
+      </c>
+      <c r="L715" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B716" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C716" t="s">
+        <v>38</v>
+      </c>
+      <c r="D716" t="s">
+        <v>3688</v>
+      </c>
+      <c r="E716" t="s">
+        <v>16</v>
+      </c>
+      <c r="F716" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G716" t="s">
+        <v>3689</v>
+      </c>
+      <c r="H716" t="s">
+        <v>2807</v>
+      </c>
+      <c r="I716" t="s">
+        <v>20</v>
+      </c>
+      <c r="K716" t="s">
+        <v>30</v>
+      </c>
+      <c r="L716" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B717" t="s">
+        <v>3690</v>
+      </c>
+      <c r="C717" t="s">
+        <v>38</v>
+      </c>
+      <c r="D717" t="s">
+        <v>3691</v>
+      </c>
+      <c r="E717" t="s">
+        <v>16</v>
+      </c>
+      <c r="F717" t="s">
+        <v>3692</v>
+      </c>
+      <c r="G717" t="s">
+        <v>3693</v>
+      </c>
+      <c r="H717" t="s">
+        <v>2372</v>
+      </c>
+      <c r="I717" t="s">
+        <v>20</v>
+      </c>
+      <c r="K717" t="s">
+        <v>2358</v>
+      </c>
+      <c r="L717" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C718" t="s">
+        <v>70</v>
+      </c>
+      <c r="D718" t="s">
+        <v>3694</v>
+      </c>
+      <c r="E718" t="s">
+        <v>26</v>
+      </c>
+      <c r="F718" t="s">
+        <v>3695</v>
+      </c>
+      <c r="G718" t="s">
+        <v>3696</v>
+      </c>
+      <c r="H718" t="s">
+        <v>3697</v>
+      </c>
+      <c r="I718" t="s">
+        <v>20</v>
+      </c>
+      <c r="K718" t="s">
+        <v>30</v>
+      </c>
+      <c r="L718" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B719" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C719" t="s">
+        <v>137</v>
+      </c>
+      <c r="D719" t="s">
+        <v>3700</v>
+      </c>
+      <c r="E719" t="s">
+        <v>16</v>
+      </c>
+      <c r="F719" t="s">
+        <v>3701</v>
+      </c>
+      <c r="G719" t="s">
+        <v>3702</v>
+      </c>
+      <c r="H719" t="s">
+        <v>3703</v>
+      </c>
+      <c r="I719" t="s">
+        <v>20</v>
+      </c>
+      <c r="K719" t="s">
+        <v>143</v>
+      </c>
+      <c r="L719" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C720" t="s">
+        <v>70</v>
+      </c>
+      <c r="D720" t="s">
+        <v>3704</v>
+      </c>
+      <c r="E720" t="s">
+        <v>26</v>
+      </c>
+      <c r="F720" t="s">
+        <v>3705</v>
+      </c>
+      <c r="G720" t="s">
+        <v>3706</v>
+      </c>
+      <c r="H720" t="s">
+        <v>3707</v>
+      </c>
+      <c r="I720" t="s">
+        <v>20</v>
+      </c>
+      <c r="K720" t="s">
+        <v>30</v>
+      </c>
+      <c r="L720" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s">
+        <v>3708</v>
+      </c>
+      <c r="C721" t="s">
+        <v>70</v>
+      </c>
+      <c r="D721" t="s">
+        <v>3709</v>
+      </c>
+      <c r="E721" t="s">
+        <v>26</v>
+      </c>
+      <c r="F721" t="s">
+        <v>3710</v>
+      </c>
+      <c r="G721" t="s">
+        <v>3711</v>
+      </c>
+      <c r="H721" t="s">
+        <v>3712</v>
+      </c>
+      <c r="I721" t="s">
+        <v>20</v>
+      </c>
+      <c r="K721" t="s">
+        <v>30</v>
+      </c>
+      <c r="L721" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B722" t="s">
+        <v>3713</v>
+      </c>
+      <c r="C722" t="s">
+        <v>70</v>
+      </c>
+      <c r="D722" t="s">
+        <v>3714</v>
+      </c>
+      <c r="E722" t="s">
+        <v>26</v>
+      </c>
+      <c r="F722" t="s">
+        <v>3715</v>
+      </c>
+      <c r="G722" t="s">
+        <v>3716</v>
+      </c>
+      <c r="H722" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I722" t="s">
+        <v>108</v>
+      </c>
+      <c r="K722" t="s">
+        <v>30</v>
+      </c>
+      <c r="L722" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B723" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C723" t="s">
+        <v>70</v>
+      </c>
+      <c r="D723" t="s">
+        <v>3719</v>
+      </c>
+      <c r="E723" t="s">
+        <v>26</v>
+      </c>
+      <c r="F723" t="s">
+        <v>3720</v>
+      </c>
+      <c r="G723" t="s">
+        <v>3721</v>
+      </c>
+      <c r="H723" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I723" t="s">
+        <v>108</v>
+      </c>
+      <c r="K723" t="s">
+        <v>30</v>
+      </c>
+      <c r="L723" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B724" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C724" t="s">
+        <v>70</v>
+      </c>
+      <c r="D724" t="s">
+        <v>3723</v>
+      </c>
+      <c r="E724" t="s">
+        <v>26</v>
+      </c>
+      <c r="F724" t="s">
+        <v>647</v>
+      </c>
+      <c r="G724" t="s">
+        <v>3724</v>
+      </c>
+      <c r="H724" t="s">
+        <v>650</v>
+      </c>
+      <c r="I724" t="s">
+        <v>108</v>
+      </c>
+      <c r="K724" t="s">
+        <v>30</v>
+      </c>
+      <c r="L724" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B725" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C725" t="s">
+        <v>70</v>
+      </c>
+      <c r="D725" t="s">
+        <v>3726</v>
+      </c>
+      <c r="E725" t="s">
+        <v>26</v>
+      </c>
+      <c r="F725" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G725" t="s">
+        <v>3727</v>
+      </c>
+      <c r="H725" t="s">
+        <v>992</v>
+      </c>
+      <c r="I725" t="s">
+        <v>108</v>
+      </c>
+      <c r="K725" t="s">
+        <v>30</v>
+      </c>
+      <c r="L725" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B726" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C726" t="s">
+        <v>70</v>
+      </c>
+      <c r="D726" t="s">
+        <v>3729</v>
+      </c>
+      <c r="E726" t="s">
+        <v>26</v>
+      </c>
+      <c r="F726" t="s">
+        <v>735</v>
+      </c>
+      <c r="G726" t="s">
+        <v>3730</v>
+      </c>
+      <c r="H726" t="s">
+        <v>980</v>
+      </c>
+      <c r="I726" t="s">
+        <v>108</v>
+      </c>
+      <c r="K726" t="s">
+        <v>30</v>
+      </c>
+      <c r="L726" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B727" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C727" t="s">
+        <v>70</v>
+      </c>
+      <c r="D727" t="s">
+        <v>3732</v>
+      </c>
+      <c r="E727" t="s">
+        <v>26</v>
+      </c>
+      <c r="F727" t="s">
+        <v>3733</v>
+      </c>
+      <c r="G727" t="s">
+        <v>3734</v>
+      </c>
+      <c r="H727" t="s">
+        <v>652</v>
+      </c>
+      <c r="I727" t="s">
+        <v>108</v>
+      </c>
+      <c r="K727" t="s">
+        <v>30</v>
+      </c>
+      <c r="L727" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B728" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C728" t="s">
+        <v>70</v>
+      </c>
+      <c r="D728" t="s">
+        <v>3736</v>
+      </c>
+      <c r="E728" t="s">
+        <v>26</v>
+      </c>
+      <c r="F728" t="s">
+        <v>763</v>
+      </c>
+      <c r="G728" t="s">
+        <v>3737</v>
+      </c>
+      <c r="H728" t="s">
+        <v>465</v>
+      </c>
+      <c r="I728" t="s">
+        <v>108</v>
+      </c>
+      <c r="K728" t="s">
+        <v>30</v>
+      </c>
+      <c r="L728" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B729" t="s">
+        <v>3739</v>
+      </c>
+      <c r="C729" t="s">
+        <v>70</v>
+      </c>
+      <c r="D729" t="s">
+        <v>3740</v>
+      </c>
+      <c r="E729" t="s">
+        <v>26</v>
+      </c>
+      <c r="F729" t="s">
+        <v>3741</v>
+      </c>
+      <c r="G729" t="s">
+        <v>3742</v>
+      </c>
+      <c r="H729" t="s">
+        <v>555</v>
+      </c>
+      <c r="I729" t="s">
+        <v>108</v>
+      </c>
+      <c r="K729" t="s">
+        <v>30</v>
+      </c>
+      <c r="L729" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C730" t="s">
+        <v>238</v>
+      </c>
+      <c r="D730" t="s">
+        <v>3743</v>
+      </c>
+      <c r="E730" t="s">
+        <v>16</v>
+      </c>
+      <c r="F730" t="s">
+        <v>3744</v>
+      </c>
+      <c r="G730" t="s">
+        <v>3745</v>
+      </c>
+      <c r="H730" t="s">
+        <v>3746</v>
+      </c>
+      <c r="I730" t="s">
+        <v>20</v>
+      </c>
+      <c r="K730" t="s">
+        <v>30</v>
+      </c>
+      <c r="L730" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C731" t="s">
+        <v>238</v>
+      </c>
+      <c r="D731" t="s">
+        <v>3747</v>
+      </c>
+      <c r="E731" t="s">
+        <v>16</v>
+      </c>
+      <c r="F731" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G731" t="s">
+        <v>3748</v>
+      </c>
+      <c r="H731" t="s">
+        <v>3749</v>
+      </c>
+      <c r="I731" t="s">
+        <v>20</v>
+      </c>
+      <c r="K731" t="s">
+        <v>30</v>
+      </c>
+      <c r="L731" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C732" t="s">
+        <v>238</v>
+      </c>
+      <c r="D732" t="s">
+        <v>3751</v>
+      </c>
+      <c r="E732" t="s">
+        <v>16</v>
+      </c>
+      <c r="F732" t="s">
+        <v>3752</v>
+      </c>
+      <c r="G732" t="s">
+        <v>3753</v>
+      </c>
+      <c r="H732" t="s">
+        <v>3754</v>
+      </c>
+      <c r="I732" t="s">
+        <v>20</v>
+      </c>
+      <c r="K732" t="s">
+        <v>30</v>
+      </c>
+      <c r="L732" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C733" t="s">
+        <v>238</v>
+      </c>
+      <c r="D733" t="s">
+        <v>3755</v>
+      </c>
+      <c r="E733" t="s">
+        <v>16</v>
+      </c>
+      <c r="F733" t="s">
+        <v>3756</v>
+      </c>
+      <c r="G733" t="s">
+        <v>3757</v>
+      </c>
+      <c r="H733" t="s">
+        <v>3758</v>
+      </c>
+      <c r="I733" t="s">
+        <v>20</v>
+      </c>
+      <c r="K733" t="s">
+        <v>30</v>
+      </c>
+      <c r="L733" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s">
+        <v>3759</v>
+      </c>
+      <c r="C734" t="s">
+        <v>213</v>
+      </c>
+      <c r="D734" t="s">
+        <v>3760</v>
+      </c>
+      <c r="E734" t="s">
+        <v>16</v>
+      </c>
+      <c r="F734" t="s">
+        <v>3761</v>
+      </c>
+      <c r="G734" t="s">
+        <v>3762</v>
+      </c>
+      <c r="H734" t="s">
+        <v>3763</v>
+      </c>
+      <c r="I734" t="s">
+        <v>20</v>
+      </c>
+      <c r="K734" t="s">
+        <v>30</v>
+      </c>
+      <c r="L734" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C735" t="s">
+        <v>213</v>
+      </c>
+      <c r="D735" t="s">
+        <v>3764</v>
+      </c>
+      <c r="E735" t="s">
+        <v>16</v>
+      </c>
+      <c r="F735" t="s">
+        <v>3765</v>
+      </c>
+      <c r="G735" t="s">
+        <v>3766</v>
+      </c>
+      <c r="H735" t="s">
+        <v>3767</v>
+      </c>
+      <c r="I735" t="s">
+        <v>20</v>
+      </c>
+      <c r="K735" t="s">
+        <v>30</v>
+      </c>
+      <c r="L735" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s">
+        <v>3768</v>
+      </c>
+      <c r="C736" t="s">
+        <v>238</v>
+      </c>
+      <c r="D736" t="s">
+        <v>3769</v>
+      </c>
+      <c r="E736" t="s">
+        <v>16</v>
+      </c>
+      <c r="F736" t="s">
+        <v>3770</v>
+      </c>
+      <c r="G736" t="s">
+        <v>3771</v>
+      </c>
+      <c r="H736" t="s">
+        <v>3772</v>
+      </c>
+      <c r="I736" t="s">
+        <v>20</v>
+      </c>
+      <c r="K736" t="s">
+        <v>30</v>
+      </c>
+      <c r="L736" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C737" t="s">
+        <v>238</v>
+      </c>
+      <c r="D737" t="s">
+        <v>3773</v>
+      </c>
+      <c r="E737" t="s">
+        <v>16</v>
+      </c>
+      <c r="F737" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G737" t="s">
+        <v>3774</v>
+      </c>
+      <c r="H737" t="s">
+        <v>3339</v>
+      </c>
+      <c r="I737" t="s">
+        <v>20</v>
+      </c>
+      <c r="K737" t="s">
+        <v>30</v>
+      </c>
+      <c r="L737" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s">
+        <v>3775</v>
+      </c>
+      <c r="C738" t="s">
+        <v>238</v>
+      </c>
+      <c r="D738" t="s">
+        <v>3776</v>
+      </c>
+      <c r="E738" t="s">
+        <v>16</v>
+      </c>
+      <c r="F738" t="s">
+        <v>3777</v>
+      </c>
+      <c r="G738" t="s">
+        <v>3778</v>
+      </c>
+      <c r="H738" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I738" t="s">
+        <v>20</v>
+      </c>
+      <c r="K738" t="s">
+        <v>30</v>
+      </c>
+      <c r="L738" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s">
+        <v>3779</v>
+      </c>
+      <c r="C739" t="s">
+        <v>38</v>
+      </c>
+      <c r="D739" t="s">
+        <v>3780</v>
+      </c>
+      <c r="E739" t="s">
+        <v>16</v>
+      </c>
+      <c r="F739" t="s">
+        <v>2997</v>
+      </c>
+      <c r="G739" t="s">
+        <v>3781</v>
+      </c>
+      <c r="H739" t="s">
+        <v>3782</v>
+      </c>
+      <c r="I739" t="s">
+        <v>20</v>
+      </c>
+      <c r="K739" t="s">
+        <v>30</v>
+      </c>
+      <c r="L739" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C740" t="s">
+        <v>38</v>
+      </c>
+      <c r="D740" t="s">
+        <v>3783</v>
+      </c>
+      <c r="E740" t="s">
+        <v>16</v>
+      </c>
+      <c r="F740" t="s">
+        <v>3784</v>
+      </c>
+      <c r="G740" t="s">
+        <v>3785</v>
+      </c>
+      <c r="H740" t="s">
+        <v>3786</v>
+      </c>
+      <c r="I740" t="s">
+        <v>20</v>
+      </c>
+      <c r="K740" t="s">
+        <v>30</v>
+      </c>
+      <c r="L740" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s">
+        <v>3787</v>
+      </c>
+      <c r="C741" t="s">
+        <v>38</v>
+      </c>
+      <c r="D741" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E741" t="s">
+        <v>16</v>
+      </c>
+      <c r="F741" t="s">
+        <v>3789</v>
+      </c>
+      <c r="G741" t="s">
+        <v>3790</v>
+      </c>
+      <c r="H741" t="s">
+        <v>3791</v>
+      </c>
+      <c r="I741" t="s">
+        <v>20</v>
+      </c>
+      <c r="K741" t="s">
+        <v>30</v>
+      </c>
+      <c r="L741" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s">
+        <v>3792</v>
+      </c>
+      <c r="C742" t="s">
+        <v>238</v>
+      </c>
+      <c r="D742" t="s">
+        <v>3793</v>
+      </c>
+      <c r="E742" t="s">
+        <v>16</v>
+      </c>
+      <c r="F742" t="s">
+        <v>3794</v>
+      </c>
+      <c r="G742" t="s">
+        <v>3795</v>
+      </c>
+      <c r="H742" t="s">
+        <v>3796</v>
+      </c>
+      <c r="I742" t="s">
+        <v>20</v>
+      </c>
+      <c r="K742" t="s">
+        <v>30</v>
+      </c>
+      <c r="L742" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C743" t="s">
+        <v>238</v>
+      </c>
+      <c r="D743" t="s">
+        <v>3797</v>
+      </c>
+      <c r="E743" t="s">
+        <v>16</v>
+      </c>
+      <c r="F743" t="s">
+        <v>3798</v>
+      </c>
+      <c r="G743" t="s">
+        <v>3799</v>
+      </c>
+      <c r="H743" t="s">
+        <v>776</v>
+      </c>
+      <c r="I743" t="s">
+        <v>20</v>
+      </c>
+      <c r="K743" t="s">
+        <v>30</v>
+      </c>
+      <c r="L743" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s">
+        <v>3800</v>
+      </c>
+      <c r="C744" t="s">
+        <v>238</v>
+      </c>
+      <c r="D744" t="s">
+        <v>3801</v>
+      </c>
+      <c r="E744" t="s">
+        <v>16</v>
+      </c>
+      <c r="F744" t="s">
+        <v>3802</v>
+      </c>
+      <c r="G744" t="s">
+        <v>3803</v>
+      </c>
+      <c r="H744" t="s">
+        <v>2916</v>
+      </c>
+      <c r="I744" t="s">
+        <v>20</v>
+      </c>
+      <c r="K744" t="s">
+        <v>30</v>
+      </c>
+      <c r="L744" t="s">
+        <v>3801</v>
       </c>
     </row>
   </sheetData>

--- a/hans/OcrmCashierRecEntity.xlsx
+++ b/hans/OcrmCashierRecEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8165" uniqueCount="3804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8185" uniqueCount="3812">
   <si>
     <t>_id</t>
   </si>
@@ -11425,6 +11425,30 @@
   </si>
   <si>
     <t>1688112094109</t>
+  </si>
+  <si>
+    <t>1688363231510</t>
+  </si>
+  <si>
+    <t>1687326605135</t>
+  </si>
+  <si>
+    <t>1295</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>1688363254422</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>1688104227543</t>
+  </si>
+  <si>
+    <t>1296</t>
   </si>
 </sst>
 </file>
@@ -11468,7 +11492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L744"/>
+  <dimension ref="A1:L746"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -37454,6 +37478,70 @@
         <v>3801</v>
       </c>
     </row>
+    <row r="745">
+      <c r="A745" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C745" t="s">
+        <v>137</v>
+      </c>
+      <c r="D745" t="s">
+        <v>3804</v>
+      </c>
+      <c r="E745" t="s">
+        <v>16</v>
+      </c>
+      <c r="F745" t="s">
+        <v>717</v>
+      </c>
+      <c r="G745" t="s">
+        <v>3805</v>
+      </c>
+      <c r="H745" t="s">
+        <v>3806</v>
+      </c>
+      <c r="I745" t="s">
+        <v>20</v>
+      </c>
+      <c r="K745" t="s">
+        <v>30</v>
+      </c>
+      <c r="L745" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C746" t="s">
+        <v>137</v>
+      </c>
+      <c r="D746" t="s">
+        <v>3808</v>
+      </c>
+      <c r="E746" t="s">
+        <v>16</v>
+      </c>
+      <c r="F746" t="s">
+        <v>3809</v>
+      </c>
+      <c r="G746" t="s">
+        <v>3810</v>
+      </c>
+      <c r="H746" t="s">
+        <v>3811</v>
+      </c>
+      <c r="I746" t="s">
+        <v>43</v>
+      </c>
+      <c r="K746" t="s">
+        <v>30</v>
+      </c>
+      <c r="L746" t="s">
+        <v>3808</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>